--- a/news_data/2020_09.xlsx
+++ b/news_data/2020_09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,15 +22,93 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>귀성객 대신 관광객 몰리는 제주도...방역 '비상'</t>
+  </si>
+  <si>
+    <t>[슬라이드 포토] 추석 이동자제 무색…제주도는 관광객으로 '북적'</t>
+  </si>
+  <si>
+    <t>제주도, 고사 위기 관광업계 1000억원 융자 지원</t>
+  </si>
+  <si>
+    <t>“추석 연휴, 늘어나는 관광객”...제주도, 연휴 기간 행정조치 발동</t>
+  </si>
+  <si>
+    <t>'추캉스족' 30만명 우르르…관광객 몰려드는 제주도의 호소</t>
+  </si>
+  <si>
+    <t>제주도 관광업체에 진흥기금 1000억원 융자 지원</t>
+  </si>
+  <si>
+    <t>제주도발 코로나19 확산 비상 …가족 방문 자제하는데 추석 관광객 30만명</t>
+  </si>
+  <si>
+    <t>제주도, '코로나 일상' 대비 '도착지 없는 비행상품' 등 해외관광 활로 찾는다</t>
+  </si>
+  <si>
+    <t>타이완 항공사, '착륙 없는 제주도 관광' 상품 출시</t>
+  </si>
+  <si>
+    <t>'도의회 반발 속' 제주도관광공사 사장 고은숙씨 내정</t>
+  </si>
+  <si>
+    <t>제주도, 추석 연휴에 몰려들 관광객으로 '비상사태’</t>
+  </si>
+  <si>
+    <t>제주도관광협회-농업인단체협의회, 상생발전 MOU</t>
+  </si>
+  <si>
+    <t>[알립니다]울릉도·독도-제주도-평창 ‘힐링 관광’ 떠나요</t>
+  </si>
+  <si>
+    <t>코로나19로 귀성 자제, 제주도는 관광객 증가 아이러니?</t>
+  </si>
+  <si>
+    <t>[코리아타임스 뉴스 ] 제주도, 추석 연휴에 몰려들 관광객으로 ‘비상’</t>
+  </si>
+  <si>
+    <t>국민의힘 제주도당, 관광협회와 현안 간담회</t>
+  </si>
+  <si>
+    <t>제주도관광협회ㆍ농어민단체 비대면 마켓팅 두손 잡는다</t>
+  </si>
+  <si>
+    <t>제주2공항은 제주도의 '천적', 관광이 바이러스다</t>
+  </si>
+  <si>
+    <t>와그, 관광명소 제주도 '한 달 살기' 카테고리 오픈</t>
+  </si>
+  <si>
+    <t>"이번 추석 연휴, 제주도에 관광객 20만 명 몰린다"</t>
+  </si>
+  <si>
+    <t>추석 연휴 제주도 찾는 관광객들, 공항·항만서 발열시 강제검사·자부담 격리</t>
+  </si>
+  <si>
+    <t>[포토] 제주도 여행, 기분만 내본 대만 관광객</t>
+  </si>
+  <si>
+    <t>가을휴가철 맞은 제주도 관광객 위한 힐링 서귀포 펜션</t>
+  </si>
+  <si>
+    <t>제주도, 추석 연휴 입도 관광객 방역체계 종합상황실 가동</t>
+  </si>
+  <si>
+    <t>'제주도 하늘'만 구경하고 오는데 대만서 4분만에 완판된 한국 관광 상품</t>
+  </si>
+  <si>
+    <t>대만 관광객 태운 항공기 “제주도로 가상 여행, 이륙합니다~” [포토뉴스]</t>
+  </si>
+  <si>
     <t>추석연휴 휴양･관광지(문체부·강원도·제주도) 방역대책은?</t>
   </si>
   <si>
+    <t>제주도로 몰리는 관광객, 제주도 상권 호황 언제까지?</t>
+  </si>
+  <si>
     <t>제주도, 코로나19 대비 해외 관광마케팅 '총력'</t>
   </si>
   <si>
-    <t>제주도로 몰리는 관광객, 제주도 상권 호황 언제까지?</t>
-  </si>
-  <si>
     <t>제주도 유명관광지 곶자왈은 여름철 천연에어컨 역활</t>
   </si>
   <si>
@@ -52,34 +130,109 @@
     <t>제주도관광협회- 농업인단체협의회 업무협약 체결</t>
   </si>
   <si>
-    <t>추석연휴 휴양･관광지(문체부·강원도·제주도) 방역대책은? 즐겨찾기로 설정하기 로그인 회원가입 최종편집일2022.10.04(화) 전체기사 메디컬뉴스 정책 의료 인물 핫이슈 단신/공고 협회/단체 학회 의학회 내과/심장 외과 소아과 산부인과 영상의학/초음파 암 가정의학 피부과/성형외과 안과 방사선종양/핵의학 비뇨기과 이비인후과 정형외과/재활의학 신경 내분비/당뇨 소화기/간 마취/통증/응급 진검/병리/기초 다학제 개원협/의사회 치의학 한의학 간호 영양/통합 국제학회 교육일정 메디컬산업 제약 의료기기 식품 화장품 기획특집 캠페인 라이프 건강강좌칼럼상식 방송연예 지역뉴스 사회경제 문화뉴스 날씨생활 교육뉴스 자료실 기사 메일전송 홈 메디컬뉴스 정책 페이스북 공유하기 트위터 공유하기 구글플러스 공유하기 싸이월드 공유하기 라인 공유하기 네이버블로그 공유하기 네이버밴드 공유하기 네이트온쪽지 공유하기 구글북마크 공유하기 스크랩하기 프린트하기 이메일보내기 글자확대 글자축소 추석연휴 휴양･관광지(문체부·강원도·제주도) 방역대책은? - 연휴 기간 숙박 예약률 높아…철저한 방역 준비 필요 기사등록 2020-09-24 01:10:05 기사수정 정부는 그동안 이번 추석 기간 동안 고향과 친지 방문뿐 아니라 여행 등의 이동을 자제해 줄 것을 당부했지만 연휴 기간의 숙박 예약률이 높은 것으로 조사, 발표되고 있다.실제 추석 연휴 호텔 예약률(9.22 기준)은 강원는 평균 94.9%, 제주는 평균 56%를 기록하고 있다.이에 따라 호텔, 유원시설 등 주요 관광지에 대한 철저한 방역 준비가 필요한 상황이다.문화체육관광부(장관 박양우, 이하 문체부), 강원도(도지사 최문순), 제주특별자치도(도지사 원희룡)이 코로나바이러스감염증-19 중앙재난안전대책본부에 보고 및 논의한 휴양･관광지 방역대책은 다음과 같다.◆문체부…유관기관과 긴밀한 협력체계 구축, 대응 문체부는 추석 연휴 기간 주요 관광지 방역에 대한 철저한 준비를 위해 관계부처, 관광공사, 지자체 등 유관기관과 긴밀한 협력체계를 구축하여 대응하고 있다.구체적으로 정부가 보유하고 있는 KTV, 누리집, 누리소통망(SNS)를 활용하여 추석 방역 수칙 홍보콘텐츠를 적극적으로 홍보하고, 이동(여행) 시 지켜야 할 여행경로별・상황별 수칙을 전파한다는 계획이다.또 지방자치단체가 관광지에서 기본방역지침을 철저히 시행하도록 협조 체계도 구축했다는 설명이다.이를 통해 관광지 방역 및 관광객 방역 수칙 지도를 담당하는 관광지 방역 요원(3,204명 목표) 배치하여 안전한 여행 환경을 조성한다는 계획이다.또 9월 28일(월)부터는 지역관광협회 주관으로 관광사업체에 대한 현장 점검도 한다는 방침이다. ◆강원도…관광시설 특별방역대책 마련강원도는 추석 연휴 동안 가족·친지 단위의 관광객 방문이 많을 것으로 예상됨에 따라 관광시설 특별방역대책을 마련하였다.▲거리 두기 2단계 방역 수칙 준수 여부 점검 등 추진 9월 21일부터 25일까지를 추석 연휴 전 특별방역주간으로 정하고 사회적 거리 두기 2단계에 준하는 방역수칙을 준수토록 집중홍보한다.호텔·콘도 및 기존 점검 시 미흡한 점이 확인되었던 시설 등에 대해 출입자 관리·다중이용시설 소독 등 거리 두기 2단계 방역 수칙 준수 여부를 점검하고 있다. 또 주요 관광지에 방역관리 요원을 배치하고 현장 점검반을 운영하고, 관광지에 대해서는 무인 매표소 운영, 일방통행 및 안내판 설치 등을 통해 이동 동선을 조정하고 인원 분산을 유도한다는 계획이다.▲추석 연휴 기간 주·야간, 방역 점검 추진유명 관광지 인근의 음식점과 유흥시설에 대해서는 추석 연휴 기간 주·야간으로 방역 점검을 추진할 예정이다.이와 함께 코로나19 일일 상황 점검, 환자 입퇴원 및 병상 현황 관리 등을 하고, 24시간 진단검사체계를 운영하는 등 비상 방역 체계도 구축·운영한다. ◆제주도…9월 26일~10월 4일, 추석 연휴 특별방역 집중관리 기간 제주도는 최대 30만 명 내외의 입도가 예상되는 9월 26(토)부터 10월 4일(일)까지를 추석 연휴 특별방역 집중관리 기간으로 정하는 등 감염 예방에 노력하고 있다는 설명이다.▲입도객 방역수칙 준수 의무화 행정조치 발동우선 입도객 방역수칙 준수 의무화 행정조치를 발동하여 9월 26일(토)부터 10월 4일(일)까지 제주 공･항만을 통해 들어온 입도객에 대해 마스크 착용 등 방역 수칙을 준수하도록 했다.또 제주공항·만 입도객 중 37.5℃ 이상의 발열자는 제주공항 선별진료소에서 의무적으로 진단 검사를 받고, 도내에 마련된 자가 또는 숙소에서 의무 격리토록 했다.▲게스트하우스 내·외부 등 파티전면 금지 등 게스트하우스를 통한 감염을 막기 위해 9월 21일부터 게스트하우스 내·외부는 물론 게스트하우스와 연계된 음식점에서의 파티도 전면 금지하도록 행정조치를 강화했다. ▲관광사업체 대상…방역실태 집중점검9월 30일(수)까지 관광사업체를 대상으로 방역관리자 지정, 주기적 방역 및 이행수칙 준수, 종사자 위생관리 등 방역실태에 대한 집중점검을 진행한다.▲연휴 기간…보건소, 선별진료소 정상운영 등 연휴 기간에 보건소(6개소), 선별진료소(7개소)를 정상 운영하고, 24시간 비상 진료 체계를 유지하는 등 추석 연휴 동안 코로나19 대응에도 만전을 기한다는 방침이다.[메디컬월드뉴스] 관련기사 추석 연휴 ‘코로나19 및 코로나19 이외 의료이용’ 방법은? 2021년 국내 관광 흐름 전망, 새로운 여행 기대감도 높아 문체부-인터폴과 협조, 해외 한류 콘텐츠 불법 사이트 폐쇄 추진 등 전국 골프장 방역 및 회원모집 위반 사례 적발… 94건 시정 조치 등 농촌진흥청, 농촌 치유관광 프로그램 ‘긍정적 효과’ TAG #모바일메인 0 기사수정 다른 곳에 퍼가실 때는 아래 고유 링크 주소를 출처로 사용해주세요. http://medicalworldnews.co.kr/news/view.php?idx=1510937803 페이스북 공유하기 트위터 공유하기 구글플러스 공유하기 싸이월드 공유하기 라인 공유하기 네이버블로그 공유하기 네이버밴드 공유하기 네이트온쪽지 공유하기 구글북마크 공유하기 스크랩하기 프린트하기 이메일보내기 글자확대 글자축소 기자프로필 임재관 기자 임재관 기자 의 다른 기사 보기 나도 한마디 ※ 로그인 후 의견을 등록하시면, 자신의 의견을 관리하실 수 있습니다. 0/1000 확대이미지 영역 [9월 제약사 이모저모]비아트리스코리아, 사노피, 유틸렉스, 한국MSD, 카나리아바이오, 파멥신 등 소식 [9월 의료기기 이모저모⑤]루트로닉, 칼로스메디칼, EDGC 등 소식 [9월 제약사 이모저모]비아트리스, 사노피, 셀트리온, 지엔티파마, 한국다이이찌산쿄, 카나리아바이오 등 소식 많이 본 뉴스+더보기 1 전 세계 코로나19 신규확진자 5국 10만명…7월 20일 현황은? 미국 38만명 이상 2 [7월 15일 병원계 이모저모②]보라매, 아주대, 전북대, 한림대성심병원 등 소식 3 [7월 15일 병원계 이모저모①]경북대, 동산, 서울대, 인하대병원 등 소식 4 전 세계 코로나19 신규확진자 20개국 1만명…7월 15일 현황은? 미국 20만명 이상 5 급성기 뇌졸중 9차 평가 결과 132개 기관 1등급…뇌졸중 평가대상 5곳 중 3곳 집중치료실 없어 6 [7월 29일 병원계 이모저모②]강남세브란스, 순천향대천안, 의정부을지대, 아주대병원 등 소식 7 7월 18일부터 코로나19 백신 4차접종 대상 당일접종 및 사전예약 가능 8 [8월 2일 병원계 이모저모①]고려대, 서울대, 이화의료원, 아주대, 국립중앙의료원 등 소식 9 코로나19 재유행, 대한의사협회-질병관리청 공동 입장문 발표 10 [7월 21일 병원계 이모저모①]국립암센터, 고려대안암, 명지, 자생한방병원 등 소식 회사소개개인정보취급방침이용약관메일수집거부제휴제안광고문의청소년보호정책 (주)메디컬월드뉴스 등록번호서울, 아02428, 등록일2013-01-16, 발행일자2022-10-04, 발행인김영미, 편집인김영신, 청소년보호책임자 김영신, 연락처02)761-8801, 070-4277-0717, 이메일medicalkorea1@daum.net, 주소서울시 영등포구 국회대로 72길 4 아이비피아빌딩 5층 ㈜메디컬월드뉴스 국내유일학회전문미디어 메디컬월드뉴스 © www.medicalworldnews.co.kr All rights reserved. 국내유일학회전문미디어 메디컬월드뉴스의 모든 콘텐츠(기사 등)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 모바일 버전 바로가기</t>
-  </si>
-  <si>
-    <t>제주도, 코로나19 대비 해외 관광마케팅 '총력' - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 코로나19 대비 해외 관광마케팅 '총력' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 코로나19 대비 해외 관광마케팅 '총력' 현대성 기자 승인 2020.09.20 16:49 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도가 언택트 여행 활로를 모색해 안전관광 신루트를 창출하는 등 코로나19 이후를 대비한 해외 관광마케팅에 힘을 쏟고 있다. 착륙 없이 항공기나 크루즈 안에서 여행하는 소비자를 대상으로 코로나 일상 속(New Normal) 마케팅을 진행하고 현지 여행업계 대상 제주 정보 공유로 방역의 부담을 덜고 관광시장 조기 회복도 견인한다. 코로나19 장기화로 어려움을 겪고 있는 관광업계를 위해 글로벌 잠재 소비자를 대상으로 청정·안전 제주 이미지를 적극 홍보함으로써 관광심리 조기 회복에 선제적으로 대응한다는 방침이다. 제주도는 대만-제주 가상출국 여행 얼리버드 프로모션 상품 탑승객 120명을 대상으로 제주관광 홍보 및 제주어 배우기, 퀴즈 이벤트 등을 진행했다고 20일 밝혔다. 제주-대만 가상출국 여행 얼리버드 상품은 코로나 여파로 해외여행이 제한된 상황에서 항공기가 착륙하지 않은 채 제주 상공만 선회한 후 대만으로 돌아가는 상품이다. 제주도, 한국관광공사 타이베이지사, 대만 여행사 이지플라이와 타이거에어가 공동 출시했다. 출시 4분 만에 완판되는 등 뜨거운 호응을 얻었다. 제주도는 지난 19일 타이베이공항을 출발한 후 제주국제공항까지 왕복하는 비행 시간동안 제주의 청정 자연환경, 다양한 이색 체험, 풍성한 먹거리를 홍보했으며 행사는 성황리에 마무리됐다. 제주도는 또 오는 30일부터 다음 달 2일까지 예정된 겐팅 크루즈라인과 제주 관광 테마 크루즈 운영사업 지원을 통해 제주의 해외관광시장 조기 회복도 준비하고 있다. 제주도는 대만 순회 크루즈선을 활용해 제주관광 테마 크루즈를 운영하고, 선상 문화체험 활동도 펼칠 계획이다. 제주도는 아울러 해외 관광마케팅 강화를 위해 중국, 대만, 동남아, 일본 소재 11개 제주관광홍보사무소를 중심으로 현지 밀착형 마케팅을 병행하고 있다. 김재웅 도 관광국장은“향후 해외 관광시장 재개를 대비해 제주도가 경쟁우위를 확보할 수 있도록 현지 상황에 맞춘 마케팅을 추진하고 있다”며 “해외관광시장 회복을 위해 최선을 다하겠다”고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도로 몰리는 관광객, 제주도 상권 호황 언제까지? × 로그인 회원가입 전체기사 실시간 랭킹 정치 정치일반 대통령실 국회 정당 북한 국방·외교 사회 사회일반 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 지역 인물 수도권 경기남부 경기북부 인천 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 IT/과학 IT일반 과학일반 모바일 인터넷·SNS 통신 보안·해킹 컴퓨터 게임 리뷰 연예 연예일반 TV 영화 음악 스타 스포츠 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 UFC 생활문화 생활문화일반 건강정보 자동차·시승기 도로·교통 여행·레저 음식·맛집 패션·뷰티 공연·전시 책 종교 날씨 세계 세계일반 아시아·오세아니아 북미 중남미 유럽 중동·아프리카 오피니언 포토 D-TV 착한선진화 제보하기 사진구매 모바일 버전 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 공유하기 페이스북 트위터 카카오톡 주소복사 제주도로 몰리는 관광객, 제주도 상권 호황 언제까지? 입력 2020.09.05 06:00 수정 2020.09.04 17:12 김희정 기자 (hjkim0510@dailian.co.kr) 지난 6월 애월 카페거리 내 카페 월평균 추정 매출 1918만원코로나19 이후에도 호황 분위기 지속될지 미지수애월 카페거리 전경 ⓒ카카오맵전 세계적으로 신종 코로나바이러스 감염증(코로나19)이 확산하면서 해외여행을 떠나는 관광객 수가 감소했다. 대신 국내 관광지, 특히 제주도에 많은 내국인 관광객이 몰리고 있다.제주도에는 다양한 관광지와 특화된 상권이 있지만 특히 해변에 위치한 카페들이 큰 인기를 누리고 있다. 일례로 제주시 애월읍 애월항 인근에 위치한 애월 카페거리는 해변가에 위치한 특색 있는 카페를 방문하기 위해 많은 관광객이 찾는다. 5일 수익형부동산 연구개발기업 상가정보연구소가 SK텔레콤 빅데이터 서비스 플랫폼 지오비전 통계를 분석한 결과 올해 6월 기준 애월 카페거리 일평균 유동인구는 3만4022명으로 조사됐다.이는 일주일 평균 약 24만명이 방문하는 것이며, 한 달에 약 100만명의 인구가 상권을 찾는 셈이다.6월 유동인구 중 30대가 22.9%로 가장 많았고 이어 ▲40대(22.7%) ▲50대(18.6%) ▲20대(17.2%) ▲60대(14.4%) ▲10대(4.2%) 순이었다. 상권 내 유동인구는 소비력이 높은 30·40대 비중이 45.6%로 가장 높았다. 지난 6월 애월 카페거리 내 카페 월평균 추정 매출은 1918만원으로 조사됐다. 이는 상권이 속한 제주시 카페 월평균 추정 매출 1106만원 대비 812만원 높은 매출이다. 또한 상권 내 1회 방문시 평균 추정 결제금액도 1만8617원으로 제주시 평균 1만4619원 대비 3998원 높았다.연령 별 추정 매출은 30대가 33.7%로 가장 높은 비중을 차지했고 ▲20대(32.4%) ▲40대(19%) ▲50대(10.5%) ▲60대 이상(4.4%) 순이었다.조현택 상가정보연구소 연구원은 "최근 코로나19 바이러스 확산의 영향으로 제주도로 여행 가는 국내 관광객이 급증해 제주도 상권은 활기를 띤 분위기를 보이고 있다"며 "다만 이러한 영향은 관광지 상권으로 국한돼 있어 관광객 방문이 적은 지역의 상권은 관광지 상권에 비해 다소 침체된 분위기"라고 밝혔다.이어 "여름 7~8월 휴가철에는 제주도 방문자가 더욱 증가하며 좋은 상권 분위기를 보였다"며 "그러나 코로나19 확산이 종식 됐을 때도 이러한 분위기를 지속적으로 유지할지는 미지수"라고 제주도 상권을 분석했다. #부동산 #코로나 #휴가 ©(주) 데일리안 무단전재 및 재배포 금지 김희정 기자 (hjkim0510@dailian.co.kr) 기사 모아 보기 &gt; +네이버 구독 0 0 관련기사 “빈집 활용한 도시재생으로 도시 빈집 문제 해결” 국토교통부는 인구 고령화‧구도심 공동화 등에 따라 급격히 증가하는 도심 내 빈집 문제에 대응하기 위해 빈집 정비기반을 조속히 마련하고, 빈집을 활용한 도시재생뉴딜사업을 본격 추진한다.또한, 화재 발생‧범죄 위험 등 주거안전을 위협하는 방치된 빈집을 효과적으로 정비하기 위해 관련 법‧제도도 함께 개선한다.빈집법에 따른 ‘빈집’은 ‘지자체장 확인 후 1년 이상 거주나 사용이 없는 주택’으로, 전국 빈집은 약 10만9000가구로 추정된다.국토부는 빈집 정비기반을 조속히 마련하기 위해 도시지역에 해당하는 모든 지자체가 빈집 실태조사는 올해… 美 대선후보 수락연설 시청률, 트럼프보다 바이든이 높았다 재선에 도전하는 미국 공화당 대선후보인 도널드 트럼프 대통령의 후보 수락 연설 시청률이 조 바이든 민주당 후보 시청률보다 더 낮았다.CNN은 28일(현지시간) 2160만명의 시청자가 전날 트럼프 대통령의 연설을 생중계로 지켜봤다는 시청률 조사업체 닐슨 미디어 리서치 집계를 보도했다.일주일 전 민주당 전당대회 마지막 날 바이든 후보의 수락 연설은 2360만명이었다. 바이든 후보의 연설에 트럼프 대통령보다 200만명가량 많은 시청자가 몰렸다는 이야기다.트럼프 대통령은 지난 2016년 대선을 앞둔 전당대회에선 경쟁자였던 힐러리 클린턴 민… 코로나19 신규확진 323명, 이틀째 300명대…전국 곳곳서 동시확산 수도권 249명-비수도권 69명-검역 5명 [데일리안 오늘뉴스 종합] 사실상 거리두기 2.5단계 도입…3단계 격상 못한 이유는?, 의협 "내달 7일부터 무기한 총파업" 등 ▲사실상 거리두기 2.5단계 도입…3단계 격상 못한 이유는?정부가 사회적 거리두기 2단계를 1주일 연장키로 했다. 정세균 국무총리가 거리두기 3단계 격상 여부를 판단할 시점이라고 밝힌 지 반나절 만에 현 정책 유지를 택했다. 정부가 2단계 연장을 공식화 했지만 내용을 들여다보면 사실상 '2.5단계'에 해당하는 방역 정책이 시행될 전망이다. 정 총리는 28일 오전 정부서울청사에서 코로나19 대응 중앙재난안전대책본부 회의를 주재하며 "주말에 종료되는 수도권의 2단계 거리두기를 한 주 더 연장하는 대신 더욱 강력한 방역조치를 취하겠다"고… 파라다이스시티 호텔‧리조트, 9일 오후 1시까지 휴장 외국인 전용 카지노는 무기 휴장 김희정 기자가 쓴 기사 더보기 與, 文 서면조사 거부에 "전두환·노태우 과거 정권보다 권위주위에 찌들어" 주호영 "文, 전직 대통령이라고 해서 특권 가질 수 없어" 천태만상 '비리 백화점'...尹정부, 文정부 '태양광 사업' 샅샅이 들여다본다 [데일리안 창간18주년포럼] MZ세대가 분석한 尹대통령 'SWOT' [데일리안 창간18주년포럼] 김민규 "대통령 되시기 이전에 보여준 모습, 다시 보여 달라" 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 시사만평 더보기 문재인 전 대통령이 옥황상제인가?…무엇이 '무례하다'란 건가? 민주당, "박진 해임하라" 다음엔 "윤석열 사과하라" 다음엔 "김건희?" 한동훈, 5시간 검수완박 위헌 설명…민주당 재판정도 안나오고 뒤에서 고소? 산업부, "10대 그룹 간담회 하자"…'전기요금 올릴께' [2022 국감] '금융사고 책임론' 은행장 줄소환...한은 빅스텝 예고 '촉각' 횡령・이상 외환거래・론스타 '쟁점'물가・환율 불안 관련 질문 빗발칠 듯 [2022 국감] 4대강·원전·태양광까지…환경부 국감 ‘정쟁’ 예상 [2022 국감] 추경호 “물가·민생경제 안정 정책 최우선 삼겠다” [尹 출근길 한마디] "'文 서면조사' 감사원은 독립적 운영 헌법기관…언급 적절치 않아" 감사원, '서해 공무원 피격' 관련 文에 조사 요청해文 "대단히 무례한 짓" 불쾌감 표출…메일 반송도尹 "대통령이 뭐라고 언급하는 것 적절하지 않아""北 무모한 핵도발은 국제사회 결연한 대응 직면" [尹 출근길 한마디] "野 박진 해임안? 능력 탁월한 분…무엇이 더 옳은지 국민이 알 것" [尹 출근길 한마디] "비속어 논란, 사실과 다른 보도로 국민 위험 빠뜨려…진상 밝혀져야" [미디어 브리핑] 검찰 "방통위 직원들, TV조선 평가점수 낮춰 달라고 요구" 검찰 방통위 직원들에게 공무상비밀누설, 직권남용권리행사방해 혐의 등 적용 "심사평가 점수 변경해 TV조선 재승인 막고자 심사위원 세 명 불러 점수 수정 요구""피의자들 수정 사실 숨기고 제출…방통위원장·상임위원, 점수 수정 모르고 조건부 재승인 의결" 일부 심사위원들 검찰 주장에 "점수 수정, 심사위원 개인의 고유 권한…수정했지만 적법했다" 반박 [미디어 브리핑] MBC 제3노조 "尹 비속어 문제라면, 이재명 욕설은 왜 보도 안 했나" [미디어 브리핑] 法 "KBS, 불법 파견직 직접 고용하고 240억원 손해배상" 국민들은 지금? 더보기 尹 지지율 소폭 상승해 35.9%…순방 성과는 부정평가 60% [데일리안 여론조사] 국민 39.2% "김건희만 국감장 나와야"…"文만 나와야" 21.9% [데일리안 여론조사] 경제 많이 본 기사 더보기 1 부정승차 방지…SR, 특별 기동검표 강화 2 삼성증권, 글로벌 실전투자대회 ‘G6 투자 챌린지’ 진행 3 이번주 공모주 청약, ‘탑머티리얼·오에스피’ 등 4개사 4 이재용 삼성 부회장, '副'를 떼야 하는 이유 [박영국의 디스] 5 미래에셋증권, ‘공모주 투자플래너’ 서비스 오픈 D-피플라운지 더보기 '소통의 리더' 김성한 DGB생명 사장, 변액보험도 IFRS17도 '유비무환' "소통 그리고 소통."보험 상품 개발과 영업 등 실적과 관련된 물음부터 사내 문화와 미래 비전에 이르기까지, 경영 전반의 어떤 질문에도 김성한 DGB생명보험 사장의 방점은 소통이었다.사람 중심의 기업가 정신을 역설해 온 김 사장에게 올해는 여러모로 기념비적인 한 해다. 수장이 된 이후 줄기차게 추진해 왔던 변액보험 강화 전략이 눈에 띄는 성과를 내고 있고, 연임에 성공하며 경영 능력에 대한 신뢰를 재확인하면서다.김 사장은 지난 7일 데일리안과 만나 연임을 확정한 후 처음 인터뷰를 갖고, 그 동안 최고경영자로서 거둔 성과를 묻는 질문… 특징주 더보기 · 네이버, 美 1위 중고패션 플랫폼 인수...주가는↓ · 삼성전자, 1.4나노 양산 선언에 장 초반 강세 · 더블유씨피, 코스닥 상장 첫날 급락 · 카카오페이, 오케이포스 지분 투자에 강세 · 두산, 협력사 '협동로봇 스마트공장 구축' 지원에 강세 오피니언 더보기 이진곤의 그건 아니지요 민주당의 ‘참사’ ‘탄핵’ 중독증 김규환의 핸디 차이나 ‘習의 야심작’ 일대일로 사업에 메스 대는 중국, 그 속내는 하재근의 이슈분석 돈스파이크, 역대급 방송 흑역사 양경미의 영화로 보는 세상 복고풍 뮤지컬 영화의 흥행 예감 이기선 칼럼 민주당의 힘자랑, 방탄 말고 민생에 [코인뉴스] 美 GDP 연속 역성장 속 비트코인 2700만원대 횡보 이더리움은 190만원선 정체 [코인뉴스] 美 증시 급락해도…비트코인 하락폭 선방 [코인뉴스] 강달러 주춤하자…비트코인 2800만원대 재진입 D-FOCUS 서현우 "'헤어질 결심', 탕웨이 정확한 발음 지도 덕분" 최대훈 "사람들에게 각인되지 않은 이미지, 나는 좋다" 장승조 "'모범형사' 두 시즌 성공, 내게 큰 자부심" 인사·부고·동정 더보기 [인사] 한국자동차연구원 [부고] 홍문기(HJ중공업 대표이사)씨 장인상 [부고] 송영수(전 한진중공업 사장)씨 별세 [인사] 해양수산부 [인사] 금호타이어 오피니언 칼럼 기자의 눈 기고 시사만평 정치 정치일반 대통령실 국회 정당 북한 국방·외교 사회 사회일반 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 지역 인물 수도권 경기남부 경기북부 인천 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 IT/과학 IT일반 과학일반 모바일 인터넷·SNS 통신 보안·해킹 컴퓨터 게임 리뷰 연예 연예일반 TV 영화 음악 스타 스포츠 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 UFC 생활문화 생활문화일반 건강정보 자동차·시승기 도로·교통 여행·레저 음식·맛집 패션·뷰티 공연·전시 책 종교 날씨 세계 세계일반 아시아·오세아니아 북미 중남미 유럽 중동·아프리카 비쥬얼 뉴스 포토 D-TV 카드뉴스 Copyright ⓒ ㈜데일리안 All rights reserved. 회사소개 광고제휴문의 개인정보취급방침 저작권 규약 이용약관 임직원복지몰 제호: 데일리안 등록일: 2005.09.13 등록번호: 서울 아00055 발행인: 민병호 편집인: 이상준 주소 : 서울시 강서구 양천로583(우림블루나인 B동 508,509호) 전화 : 02-714-0770 FAX : 02-714-2969</t>
-  </si>
-  <si>
-    <t>제주도 유명관광지 곶자왈은 여름철 천연에어컨 역활 &lt; 국내 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-04 11:10 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도 유명관광지 곶자왈은 여름철 천연에어컨 역활 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 국내 제주도 유명관광지 곶자왈은 여름철 천연에어컨 역활 기자명 정기환 기자 입력 2020.09.08 09:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 국립산림과학원, 곶자왈 내부의 8월 평균 기온이 외부보다 약 2℃ 낮다고 밝혀 사진= 제주도 곶자왈 전경[투어타임즈=정기환 기자] 산림청 국립산림과학원 난대·아열대산림연구소는 곶자왈 숲의 7년간 기온 빅데이터 자료를 분석한 결과 곶자왈 숲이 외부보다 낮은 온도를 유지하고 있음을 확인했다. 난대·아열대산림연구소는 곶자왈시험림 8개 기상측정 장치에서 수집한 자료를 대상으로 7년간 8월의 지역별 기온 차이를 분석한 결과, 성산지역보다 선흘곶자왈이 1.9℃ 낮았으며 저지곶자왈과 청수곶자왈은 고산지역에 비해 각 1.7℃, 1.5℃가 낮은 것으로 나타났다. 특히 7년 관찰 기간 중 여름철 기온 차이가 가장 컸던 2016년도에는 곶자왈 내부가 도심지역 보다 2.3∼2.8℃정도 낮은 것으로 나타났다. 숲의 기온이 더 낮은 이유는 나무의 증산작용과 그늘효과, 반사열 저감효과 때문이다. 생물 다양성이 높고 울창한 나무로 둘러싸인 곶자왈을 잘 보전한다면 한여름에도 시원한 온도를 유지할 수 있을 것으로 보인다. 국립산림과학원 난대.아열대산림연구소 서연옥 연구사는 “이번 결과는 제주 용암숲 곶자왈의 기온이 제주 도심보다 훨씬 시원하다는 것을 장기간의 데이터를 통해 수치적으로 증명했다는데 의의가 있다”며 “곶자왈은 제주도 전체의 약 6%에 해당하지만, 생물다양성의 보고 지질학적 가치와 더불어 기온을 낮추는 효과도 있는 것으로 판단되어 지속적인 보존과 관리가 필요하다”고 말했다.&lt;정기환 기자 jeong9200@sundog.kr&gt; 정기환 기자 jeong9200@sundog.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 방역 안전국간 소규모 관광마케팅 추진 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 11:07 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 방역 안전국간 소규모 관광마케팅 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도, 방역 안전국간 소규모 관광마케팅 추진 기자명 제주매일 입력 2020.09.21 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 안전관광 신루트 창출도모 관광테마 크루즈 운영지원 제주특별자치도가 언택트 여행 활로를 모색해 안전관광 신루트를 창출하는 등 코로나19 이후를 대비한 해외 관광마케팅에 힘을 쏟고 있다. 착륙 없이 항공기나 크루즈 안에서 여행하는 소비자를 대상으로 코로나 일상 속(New Normal) 마케팅을 진행하고 현지 여행업계 대상 제주 정보 공유로 방역의 부담을 덜고 관광시장 조기 회복도 견인한다. 코로나19 장기화로 어려움을 겪고 있는 관광업계를 위해 글로벌 잠재 소비자를 대상으로 청정·안전 제주 이미지를 적극 홍보함으로써 관광심리 조기 회복에 선제적으로 대응한다는 방침이다. 최근 협정을 맺은 방역 안전국가 간 소규모 여행을 허용하는 트래블 버블(Travel bubble)이 추진되고, 한국발 입국자에 대한 조치 해제국가 증가(9월 17일 기준, 24개국) 등 여행 재개를 위한 분위기가 조성되고 있는 추세도 고려됐다. 앞서 원희룡 지사는 “코로나 장기화에 따라 위드 코로나시대에는 안전관광이 필수요소가 될 것”이라며 “분산형·비대면·비접촉 관광과 프로그램·콘텐츠 등의 발굴을 적극 지원하고, 관련된 규제를 과감하게 풀면서 뉴노멀시대에 발맞춘 제주형 관광 새길을 선도해야 한다”고 강조했다. 코로나 여파로 해외여행이 제한된 상황에서 제주도, 한국관광공사 타이베이지사, 대만 여행사 이지플라이(易飛網)와 타이거에어가 공동 출시한 이 상품은 항공기가 착륙하지 않은 채 제주 상공만 선회한 후 대만으로 돌아가는 일정이다. 제주도는 중국(5개소), 대만(1개소), 동남아(2개소), 일본(3개소)*에 소재하는 11개 제주관광홍보사무소를 중심으로 현지 밀착형 마케팅도 병행하고 있다. 김재웅 관광국장은“향후 해외관광시장 재개를 대비해 제주도가 경쟁우위를 확보할 수 있도록 현지 상황에 맞춘 마케팅을 추진하고 있으며,  해외관광시장 회복을 위해 최선을 다하겠다”고 밝혔다. 제주매일 news@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ 제주지식재산센터 10월 무료 변리상담 지원 JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 포토뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>전 제주도의원 소유 관광시설 불법 건축물 ‘2차 시정명령’ &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 11:13 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 해상풍력 갈등관리, 중립적 객관적 중간지원기구 고민 할 때다 세상을 번역하는 영화번역가 황석희, 6일 제주대 강연 3년만에 열리는 제주물 세계포럼...지하수 보전관리 논의 제주4·3 전국화 초석 놓았다...초중고 교과서에 모두 ‘4·3 서술’ 양덕순 제주연구원장 예정자 “실용적 정책연구 추진” 공언 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 전 제주도의원 소유 관광시설 불법 건축물 ‘2차 시정명령’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 전 제주도의원 소유 관광시설 불법 건축물 ‘2차 시정명령’ 기자명 이동건 기자					(dg@jejusori.net) 입력 2020.09.09 10:06 댓글 10 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 서귀포시 “1차 시정명령 불이행해 2차 시정명령”...2차 불이행시 3차명령, 사법 고발 방침 전직 도의원을 지낸 K씨가 소유한 서귀포시 대정읍 모 관광시설 내 무허가 건축물. 김태엽 서귀포시장이 임명 전인 지난 3월 음주운전 적발 당일 술자리를 가진 장소다. ⓒ제주의소리 자료사진제주 서귀포시가 대정읍 모 관광시설 내 전 도의원 K씨 소유의 무허가 불법 건축물에 대해 2차 시정명령을 내렸다. 서귀포시는 대정읍 A관광시설에 대한 1차 시정명령(7월24일 시정명령, 9월3일 기한 종료)에도 시정이 이뤄지지 않자 8일자로 2차 시정명령을 내렸다고 밝혔다. 2차 시정명령 기한은 오는 10월15일까지다.2차 시정명령에도 시정이 이뤄지지 않으면 3차 시정명령과 이행강제금 부과, 사직당국 고발 조치 등의 조치가 이뤄질 예정이다. 이와 관련해 서귀포시 관계자는 “1차 시정명령 기한이 끝난 뒤 현장을 확인했고, 시정이 이뤄지지 않아 2차 시정명령을 내렸다”고 말했다. 시정명령을 받은 A관광시설은 전직 도의원 K씨 소유다. K씨는 허가 없이 불법으로 건물 2동을 설치한 것으로 드러나 물의를 빚고 있다.한 동은 야외 관광지 부지 내 별채 개념의 건물이자 연회장소 등으로 이용 됐고, 나머지 한동은 나무 위에 설치된 소위 ‘트리하우스’로 전기시설 등도 되어 있다. 특이 히 불법 건축물은 음주운전으로 논란을 빚은 김태엽 서귀포시장이 지난 3월 임명 전 음주운전 사고 적발 당시 술자리를 가졌던 장소로 드러나 큰 물의를 일으켰다.서귀포시 대정읍 A관광시설에 설치된 트리하우스. 관련기사 제주 전 도의원 소유 대정읍 불법건축 1차 시정명령 전 제주도의원 K씨 불법 건축물 1동 철거…트리하우스 3차 명령 전 제주도의원 소유 관광시설 불법 건축물 모두 철거돼 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 도정에 입맛에 따라 움직이던 분으로 기억하는데....전임이 아예 보수정치꼬리표를 달았다면 이분은 색깔없이 정치하는 분이란 느낌이.... 2 구직 청년 왜이렇게 많음? ㄷㄷㄷㄷ 미깡이라도 따래 댕기라 마농 심글땐 마농밭가고 3 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 5 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 6 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 7 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 8 썬오브 비치 9 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 10 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>코로나19 후 관광객 ‘해외→제주도’로 유턴… 상권 호황 기회? - 머니S 본문영역 바로가기 2022.10.04 | 11:12:21 "드디어 일본 간다"… 무비자·엔저에 여행수요 '껑충' 더보기 "드디어 일본 간다"… 무비자·엔저에 여행수요 '껑충'3분전 [머니S포토] '일상 속 공공디자인'4분전 에이비엘바이오, 파킨슨병 치료제 ABL301 美임상 신청6분전 "자영업자 빚 감면" 오늘 출범한 새출발기금 사전신청만 3410명7분전 요기요, 신입 개발자 공개 채용 시작8분전 [머니S포토] '공공디자인 페스티벌 2022'8분전 "아이유-이효리 이어 3위"… 산다라박, 재산 300억설?10분전 "차별화된 고객경험 선사"… 삼성·LG전자, 'KES 2022'서 혁신 기술 맞대결12분전 황성환 신임 전남부교육감 "'탄탄한 전남교육!' 실현에 최선"12분전 에누리닷컴, e커머스 빅데이터 처리 시스템 역량 강화12분전 2022.10.04 기사표출기준 광고안내 독자의견 정기구독 MNB 머니바이크 하이하이 검색오픈 검색 검색 금융 은행 보험 증권섹션 재테크 정책일반 생활금융 증권 마켓 비즈니스 글로벌 재테크 가상화폐 산업 기업일반 IT 블록체인 자동차 항공물류 유통생활 정책일반 게임 의약/바이오 에너지/중공업 건설/부동산 업계일반 부동산시장동향 정책일반 재테크 생활문화 여행 맛집 출판 공연문화 교육,육아 건강 패션뷰티 이슈&amp; 창업현미경 브랜드소식 정책일반 핫이슈/트렌드 인물탐방 쇼핑몰뉴스 창업칼럼 연예 스타 드라마 예능 영화 뮤직 해외 일반 포토 스포츠 야구 해외야구 축구 해외축구 농구 배구 골프 일반 e스포츠&amp;게임 연재 정치/사회 정치 사회 지역 글로벌 인사 부고 전체 코로나19 후 관광객 ‘해외→제주도’로 유턴… 상권 호황 기회? 머니S 김창성 기자|조회수 : 1,469|입력 : 2020.09.03 17:53 기사공유 댓글남기기 폰트크게 폰트작게 프린트 코로나19 여파에 해외 여행객이 제주도로 눈을 돌리면서 제주도 상권이 기대감에 가득찼다. 사진은 제주의 한 해변에 붙은 부동산 광고 현수막. /사진=김창성 기자세계적으로 신종 코로나바이러스 감염증(코로나19)이 확산되면서 해외여행을 떠나는 관광객 수가 감소했다. 이들이 해외 대신 제주도로 눈을 돌리자 제주 상권이 들썩이는 분위기다. 3일 수익형부동산 연구개발기업 상가정보연구소에 따르면 SK텔레콤 빅데이터 서비스 플랫폼 지오비전 통계를 분석한 결과 지난 6월 기준 제주 애월 카페거리 일평균 유동인구는 3만4022명이다.이는 일주일 평균 약 24만명이 방문하는 수치며 한 달에 약 100만명의 유동인구가 상권을 찾는 셈.6월 유동인구 중 30대가 22.9%로 가장 많았고 이어 ▲40대(22.7%) ▲50대(18.6%) ▲20대(17.2%) ▲60대(14.4%) ▲10대(4.2%) 순이었다. 상권 내 유동인구는 소비력이 높은 30~40대 비중이 45.6%로 가장 높았다.지난 6월 애월 카페거리 내 카페 월평균 추정 매출은 1918만원으로 조사됐다. 이는 상권이 속한 제주시 카페 월평균 추정 매출 1106만원 대비 812만원 높은 매출이다. 상권 내 1회 방문 시 평균 추정 결제금액도 1만8617원으로 제주시 평균인 1만4619원 보다 3998원 높았다.연령 별 추정 매출은 30대가 33.7%로 가장 높은 비중을 차지했고 ▲20대(32.4%) ▲40대(19%) ▲50대(10.5%) ▲60대 이상(4.4%) 순이었다.조현택 상가정보연구소 연구원은 “최근 코로나19 확산의 영향으로 제주도로 여행 가는 국내 관광객이 급증해 제주도 상권은 활기를 띠고 있다”며 “다만 이러한 영향은 관광지 상권으로 국한돼 있어 관광객 방문이 적은 지역의 상권은 관광지 상권에 비해 다소 침체된 분위기”라고 분석했다. 이어 “여름 7~8월 휴가철에는 제주도 방문자가 더욱 증가하며 상권 분위기가 달아올랐다”며 “하지만 코로나19 확산이 종식이 됐을 때도 이러한 분위기가 지속될 지는 미지수”라고 우려했다. 김창성 solrali@mt.co.kr 머니S 김창성 입니다. 이 기자의 다른기사 보기 &gt; 공유 : 공감 0% 비공감 0% &lt;저작권자 ⓒ ‘성공을 꿈꾸는 사람들의 경제 뉴스’ 머니S, 무단전재 및 재배포 금지&gt; &lt;보도자료 및 기사 제보 (moneys@mt.co.kr)&gt; 한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥''대체공휴일' 개천절, 시급제 근로자 '유급휴일' 보장되나'금리의 역습'… 신용점수 1000점 육박해도 이자는 벌써 7%YG "제니 개인사진 최초 유포자 경찰수사 의뢰""윤 대통령 지켜내자"… 전광훈 등 보수단체 3만명 모여 서울 교통 대란 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 랭킹뉴스 최신뉴스 추천뉴스 한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥''대체공휴일' 개천절, 시급제 근로자 '유급휴일' 보장되나'금리의 역습'… 신용점수 1000점 육박해도 이자는 벌써 7%YG "제니 개인사진 최초 유포자 경찰수사 의뢰""윤 대통령 지켜내자"… 전광훈 등 보수단체 3만명 모여 서울 교통 대란"둘째 가진 줄"… 홍현희, 김지민 놀라게 한 물건 정체는?쥐도 새도 모르게 인사이동 당했다… 법원 "인사권 남용""괴물 상대하려면 나도 괴물 되겠다"… 박연수, 딸 송지아에게 무슨 일?공무원 3000명, 월급 이외 연 '3400만원' 어떻게 벌었나 봤더니이번엔 'HUG'… 원희룡 국토 장관, 도로공사 이어 사장 사퇴 압박 "드디어 일본 간다"… 무비자·엔저에 여행수요 '껑충'[머니S포토] '일상 속 공공디자인'에이비엘바이오, 파킨슨병 치료제 ABL301 美임상 신청"자영업자 빚 감면" 오늘 출범한 새출발기금 사전신청만 3410명요기요, 신입 개발자 공개 채용 시작[머니S포토] '공공디자인 페스티벌 2022'"아이유-이효리 이어 3위"… 산다라박, 재산 300억설?"차별화된 고객경험 선사"… 삼성·LG전자, 'KES 2022'서 혁신 기술 맞대결황성환 신임 전남부교육감 "'탄탄한 전남교육!' 실현에 최선"에누리닷컴, e커머스 빅데이터 처리 시스템 역량 강화 '손담비 손절설' 진짜였나… 소이 "인생은 인생 그대로""술 좀 그만 먹어라"… '음주운전' 곽도원, 차기작 어쩌나"밀라노서 우연히" 아이유·유아인, 파리 목격담… 무슨 사이?"제조하는 것 같아"… 돈스파이크, 손놀림 수상쩍었다?한그루 이혼설 '솔솔'…7년 만에 파경?'온몸 타투'에 입 열었다… 나나 "개인적인 선택""어떡해 진짜같아"… '43세' 손호영, 결혼식장서 눈물 흘린 이유"키 크고 말라서 창피"… 이요원, 프로필 말이 돼? '헉'김민하, 파리지엔느 느낌 물씬… 우아+감각적인 공항패션'이상해 며느리' 김윤지, ♥남편과 결혼 1주년 '달달' 코스피 : 2207.96 52.4710:55 10/04 코스닥 : 691.40 18.7510:55 10/04 원달러 : 1434.90 4.710:55 10/04 두바이유 : 88.28 1.2310:55 10/04 금 : 1702.00 3010:55 10/04 BOOK [신간] 가구 스타일링, 홈꾸의 시작이자 완성이다 자동차 10월에 쌍용차 토레스 사면 이런 혜택이? 맛집로드 [맛집로드] 식탁 위에 펼쳐진 지속 가능한 미식, 비건 맛집 CEO [CEO포커스] 황주호 한수원 사장, 원전 수출 박차… 친원전 '가속페달' 머니S 페이스북에 놀러오세요 [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 "오늘 어머니 뵈러 갑니다"… 요양병원 대면면회 재개 불법건축물 벌금내는 게 '남는 장사'… 이행강제금 '100만원대' 이전 다음 이전 다음 이전 다음 이전 다음 SLIDE[머니S포토] 박해일 '훈훈한 가을남자'(춘사영화제) SLIDE[머니S포토] 박해일 '성동구 시선 싹쓸이~'(춘사국제영화제) SLIDE[머니S포토] 배종옥 '춘사국제영화제 나들이~' SLIDE[머니S포토] 김태훈 '춘사국제영화제 시상자로' SLIDE[머니S포토] 김동휘 '충무로 샛별의 하트' SLIDE[머니S포토] 박지환 '개성파 신스틸러'(춘사국제영화제) SLIDE[머니S포토] 허동원 '힘찬 파이팅!' SLIDE[머니S포토] 하준 '매력적인 미소'(춘사국제영화제) SLIDE[머니S포토] 최정운 '충무로 신예' SLIDE[머니S포토] 소유진 '제27회 춘사국제영화제 홍보대사' SLIDE[머니S포토] 이순재, 근엄한 미소(춘사국제영화제) SLIDE[머니S포토] 구혜선, 확 달라진 스타일링…'분위기 여신' SLIDE[머니S포토] 구혜선 '오늘은 심사위원으로' SLIDE[머니S포토] 이장호 감독 '환한 미소' SLIDE[머니S포토] 전봉석·임승현 '한국 영화 파이팅!' SLIDE[머니S포토] 지은호·김예은 '제27회 춘사국제영화제 진행 맡았어요' SLIDE[머니S포토] 문송희 '춘사국제영화제 나들이~' SLIDE[머니S포토] 유채련, 미소 살짝 SLIDE[머니S포토] 나예린 '우아하게~'(춘사국제영화제) SLIDE[머니S포토] 지대한 '해바라기 병진이 형' SLIDE[머니S포토] 버스터즈 '귀엽고 깜찍하게' SLIDE[머니S포토] 춘사국제영화제 참석한 한지일 SLIDE[머니S포토] 이순재, 춘사국제영화제 참석한 국민 할아버지 SLIDE[머니S포토] 전문대교협 '2023 수시 전문대 입학정보 박람회' 개최 SLIDE[머니S포토] 미래의 현장 전문 실무자를 꿈꾸다, 수시 전문대학 입학정보박람회 SLIDE[머니S포토] 맞춤형 청년인재 전문가를 양성한다, 2023 수시 전문대 입학정보 박람회 SLIDE[머니S포토] 2023학년도 전문대 수시 '15만6800여명' 모집 SLIDE[머니S포토] 펜데믹 후 더욱 어려운 취업난, 현장실습 교육 앞세운 전문대 리턴 입학 잦아져.. SLIDE[머니S포토] 전문가를 만드는 힘! 2023 수시 전문대 입학정보 박람회 SLIDE[머니S포토] 국가재정범죄 합동수사단 공식 출범 SLIDE[머니S포토] 국가재정범죄 합동수사단 현판 공개 SLIDE[머니S포토] 이원석 "재정비리 뿌리 뽑아 나라 곳간 지킬 것" SLIDE[머니S포토] 국가재정범죄 합동수사단 출범 축사하는 이원석 검찰총장 SLIDE[머니S포토] 국가재정범죄 합동수사단 출범식, 인사말 하는 유진승 단장 SLIDE[머니S포토] 이원석 총장, 순직 검찰 관계자 추모비 헌화 SLIDE[머니S포토] 이원석 검찰총장, 국가재정범죄 합동수사단 사무실 방문 SLIDE[머니S포토] 합동수사단 직원들 격려하는 이원석 검찰총장 SLIDE[머니S포토] 컴백 이주호, 9년만에 돌아온 MB정부 교과부 장관 SLIDE[머니S포토] 첫 출근 속 미소짓는 이주호 사회부총리 후보자 SLIDE[머니S포토] 컴백 이주호 "과거 교과부 장관 경험·교훈 자산삼아 잘 수행토록 최선노력 다해" SLIDE[머니S포토] 이주호 "교육부, 사회부총리 부서...사회적 난제 해결에 범부처적 노력 필요" SLIDE[머니S포토] 이주호 후보자 "교육부 폐지하자는 것 아니었다" SLIDE[머니S포토] 컴백 이주호 "교육주체의 자율·자유 최대 허용해야" SLIDE[머니S포토] 이주호 "팬데믹 후 기초학력 미달자↑창의적 정책개발 필요" [기자수첩] '기업인 때리기' 국감, 이제 그만 요즘 주요 기업의 대관업무 담당자들은 그 어느 때보다 바쁜 나날을 보내고 있다고 한다. 국회 국정감사를 앞두고 주요 기업 경영진이 대거 증인으로 채택됐기 때문이다. 글로벌 경제위기 속 성장 전략 구상에도 시간이 모자란 경영진이 국감장에 불려가 망신당하는 일이 발생하진 않을지 담당 직원들의 긴장감이 역력하다.기업의 "국감 스트레스"는 어제오늘의 일이 아니다. 국회는 매년 국감에서 기업인들을 줄소환하는 관행을 이어왔다. 윤석열 정부 들어 처음으로 열리는 올해 국감도 역대급 기업인 소환을 예고하고 있다. 국회 외교통일위원회는 미국의 인플레이션 감축법(IRA)과 반도체 공급망 협의체(칩4) 등 주요 현안에 대한 산업계의 대응과 관련해 이재용 삼성전자 부회장, 최태원 SK그룹 회장, 정의선 현대자동차그룹 회장, 구광모 LG그룹 회장 등 4대 그룹 총수를 부르는 방안을 논의 중인 것으로 알려졌다.산업통상자원중소벤처기업위원회는 이재승 삼성전자 생활가전사업부장(사장), 공영운 현대자동차 사.. [고수칼럼] 건강보험료 만큼은 빅스텝을 밟지 않으려면[오!머니] 주담대 금리 8% 간다… 변동금리 어찌하오리까[청계광장] 가치 공유가 무색한 한·미 기술전쟁[청계광장] '딴짓 하는 건 아니겠지'… 리모트워크 성공하려면 제769호재개발·재건축 변함없는 '복마전' [르포] 인천 숭의5구역 'SK vs 두산', 시공사 선정 난항 [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 잠실 미성·크로바 벌금형 받은 '롯데건설'… 시공계약 유지할 수 있을까 제768호민간 주도 성장, 다시 뛰는 대한민국 '퍼펙트 스톰' 경고음… 돌파구는 '민간 주도 성장' 위기극복 팔 걷은 기업들… 한국 도약 이끈다 기업 끌고 정부 밀고… K-반도체, 공급망 주도권 쥔다 기업이 여는 '뉴 스페이스'… 민간 우주시대 활짝 "이번엔 K-원전"… 글로벌 시장 '정조준' 제767호브랜드만 717개… 대한민국은 '치킨공화국' 치킨을 둘러싼 진짜 '치킨게임'… "끝까지 간다" "치킨 한 마리 팔면 1000원 남아요" '치킨 전쟁'… 빅3에 대적하는 신흥 강자들 회사소개 정기구독 사이버몰이용약관 저작권규약 개인정보처리방침 광고안내 독자의견 머니앤밸류   서울시 종로구 청계천로 11(서린동, 청계한국빌딩)   제호: 머니에스   대표이사/발행인/편집인: 박정용등록번호:서울 아01082    등록일/발행일:2010.1.5    사업자등록번호 101-81-94590통신판매신고번호 제 01-1022호    호스팅사업자 주식회사 후이즈전자우편주소 moneys@mt.co.kr    Tel: 02-724-0959    청소년보호책임자: 강인귀 COPYRIGHT © MONEYS ALL RIGHTS RESERVED.</t>
-  </si>
-  <si>
-    <t>롯데관광개발, 본사 제주도로 옮기고 '카지노' 집중…힘 실린 '2세' 김한준 사장 - 위키리크스한국 × 전체기사 News Today 전체 정치 경제 월드 법조 사회 북한 취업뉴스 창업뉴스 통계&amp;법률 보도자료 미분류 라이프 전체 생활경제 컬처 산업·IT 전체 산업 IT 메디컬 UPDATED. 2022-10-04 11:15 (화) 로그인 회원가입 보도자료 WIKI Korea 모바일웹 WikiLeaks News 위키리크스 뉴스 wikileaks news WIKI 월드&amp; 이슈 정치 경제 산업·IT 산업 IT 사회 라이프 생활경제 컬처 WIKI 테마 WIKI 프리즘 비밀문서 테마기획 청와대-백악관 X파일 메디컬 기사검색 검색 이전 다음 롯데관광개발, 본사 제주도로 옮기고 '카지노' 집중…힘 실린 '2세' 김한준 사장 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME News Today 경제 롯데관광개발, 본사 제주도로 옮기고 '카지노' 집중…힘 실린 '2세' 김한준 사장 유경아 기자 승인 2020.09.07 13:30 수정 2020.09.07 13:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [사진=롯데관광개발] 롯데관광개발이 서울 광화문에 있던 본사를 제주도로 옮기고 제주 드림타워 복합리조트 개발에 집중한다. 특히 이 곳 개발 사업을 이끌고 있는 김한준 제주 드림타워 복합리조트 사업본부 사장이 사내이사로 내정, 2세 경영에 힘이 실릴 전망이다. 7일 관련업계 등에 따르면 롯데관광개발은 오는 21일 주주총회를 열고 감사보고와 정관 일부 변경, 이사 선임의 건 등을 의결할 예정이다. 롯데관광개발은 정관에 사업목적 추가와 본점소재지 이전 등을 추가할 예정이다. 또 사내·사외이사를 신규 선임하는 내용이 주요 의안으로 오른다. 롯데관광개발은 이번 주총에서 사업영역 확장을 위한 목적사업을 추가한다. 건물종합관리업, 집합건물관리업 등이다. 또 서울에 있던 본사를 제주도로 이전하고, 변경된 정관은 오는 21일부터 시행한다는 방침이다. 롯데관광개발은 지난 2014년부터 제주 드림타워 복합리조트 내 카지노 설치를 추진해 왔다. 롯데관광개발은 지난달 제주도 카지노산업 영향평가 심의위원회 심의에서 제주롯데호텔 카지노를 이전 개장하는 신청 건에 대해 적합 판정을 받았다. 카지노 이전 설치를 위해서는 이전 신청 후 제주도의회 의견 청취와 카지노 감독위원회 의견 수렴 등이 남아 있다. 롯데관광개발은 기존에 파라다이스가 운영하던 제주 롯데호텔의 카지노(LT카지노)를 2018년 8월 149억원에 인수한 바 있다. 제주 드림타워 내에 오픈하면 세계적 수준의 외국인 전용 카지노로 들어설 예정이며, 호텔은 그랜드 하얏트가 위탁 운영해 스위트룸으로만 구성된 총 1600객실 등을 보유하게 된다. 동시에 2세 경영에도 힘이 실린다. 이번에 사내이사로 내정된 김한준 사장은 김 회장의 차남으로, 롯데관광개발의 개발 사업에 역점을 두고 있는 인사다. 현재는 제주 드림타워 복합리조트 사업본부 사장을 맡고 있다. 그는 지난 2013년 1월 제주 드림타워 복합리조트 사업본부로 옮겨 관련 사업을 주도, 2017년 12월 사장으로 승진했다. 롯데관광개발 이사회 측은 김 사장에 대해 “롯데관광개발이 제주도에서 추진하고 있는 제주 드림타워 복합리조트 사업부문의 실무를 2013년부터 현재까지 총괄하며 성공적으로 진행해 왔다”고 평가했다. 이어 “후보자의 폭넓은 경험과 노하우, 전문성이 기업경영 및 기업성장에 도움이 될 것으로 판단한다”고 덧붙였다. 앞서 롯데관광개발은 지난 8월 상장적격성 실질심사 사유 발생으로 주식 매매거래가 정지된 바 있으며, 유가증권시장 기업심사위원회 심의대상에 올랐다 제외돼 최근 거래를 재개했다. 한국거래소는 롯데관광개발이 반기보고서를 통해 2분기 매출액이 5억원 미만인 사실을 공시함에 따라 이 회사에 상장 적격성 실질심사 사유가 발생했다고 지난 14일 공시했다. [위키리크스한국=유경아 기자]yooka@wikileaks-kr.org 저작권자 © 위키리크스한국 무단전재 및 재배포 금지 유경아 기자 다른기사 보기 facebook 트위터 카카오톡 네이버블로그 유튜브 기자가 쓴 기사 인기기사 1[단독] “땅도 없는데 3500만원부터 내라”…‘마포한강호반써밋’ 지역주택조합, 조합원 350명에 200억 받아 2기울어가는 한국3M…직원들 "회사 망해가는 게 느껴질 정도" 3[단독] 한남2구역, 입찰 ‘D-DAY’…‘롯데 VS 대우’ 2파전 속 ‘현대건설’ 깜짝 등판? 4[월드 프리즘] 일부 기독교도들을 평생 동안 괴롭히는 ‘휴거 불안’ 5높은 부채·갈 길 면 신재생 에너지...박용만 떠난 두산, 여전히 괴롭다 6[단독] “벌레가 살아서 움직였다” 고혈압치료제 ‘노바스크’ 벌레 논란 7엘앤에프 美 공장 이전 불허 판정…IRA 견제인가 보안 이슈 때문일까 8"조합원 모집 말라"…法철퇴 맞은 김포통합사우스카이타운 신사모 대표 9[취재파일] 환영·우려 교차하는 삼성전자의 ARM 인수 10[월드 프리즘] 전쟁에서 참패하고 있는 러시아 무기들...최대 수입국 '중국'의 깊어지는 고민 실시간기사 검찰, '성남FC 후원금 의혹' 농협·알파돔·현대백화점 압수수색 검찰, '성남FC 후원금 의혹' 농협·알파돔·현대백화점 압수수색 유유제약 사장 美 안과학회서 직접 ‘안구건조증 신약’ 홍보 유유제약 사장 美 안과학회서 직접 ‘안구건조증 신약’ 홍보 백서 국문번역 등 투자자 보호에 진심인 업비트 "올바른 투자의 디딤돌 될 것" 백서 국문번역 등 투자자 보호에 진심인 업비트 "올바른 투자의 디딤돌 될 것" 신문사소개 신문윤리강령 기사제보 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 마포구 마포대로 127, 1001호 (공덕동, 풍림빌딩) 대표전화 : 02-702-2677 팩스 : 02-702-1677 청소년보호책임자 : 소정원 법인명 : 위키리크스한국 주식회사 제호 : 위키리크스한국 등록번호 : 서울 아 04701 등록일 : 2013-07-18 발행일 : 2013-07-18 발행인 : 박정규 편집인 : 박찬흥 위키리크스한국은 자체 기사윤리 심의 전문위원제를 운영합니다. 기사윤리 심의 : 박지훈 변호사 위키리크스한국 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 위키리크스한국. All rights reserved. [위키리크스한국 보도원칙] 본 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알립니다. 고충처리 : 02-702-2677 | 메일 : laputa813@wikileaks-kr.org 위로</t>
-  </si>
-  <si>
-    <t>제주도 실내 관광지 '제주이야기', 천연 꽃 향수와 화장품 만들기 체험공방으로 알려져 &lt; 종합 &lt; 조이뉴스 &lt; 기사본문 - 테크월드뉴스 - 방제일 기자 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 정기구독 특집 아카이브 스마트 팩토리 계측기 오토모티브 산업용 PC 뉴스 최신기사 반도체·디스플레이 임베디드·컴퓨팅·IoT 홈·모바일·통신 자동차·배터리 인터넷·게임·플랫폼 AI·메타버스·로봇 바이오·헬스케어 정책·사회·종합 인사·동정 인사이트 한장TECH 포커스 TECH웨이브 오피니언 인터뷰 칼럼 기고 트렌드 글로벌 트렌드 국내 트렌드 IT 증권가 라이프 생활TECH #IT용어 컨슈머 테크토크/동영상 전체메뉴 버튼 검색하기 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 실내 관광지 '제주이야기', 천연 꽃 향수와 화장품 만들기 체험공방으로 알려져 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 기사저장 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 본문 글씨 줄이기 본문 글씨 키우기 제주도 실내 관광지 '제주이야기', 천연 꽃 향수와 화장품 만들기 체험공방으로 알려져 기자명 방제일 기자 입력 2020.09.12 09:00 댓글 0 [테크월드=방제일 기자] 제주도 여행을 계획할 때는 쨍쨍하던 하늘에서 갑자기 비가 쏟아지는 등 날씨 변화가 심한 제주도의 특성을 고려해 박물관이나 미술관, 체험관광지 등 실내 관광지를 일정에 넣어두는 것이 좋다. 특히 날씨에 구애 받지 않고 언제나 쾌적한 실내에서 체험까지 가능한 실내체험관광지는 어린아이나 노약자를 동반한 경우 많이 걷는 등 체력소모가 많지 않고 모두의 취향을 맞출 수 있어 가족여행시 필수다. 제주도 실내체험관광지 ‘제주이야기’는 날씨에 구애 받지 않고 언제나 쾌적한 실내에서 제주도의 자연을 담은 천연향수와 천연 화장품을 만들어 볼 수 있다. 특히 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능하다는 것이 장점으로, 어린 자녀를 동반한 가족여행지로도 추천도가 높고, 회사 워크숍 등 단체 체험도 이어지고 있다 현재 월정리 해변 인근 행원본점과 비자림 근처 풍림다방 바로 앞 송담점, 제주공항에서 가장 가까운 이호테우 해변 인근 용두암점 세 군데로 운영되고 있다. 8월에 오픈한 용두암점에서는 오픈이벤트로 오전 10시 방문하는 고객에게 생화 꽃향수 무료 체험기회를 제공하고 있다. 제주이야기 행원본점에서는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’가 있으며 천연꽃 방향제와 화산송이 모공팩 만들기 체험도 가능하다. 제주도의 자연을 담은 천연향수는 보존제가 전혀 들어가지 않고 천연꽃과 천연오일 등 천연원료로 만들어 어린이도 부담 없이 만들어보고 사용도 가능하다. 특히 제주도에서 나고 자란 동백, 수국, 수선화, 장미 등 제주자생 꽃과 원료로 내 손으로 직접 만든 세상에 단 하나뿐인 화장품과 향수는 향기로 제주도를 기억하는 특별한 기념품이자 선물용으로도 만족도가 높아 많은 이들이 추천하는 편이다. 또한 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차, 립오일 등 기능성 화장품과 예쁜 젤 캔들 등 다양한 제주도 기념품도 구매할 수 있다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 방제일 기자 (techmania@techworld.co.kr) 기자의 다른기사 보기 저작권자 © 테크월드뉴스 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 테크월드 인기기사 카카오, 다음 통합 연기...사용자 불만 부담으로 작용 대만언론 ‘삼성’ 잇딴 견제…경쟁 확대 부담되나 넷기어, '철원 미(米)술관' 뮤럴 디지털 캔버스 납품 및 전시 美 법원, 머스크의 ‘트위터 인수 과정’ 중 문자 내역 공개 NHN페이코, 아성다이소에 페이코 간편 결제 서비스 도입 주요뉴스 Now [Tech 한주] 에스피지, 로봇 산업 확대로 증가하는 감속기 수요 美 법원, 머스크의 ‘트위터 인수 과정’ 중 문자 내역 공개 에릭슨엘지, 한네스 엑스트롬 신임 CEO 임명 컴투스플랫폼 ‘하이브’, 블록체인 기능 업그레이드…Web3 완벽 대응 SKT, 인공지능 돌봄 서비스 독거노인 심리상담 진행 LG이노텍, 글로벌 준법경영시스템 인증 획득 카카오내비, 울산광·주까지 C-ITS 서비스 적용 지역 확대 유니티, 2022 서울 스마트시티 리더스포럼서 스마트시티 기술 발표 마이크론, 자체회계연도 4분기 매출 66.4억 달러…전년비 19.8%↓ 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 기사 및 제보문의 : desk@epnc.co.kr 2020년 문화훈장 2011년 대통령 표창 2005년 국무총리 표창 1998/1999년 문화관광부 표창 인터넷신문위원회 법인명 : (주)테크월드 제호 : 테크월드뉴스 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울 아 03078 등록일 : 2014-04-01 발행일 : 1995-01-01 발행·편집인 : 박한식 청소년보호책임자 : 박지성 통신판매업신고 : 제 2008-서울금천-0415호 Copyright © 2022 테크월드뉴스. All rights reserved. 위로 전체메뉴 전체기사 특집 아카이브 전체 스마트 팩토리 계측기 오토모티브 산업용 PC 뉴스 전체 반도체·디스플레이 임베디드·컴퓨팅·IoT 홈·모바일·통신 자동차·배터리 인터넷·게임·플랫폼 AI·메타버스·로봇 바이오·헬스케어 정책·사회·종합 인사·동정 인사이트 전체 한장TECH 포커스 TECH웨이브 오피니언 전체 인터뷰 칼럼 기고 트렌드 전체 글로벌 트렌드 국내 트렌드 IT 증권가 라이프 전체 생활TECH 가젯·컨슈머 IT용어 TECH토크 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회- 농업인단체협의회 업무협약 체결 &lt; 제주 &lt; 전국 &lt; 기사본문 - 열린뉴스통신 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 정치 경제 사회 전국 서울 경기 인천 강원 세종/충청 전북 광주/전남 대구/경북 부산/울산/경남 제주 국제 문화/연예 스포츠 오피니언 환경 포토/영상 기사검색 검색 2022.10.04(화) 서울 21℃ 미세먼지 R 경기 22℃ 미세먼지 R 인천 21℃ 미세먼지 R 광주 24℃ 미세먼지 H 대전 22℃ 미세먼지 R 대구 26℃ 미세먼지 Y 울산 25℃ 미세먼지 Y 부산 24℃ 미세먼지 Y 강원 22℃ 미세먼지 R 충북 23℃ 미세먼지 R 충남 22℃ 미세먼지 R 전북 25℃ 미세먼지 Y 전남 24℃ 미세먼지 H 경북 26℃ 미세먼지 Y 경남 25℃ 미세먼지 Y 제주 26℃ 미세먼지 B 세종 25℃ 미세먼지 H Updated편집. 2022-10-04 10:57 (화) instagram facebook twitter naverpost navertv youtube 로그인 회원가입 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도관광협회- 농업인단체협의회 업무협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 제주 제주도관광협회- 농업인단체협의회 업무협약 체결 코로나19 위기 조기 극복 노력 기자명 한주성 기자 입력 2020.09.23 14:34 댓글 0 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=열린뉴스통신) 한주성 기자 = 제주도관광협회(회장 부동석)와 제주도농업인단체협의회(회장 강수길)는 도내 관광사업체와 농업인 단체 간 융복합 연계 상품 경쟁력 강화를 위해‘코로나19 조기 극복을 위한 관광-농업 상생 발전 업무협약’을 23일 체결했다. ©ONA 이번 협약은 도 관광협회에서 운영하는 온라인마켓 탐나오를 활용하여 제주 농산물의 온라인 판로 개척과 소비 촉진을 위해 양 기관이 적극 협력키로 하였으며 비대면 온라인 거래가 급증하는 추세에 따라 도내 농업인의 온라인 비즈니스 경쟁력 강화를 도모하겠다는 취지이다. 협회 관계자는 “코로나19로 인한 경제 침체로 어려움을 겪는 제주 농업인들에게 이번 협력 사업이 큰 도움이 되어 위기를 빠르게 극복하고 실질적 협력을 통해 관광과 농업의 지속가능한 발전을 이루고자 한다”라고 밝혔다. 한편, 탐나오는 제주도(관광국)가 지원하고 도 관광협회가 100% 비영리 체계로 운영하는 공적 온라인 쇼핑몰로, 도내 관광사업체라면 누구나 입점 및 상품 판매가 가능하며 홈페이지를 통해 언제든지 신청·문의할 수 있다. 한주성 기자 seoul001@daum.net 저작권자 © 열린뉴스통신 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 이 시각 추천뉴스 삼성전자, 2027년까지 1.4나노 양산...파운드리 경쟁력 강화 부산 강서구 사찰 기도실서 불…인명피해 없어 우태희 대한상의 상근부회장, 대구경북권 “투자유치로 성장 물꼬 터야” 권순우, 알렉스 드 미노와 라쿠텐 오픈 1회전 상대 대통령 특사단, 엘살바도르-코스타리카 대통령에게 2030부산세계박람회 유치 지지 요청 'KCON 2022 SAUDI ARABIA' 사우디 스윗 사로잡은 스테이씨 전경련 권태신 부회장, BIAC 60주년 기념 행사 참가 및 MEDEF 방문 삼성전자, 2027년까지 1.4나노 양산...파운드리 경쟁력 강화 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 삼성전자, 2027년까지 1.4나노 양산...파운드리 경쟁력 강화 부산 강서구 사찰 기도실서 불…인명피해 없어 우태희 대한상의 상근부회장, 대구경북권 “투자유치로 성장 물꼬 터야” 권순우, 알렉스 드 미노와 라쿠텐 오픈 1회전 상대 'KCON 2022 SAUDI ARABIA' 사우디 스윗 사로잡은 스테이씨 전경련 권태신 부회장, BIAC 60주년 기념 행사 참가 및 MEDEF 방문 이 시각 헤드라인 대통령 특사단, 엘살바도르-코스타리카 대통령에게 2030부산세계박람회 유치 지지 요청 윤석열 대통령, "국방혁신 4.0을 통해 국방태세 전반을 재설계 할 것" 코로나 유행 이후 고혈압·당뇨 심해져 내일부터 전기·가스요금 인상…가구당 월 2270원·5400원 더 낸다 이주호 부총리 겸 교육부장관 후보자, "소통하는 교육부 장관이 필요한 시기" 많이 본 뉴스 1 [내일날씨] 중부지방 중심 비…수도권 최대 120mm 2 '작은 아씨들' 기자로 컴백한 남지현의 정면승부 선전포고 3 행안부, 제4354주년 개천절 경축식 개최 4 LG전자, CEDIA 2022서 97형 올레드 TV 북미 첫 선...본격 판매 시작 5 연모-이선균, 2022 국제 에미상 노미네이트 하단영역 하단메뉴 매체소개 기사제보 광고문의 고충처리인 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 새문안로 92 (광화문오피시아빌딩) 1127호 대표전화 : 02-785-9331 팩스 : 02-785-9332 청소년보호책임자 : 김태식 법인명 : (주)열린미디어그룹 제호 : 열린뉴스통신 등록번호 : 문화 나 00036 등록일 : 2020-05-19 발행일 : 2020-05-19 발행인 : 조성원 편집인 : 최지혜 열린뉴스통신 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 열린뉴스통신. All rights reserved. mail to news@onewsa.com 위로 전체메뉴 전체기사 정치 경제 사회 전국 전체 서울 경기 인천 강원 세종/충청 전북 광주/전남 대구/경북 부산/울산/경남 제주 국제 문화/연예 스포츠 오피니언 환경 포토/영상 보도자료 전체메뉴닫기</t>
+    <t>[전국]귀성객 대신 관광객 몰리는 제주도...방역 '비상' | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제기에 여당... 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... 감사원 국감, 시작부터 '파행'...친일 국방 논란 계속 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 귀성객 대신 관광객 몰리는 제주도...방역 '비상' 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 정당화될 수 있나"...野 '친일 ... 코스피, 2,200선 붕괴...환율, 장중 1,430원 돌파 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 학교 비정규직노조, "폐암으로 죽어가"...급... [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제... "자존심 살리려는 절박함"...러시아 보복 공습으로 전... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일 국방' 공세 일축 정진석 "조선, 내부에서 썩어 문드러져 망해"…발언 놓고 논란 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 감사원 국감, 오전 내내 '파행'…친일 국방 논란 계속 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 코스피, 2,200선 붕괴…환율, 장중 1,430원 돌파 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 "자존심 살리려는 절박함"…러시아 보복 공습으로 전황 격화 우려 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 도심에서 50대 권총 맞아…극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 오늘부터 개량백신 접종…신규 확진 1만 5,476명 동시계약 허점 노려 전세대출금 가로채…'신종 사기' 적발 "자격시험 도중 화장실 못하게 하는 건 인권 침해" 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 물가 오름세에 '구제 시장'도 한숨…"손님 있어도 안 사요" 학력 전수평가 5년 만에 사실상 부활…초3~고2로 확대 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 다음 전국 귀성객 대신 관광객 몰리는 제주도...방역 '비상' 2020년 09월 30일 11시 57분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 [앵커] 제주에는 오늘부터 시작된 추석 연휴 기간에만 20만 명이 찾을 것으로 전망되는데요. 사실상 연휴가 시작된 지난 토요일부터 계산하면 30만 명이 몰릴 것으로 보여 방역에 비상이 걸렸습니다. 제주 연결합니다 고재형 기자! 이번 추석 연휴 기간 많은 사람이 제주를 찾는다고요? [기자] 네, 그렇습니다. 앞서 말씀하신 것처럼 20만 명이 제주를 방문할 전망입니다. 오늘은 4만9천 명이 제주로 들어올 것으로 예상되는데요. 연휴 동안 하루 평균 4만 명이 방문할 것으로 보이는데 지난여름 성수기 하루 평균 방문객 수와 맞먹는 숫자입니다. 제주도는 지난 토요일부터 이미 연휴가 시작됐다고 보고 추석 연휴까지 포함하면 30만 명이 방문할 것으로 전망하고 있습니다. 지난 토요일부터 어제까지 12만 명 이상이 이미 제주를 찾았습니다. 제주도는 코로나19 때문에 추석 연휴 동안 귀성객 방문 자제를 요청했습니다. 귀성객이 빠진 자리를 관광객이 채우고 있다고 보고 있습니다. 이 때문에 명절이면 쉽게 볼 수 있던 공항 풍경도 올해는 바뀌었는데요. 아무래도 귀성객이 적어 공항에서 가족끼리 만나 반가워하는 모습을 이번 추석에는 쉽게 찾아볼 수 없습니다. [앵커] 이렇게 많은 사람이 몰리면 아무래도 방역이 문제일 텐데요. [기자] 네, 그렇습니다. 오늘도 이곳 공항을 비롯해 제주항에서도 관광객 등을 대상으로 마스크 등을 나눠주는 행사를 진행하고 있습니다. 제주에 있는 동안 주민과 관광객을 위해 마스크를 철저히 써 달라고 요청하고 있습니다. 제주도는 추석 연휴를 대비해 미리 방역을 한층 강화했습니다. 652개 관광 사업체마다 방역 물품을 나눠주고 방역 상태를 점검했습니다. 제주 자치경찰도 방역 수칙 등을 점검하고 위반 사항을 단속하고 있습니다. 지난 26일부터 다음 달 4일까지는 특별방역 집중관리 기간으로 정하고 방역에 총력을 기울이고 있습니다. 방문객 관련 특별 방역수칙도 마련돼 한시적으로 운영되는데요. 지난 토요일부터 제주를 찾는 방문객들은 누구든지 머무는 동안 마스크 착용 등 방역수칙을 준수해야만 합니다. 또, 체온이 37.5℃가 넘으면 의무적으로 코로나19 진단검사를 받아야 하고 결과가 나올 때까지 숙소 등에서 자가 격리해야 합니다. 이런 수칙들을 지키지 않으면 감염병 예방법에 따라 300만 원 이하의 벌금 또는 구상권이 청구되는 벌칙이 부과됩니다. 제주는 그동안 코로나19 지역 감염 없이 외부에서 유입돼 전파된 경우가 전부입니다. 이 때문에 많은 사람이 다녀가는 이번 추석 연휴 기간이 제주 지역 방역의 고비가 될 전망입니다. 지금까지 제주에서 YTN 고재형입니다. ※ '당신의 제보가 뉴스가 됩니다' YTN은 여러분의 소중한 제보를 기다립니다. [카카오톡] YTN을 검색해 채널 추가 [전화] 02-398-8585 [메일] social@ytn.co.kr [온라인 제보] www.ytn.co.kr[저작권자(c) YTN 무단전재 및 재배포 금지] 전국 기사목록 전체보기 충북 청주시 '오송역'→'청주 오송역' 변경 추진 [서울] 서울시, 'I·SEOUL·U' 대체 브랜드 12월 개발 완료 [서울] 서울시, 'I·SEOUL·U' 대체 브랜드 12월 개발 완료 경찰, '대전 아웃렛 화재' 관련 현대백화점 본사 압수수색 YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>[슬라이드 포토] 추석 이동자제 무색…제주도는 관광객으로 '북적' | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 [슬라이드 포토] 추석 이동자제 무색…제주도는 관광객으로 '북적' 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 [슬라이드 포토] 추석 이동자제 무색…제주도는 관광객으로 '북적' 기자정보, 기사등록일 홍승완 기자 입력 2020-09-30 17:29 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 이미지 확대 Next 1 / 7 Next 북적북적 제주공항 (제주=연합뉴스) 정부가 신종 코로나바이러스 감염증(코로나19) 확산 방지를 위해 여러 차례 이동 자제를 당부한 가운데, 제주국제공항이 연휴 관광객들과 귀성객들로 붐비면서 감염 확산 우려가 커지고 있다. 다음 달 4일까지 이어지는 이번 추석 연휴는 하늘길이 막혀 해외여행이 불가능해지면서 관광객들이 제주도로 몰리고 있다. 호텔·리조트업계에 따르면, 제주도의 호텔과 리조트 예약률은 95%에 달했다. 이미 일부 업장은 만실이 되기도 했다 실제로 제주도관광협회에 따르면 추석 연휴 첫날인 30일부터 마지막 날인 4일까지 30만여 명의 관광객이 제주 지역을 방문할 것으로 내다봤다. 또 이 기간 김포공항과 김해공항에서 출발해 제주도로 가는 항공기 노선과 제주 지역 렌터카 예약률은 70%에 달했다. 이처럼 추석 연휴 기간 전국 각지에서 관광객이 제주도를 찾으면서 제주도 방역 당국이 긴장하고 있다. 또 관광객이 몰린 제주 곳곳에서 방역 지침 준수를 어기는 사례가 고개를 들면서 감염 확산 우려가 커지고 있다. 함덕해수욕장과 애월 해안도로 등을 찾는 관광객 중 일부는 마스크를 입이 아닌 턱에 걸쳐 쓰는 일명 '턱스크'를 한 채 다녔다.관련기사추캉스 시작에 제주도 '긴장'"다시 두 자릿수로 돌아왔는데…" 추캉스·집회 허용 어쩌나 이에 따라 제주도 방역 당국은 추석 연휴 기간 방역 고삐를 더욱 조이고 있다. 입도객은 제주도 방역 지침에 따라 공항과 여객터미널에서 의무적으로 발열 검사를 받아야 하며, 발열 검사에서 체온이 37.5도 미만이 나와야만 도착장 출입문을 빠져나올 수 있다. 한편 제주도 관광협회 관계자는 "이날 하루만 4만9000여 명이 제주를 방문할 것으로 보고 있다"며 "불편하더라도 마스크를 꼭 착용하고 방역 수칙을 준수해 안전한 방문이 되도록 해달라"고 요청했다. #제주 #제주공항 #제주도 #제주도 여행 #추석 제주 #제주국제공항 #추캉스 좋아요0 화나요0 추천해요0 기자 정보 홍승완 veryhong@ajunews.com 무주 일가족 참변...경찰 "배기구 막혀 일산화탄소 유입" 2022년 10월 11일 오늘의 띠별 운세는? 기자의 다른 기사 보기 기사제보 하기 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 오늘의 HOT 뉴스 軍 "北 저수지 SLBM 발사, 킬체인 의식한 궁여지책" "6~9개월 내 경기침체…美 증시 20% 더 떨어질 것" 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 무주 일가족 참변...경찰 "배기구 막혀 일산화탄소 유입" 포토뉴스 드림캐쳐, '일곱 번째 미니앨범으로 컴백' 광화문 갤러리 사진으로 돌아보는 10월 둘째 주 포토뉴스 (10월 3일~10월 10일) 화보 '2022 더팩트 뮤직어워드' 레드카펫 밟는 영탁 8 많이 본 포토 포토뉴스 2022년 10월 11일 오늘의 띠별 운세는? 포토뉴스 2022년 10월 10일 오늘의 띠별 운세는? 포토뉴스 2022년 10월 11일 오늘의 별자리 운세는? 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 화보 '2022 더팩트 뮤직어워드' 레드카펫 밟는 영탁 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도, 고사 위기 관광업계 1000억원 융자 지원 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 고사 위기 관광업계 1000억원 융자 지원 파이낸셜뉴스입력 2020.09.29 04:25수정 2020.09.29 04:25 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 코로나19로 직격탄…다음달 16일까지 관광진흥기금 신청 접수 제주웰컴센터 전경. [사진=뉴시스DB] 【제주=좌승훈 기자】 코로나19 사태 장기화로 침체된 제주지역 관광업체를 위해 올 하반기 중 1000억원 규모의 관광진흥기금이 융자 지원된다. 제주도는 2020년 하반기 제주관광진흥기금 특별융자지원 계획을 공고한 가운데 28일부터 다음달 16일까지 신청 접수를 받고 있다. 이번 특별융자지원 계획에는 여행업·관광편의시설업·유원시설업 등 경영안정자금으로 900억원이, 관광시설과 숙박업 등 개보수 자금으로 100억원이 배정됐다. 지원은 융자 추천액 대출 실행에 따른 이자 차액을 보전해 주는 방식으로 이뤄진다. 융자 기간은 2년 거치 3년 균등 상환이다. 대출 금리는 '공공자금 관리기금 융자사업 변동금리'에서 0.75% 우대하는 분기별 변동 금리가 적용돼 0.45%다. 신청을 원하는 업체는 제주월컴센터에 설치된 특별지원센터로 신청하면 된다. 한편 제주도는 제주관광진흥기금을 통해 올 들어 지난 25일까지 1494개 업체에 1797억원을 융자 추천했다. 기존 대출 실행 1139건·2700억원에 대해서는 2년간 상환 유예를 결정했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>'추캉스족' 30만명 우르르…관광객 몰려드는 제주도의 호소 - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "왜 신고했어" 앙심에 지인 때린 60대 구속…피해자는 시력잃어 포스코홀딩스, 아르헨티나 염수 리튬 2단계 투자 결정 롯데제과 '빵빠레 샌드 카스타드' 회수, 세균수 기준 초과 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" "용돈 줄게"…여고생 2명 집으로 유인해 추행한 40대 수세 몰리자 '무차별 미사일'…푸틴의 선택이 키운 우려, 다음은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" 北 저수지 아래 잠수함 없었다…'전대미문 SLBM', 왜 '러브 액추얼리'처럼 메모 써서 보이스피싱 구출…은행원 감사패 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "왜 신고했어" 앙심에 지인 때린 60대 구속…피해자는 시력잃어 포스코홀딩스, 아르헨티나 염수 리튬 2단계 투자 결정 롯데제과 '빵빠레 샌드 카스타드' 회수, 세균수 기준 초과 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" "용돈 줄게"…여고생 2명 집으로 유인해 추행한 40대 수세 몰리자 '무차별 미사일'…푸틴의 선택이 키운 우려, 다음은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" 北 저수지 아래 잠수함 없었다…'전대미문 SLBM', 왜 '러브 액추얼리'처럼 메모 써서 보이스피싱 구출…은행원 감사패 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 '추캉스족' 30만명 우르르…관광객 몰려드는 제주도의 호소 sns공유 더보기 '추캉스족' 30만명 우르르…관광객 몰려드는 제주도의 호소 머니투데이 김현지B 기자 기자 더보기 sns공유 더보기 2020.09.28 17:15 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 지난 4월 황금연휴를 하루 앞두고 제주도 여행 관광객들로 김포공항 국내선 청사가 붐비고 있다. /사진=뉴스1 원희룡 제주도지사가 "이번 추석 연휴 제주에 30만명의 관광객이 몰릴 것으로 예상된다"며 "제주가 코로나로부터 안전할 수 있도록 관광객 여러분들의 방역 협조가 절실하다"고 당부했다. 원 지사는 28일 SNS에 "제주도민분들은 청정 제주를 지키기 위해 일상의 불편을 감수하고 헌신했다. 덕분에 제주는 지역 내 감염자가 0명이다"라며 이렇게 썼다. 그러면서 원 지사는 "추석 전주 주말인 26일부터 10월 4일까지 코로나19확산을 막기 위해 입도객의 방역 수칙 준수를 의무화하고 지키지 않을 경우 강력한 제재를 시행하는 특별행정조치를 발동할 것"이라고 말했다. 원 지사는 "여행객 여러분들은 실내는 물론 실외에서 반드시 마스크를 착용하고 개인 위생을 철저히 해달라"고 부탁했다. 그는 "권고가 아닌 강제 조치며, 격리조치에 필요한 모든 비용은 본인 자부담으로 청구된다. 또한 수칙을 지키지 않아 방역 당국의 대응 활동에 피해가 될 경우 감염병 예방법에 따라 구상권이 청구될 수 있다"고 강조했다. 그는 "제주 출신으로 육지에 나가 계신 분들도 고향에 오시지 못하는 상황"이라며 "자녀의 귀향을 만류하는 제주 부모님들의 심정을 헤아려달라. 도민분들의 방역 의지와 책임감을 함께 분담해주시기를 부탁한다"고 호소했다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 미국 연준(연방준비제도)의 주요 인사 2명이 지난달 예고한 대로 금리를 올릴 계획이라고 밝히면서 향후 금리 인상에 주의할 필요가 있다는 점을 인정했다.10일(현지시간) 월스트리트 저널(WSJ)에 따르면 라엘 브레이너드 연준 부의장과 찰스 에반스 시카고 연방준비은행 총재는 이날 시카고에서 열린 전미 실물경제협회(NABE) 연레회의에 참석해 이같이 밝혔다.이들은 인플레이션을 연준의 목표치인 2%로 끌어내리는 데는 시간이 걸리고 지난달 공개된 연준의 금리 전망치에 따라 내년 초까지 금리를 4.5% 위로 올릴 것이라는 입장에는 변함이 없었... 52주 신저가만 470개…코스피 2%대·코스닥 4%대 급락 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 단독 세계 최대 '교육계 다보스포럼', 처음으로 한국서 열린다 "주식 팔고 OO 샀다"…개미도 외국인도 몰려간 곳 단독 맞춤 패키지로 K원전 수출한다 '의문의 죽음' 英 신생아 7명의 공통점은… '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 정치 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' '만취' 신혜성 왜 도난車 운전?…"발레파킹 직원이 열쇠 줘서 착각" "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 [속보]사실상 일제고사 부활, 尹 "줄 세우기 비판에 아이들 방치, 미래 어두워" "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 이전 다음 [속보]사실상 일제고사 부활, 尹 "줄 세우기 비판에 아이들 방치, 미래 어두워" [단독]체코엔 '차'·폴란드엔 '방산'…맞춤 패키지로 K원전 수출한다 '살상범위 축구장 4개' 현무-Ⅱ 낙탄사고…軍 "탄두 폭발 안 해" 지금도 월급 40% 쏟아붓는데…집 팔아도 빚 못 갚는 38만 가구 '공포' 발란, 네고왕 '꼼수할인' 거짓 해명?…野 김성주, 공정위 조사 촉구 젤렌스키, 11일 밤 9시 G7 긴급회의…러 민간인 공습 대응 [단독]유산·기형 부작용에도…'의약품 쇼핑' 부추긴 비대면의료앱 北도발 대응하려 쏜 미사일 1발 '낙탄'…한밤 강릉 주민들 '깜짝' 北, 전투·폭격기 12대 공대지 사격…南 F-15K 등 30대 대응 귀 틀어막고 김정은 옆에 바짝…리설주까지 발사 참관했다 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "농진청 쌀 생산량 예측 능력 정확도 높여야" 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 정치 마켓 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" 北 저수지 아래 잠수함 없었다…'전대미문 SLBM', 왜 野 박성준 "도이치 주가조작, 금감원장 입장내라" 전북대 S교수 '해상풍력 의혹' 도마 위…원전 안전성 공방 한 발 떼기 어려운 감사원 국감…여야, 감사위원 배석 두고 공방 "주식 팔고 OO 샀다"…개미도 외국인도 몰려간 곳 노장 성장호르몬의 '회춘'…동아에스티 바이오 성장 이끈다 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 박수홍 인터넷뱅킹 ID '조카 이름+생일'…"父 횡령 말도 안된다" 김영민, 윤형빈과 갈등…"나를 죽이려고 해, 10년 넘게 안봤다" 역술가도 한숨 쉰 박수홍 사주 "아들 죽고 母 일어선다" 공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 비공감 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? '사별' 엄앵란, 5살 연하 의사와 '썸' 타나…"10년간 매주 만나" 공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 비공감 [기자수첩] 판교에 나타난 '피해 호소인' '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" 정선희 "장례 치르는데 김건모 오빠가 김영철 쫓아냈다"… 왜? 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 공감 아내에 쓴 편지, 우표 대신 천원 넣었다가…우체국서 온 '감동' 답변 비공감 53세女 "30대 남성들이 너무 대시해"…서장훈 "이해 안돼" '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 공감 아내에 쓴 편지, 우표 대신 천원 넣었다가…우체국서 온 '감동' 답변 비공감 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 IZE “내 맘이다!” 시원하게 외치는 개성만점 여성버디... the300 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 음주 재범+상습도박 재조명..신혜성, 하루아침에 날벼락[★NEWSing] MoneyS [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 9 전여빈 '4차원 미모' 15 '주먹 쥔 파퀴아오' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 45 화려한 'TMA 레드카펫' 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 20 부산국제영화제 찾은 이지은 9 김유정 'BIFF 반가워요' '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>제주도 관광업체에 진흥기금 1000억원 융자 지원 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 관광업체에 진흥기금 1000억원 융자 지원 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 관광업체에 진흥기금 1000억원 융자 지원 기자명 김용현 기자 입력 2020.09.28 15:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도가 코로나19 장기화로 어려움을 겪는 관광업체 경영 활성화를 위해 올해 하반기 관광진흥기금 1000억원을 융자 지원한다. 제주도는 28일부터 다음 달 16일까지 2020년 하반기 제주관광진흥기금 특별융자 신청을 접수한다. 이번 지원은 융자추천액 대출 실행에 따른 이자 차액을 보전해 주는 방식으로 이뤄진다. 융자 기간은 2년 거치 3년 균등 상환이다. 대출 금리는 '공공자금 관리기금 융자사업 변동금리'에서 0.75% 유대하는 분기별 변동 금리가 적용돼 0.45%다. 신청을 원하는 관광업체는 제주월컴센터에 설치된 특별지원센터로 신청하면 된다. 도는 제주관광진흥기금을 통해 지난 25일까지 1494개 업체에 1797억원을 융자 추천했다. 기존 대출 실행 1139건·2700억원에 대해서는 2년간 상환 유예를 결정했다. 김용현 기자 noltang@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도발 코로나19 확산 비상 …가족 방문 자제하는데 추석 관광객 30만명 주메뉴 바로가기 본문 바로가기 전체기사 시작페이지로 즐겨찾기 2022.10.11 (화) 맑음동두천 6.4℃ 구름조금강릉 9.7℃ 맑음서울 7.6℃ 맑음대전 10.0℃ 맑음대구 11.1℃ 구름조금울산 11.9℃ 흐림광주 11.6℃ 맑음부산 12.2℃ 구름많음고창 12.0℃ 구름조금제주 16.1℃ 구름조금강화 8.3℃ 맑음보은 8.8℃ 구름많음금산 9.5℃ 맑음강진군 13.1℃ 맑음경주시 11.2℃ 구름조금거제 12.3℃ 기상청 제공 로그인 전체기사 커버 &amp; 이슈 뉴스와이드 정치 경제 사회 국제 문화 시네마 돋보기 사람들 지역네트워크 산업 기업일반 바이오ㆍ제약 4차 산업 자동차 유통 오피니언 박성태 직론직설 한창희 칼럼 백왕순 칼럼 최재순 칼럼 기자수첩 우인덕의 시사만평 기고 시사뉴스 TV 연예ㆍ스포츠 연예 스포츠 기사검색 검색어를 입력해주세요 닫기 검색창 열기 사회 홈 사회 제주도발 코로나19 확산 비상 …가족 방문 자제하는데 추석 관광객 30만명 강민재 iry327@naver.com 등록 2020.09.29 06:33:51 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주도, 9월26일~10월11일 특별방역 기간 설정 [시사뉴스 강민재 기자] "우리 아들 내외는 못오게 했는데…" 제주시 구좌읍에 사는 이모(64)씨는 신종 코로나바이러스 감염증(코로나19) 확산 우려로 인한 정부 권고를 받아들여 이번 추석 때 세종시에 사는 아들 내외를 못 오게 했다. 하지만 정작 연휴 기간에 제주도를 찾는 여행객이 약 30만명이라는 보도를 보고 당혹감을 감추지 못했다. 이씨는 29일 "혹시 오가다가 코로나19에 걸릴까봐 손녀가 보고 싶어도 아들 내외를 못오게 했다"며 "그런데 이번 연휴에 관광객이 30만명도 넘게 온다고 들어서 걱정이다. 추석 때 바깥 바람쐬기도 힘들 것 같다"고 했다. 고향이 제주도 서귀포인 회사원 정모(35)씨는 "고민하다 이번 연휴에 고향에 간다"며 "놀러가는 사람들은 안 갔으면 좋겠다"고 했다. 정씨는 "내려가면 고향집에만 있겠지만 내려가는 비행기를 타는 게 가장 걱정"이라며 "굳이 안가도 되는 사람들이 모이면 비행기나 공항에서 감염 위험이 높아지지 않겠느냐"고 했다. 이번 추석 연휴기간 30만명이 제주도를 찾을 것으로 예상되면서 관련 인터넷 카페에도 제주도에 대규모 인원이 몰리는데 대한 우려의 목소리가 나오는 등 제주도발 코로나19 확산 우려가 커지고 있는 상황이다. 서울 성동구의 한 맘카페 회원은 "안 그래도 추석 연휴에 대규모 이동을 하면서 확진자가 전국으로 퍼질까봐 노심초사하는데 추석 때 제주도로 사람들이 그렇게 많이 간다고 한다"며 "연휴가 끝나고 제주도발 확진자가 많이 생길까봐 걱정된다. 너무 이기적"이라고 올렸다. 경남 김해의 한 지역 커뮤니티 회원은 "추석 연휴 기간 제주도 비행기와 렌트카 예약률이 높다고 한다"며 "가족 방문도 자제하자고 하는데 연휴를 틈타 놀러가는 사람들이 있어 추석 이후 확진자가 얼마나 쏟아질지 걱정"이라고 했다. 전문가는 마스크쓰기, 거리두기 등을 철저하게 지킬 것을 주문했다. 김우주 고대구로병원 감염내과 교수는 "서울에 있든 제주도에 있든 농촌에 있든 중요한 건 항시 경각심을 염두에 두고 수칙을 잘 지켜야한다는 것"이라며 "증상이 없다고 해서 안전한 게 아니다. 무증상도 있으니 마스크와 거리두기, 손씻기 를 잘해야 하고 불필요하게 마스크를 벗고 대화하면 안 된다"고 강조했다. 김 교수는 "백신이 없기 때문에 마스크와 손소독제, 거리두리가 백신이라고 생각해야 한다"고 덧붙였다. 제주도는 지난 4월 관광객 방문을 우려해 서귀포시 표선면 인근 축구장 12배 넓이의 유채꽃밭을 파쇄하기도 했다. 관광업은 제주도의 주요 산업이지만 코로나19 감염 위험을 막기 위한 극약처방식 결정을 내린 것이다. 또 코로나19 증상을 보이면서 제주도를 여행한 미국 유학생 모녀에게 1억원대 손해배상 소송을 내기도 했다. 제주도는 이달 26일부터 내달 11일까지 특별방역 집중관리 기간으로 설정하고 고강도 방역대책을 시행하기로 했다. 이 기간 공항이나 항만을 통해 제주도 들어오는 입도객은 모두 체류하는 동안 방역수칙을 의무적으로 준수해야 하며, 위반하면 강력한 제재가 부과된다 강민재 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2022 SISA NEWS All rights reserved.시사뉴스의 모든 컨텐츠를 무단복제 사용할 경우에는 저작권 법에 의해 제재를 받을 수 있습니다. 한 총리, 중남미 3국 순방…"부산엑스포 유치·자원 외교" [시사뉴스 김세권 기자] 한덕수 국무총리가 9일 7박9일 일정으로 칠레·우루과이·아르헨티나 중남미 3국을 방문한다. 한 총리는 이날 오후 페이스북을 통해 "순방은 중남미 거점 국가들과의 협력 네트워크 구축과 함께, 불안정한 국제정세 속에서 우리의 경제안보와 식량안보를 공고히 하기 위한 것"이라며 이같이 썼다. 그는 "글로벌 공급망 불확실성이 커지고 있는 상황에서 풍부한 지하자원과 식량자원을 가지고 있는 중남미의 국가들과의 협력이 어느 때 보다 긴요하다"고 했다. 특히 칠레에 대해 "우리 최초의 자유무역협정(FTA) 체결국이자 전통적인 핵심 우방국"이라며 "구리 생산량 세계 1위, 리튬 생산량 세계 2위의 주요 광물 보유국이자, 중남미 시장의 교두보"라고 강조했다. 그는 이어 " 우루과이는 남미 최대 규모 경제공동체인 메르코수르(MERCOSUR)의 하반기 의장국으로 남미 지역 경제 통상 강화에 핵심 역할을 할 것으로 기대한다"고 썼다. 마지막으로 "아르헨티나는 우리나라 옥수수 및 대두유 수입 물량의 약 40%, 33%를 공급하고, 리튬 매장량이 세계 3위"라며 "요컨대 우리 자원·식량 안보에 매우 중요한 나라"라고 했다. 한 총리는 "2030 부산세계박람회(엑스포) 유치를 위한 지지 기반 확대 또한 이번 순방의 중요한 목적"이라며 "남미 핵심 국가를 대상으로 우리의 역량과 개최 의지를 강조하고 지지를 요청하겠다"고 밝혔다. 한 총리는 중남미로 가는 길에는 휴스턴, 귀국 길에는 애틀랜타에서 일정을 소화할 예정이다. 그는 "경유지인 휴스턴과 애틀랜타에서는 동포들과 현지 진출 기업인들을 만나 미국 경제 상황과 현황을 듣고 원활한 기업 활동을 위한 정부의 지원책을 함께 모색할 계획"이라고 설명했다. 한 총리는 "7박9일 일정 내내 하루 12시간 이상 강행군이 예상되는 빡빡한 일정"이라면서 "오로지 국민과 대한민국의 국익을 위해 최선을 다해 뛰겠다"고 했다. [내일 날씨] 연휴 마지막날, 전국 흐리고 비…바람 쌀쌀 [시사뉴스 김도영 기자] 한글날 연휴 마지막날이자 월요일인 10일은 전국이 대체로 흐리고 비가 오는 곳도 있겠다. 바람이 강하게 불어 체감온도는 더욱 낮아 쌀쌀한 날씨가 이어질 전망이다. 9일 기상청에 따르면 내일(10일) 중부지방과 전라권, 경북서부에 산발적으로 비가 오는 곳이 있겠고, 경남북서내륙과 제주도에는 빗방울이 떨어지는 곳이 있겠다. 서울·경기북부는 오후 3~6시까지, 그 밖의 중부지방(강원동해안 제외)과 전북, 전남권북부, 경북내륙에는 오후 6시~자정까지 가끔 비가 내리는 곳이 있겠다. 경기동부와 강원도의 높은 산지(해발고도 1000m 이상)에는 기온이 낮아 비 또는 눈이 오는 곳이 있겠고 일부 지역에는 눈이 조금 쌓이는 곳도 있겠다. 기상청 관계자는 "내일 오후 경기권서해안과 충남북부서해안에 천둥·번개가 치는 곳이 있겠으니 시설물 관리와 안전사고에 각별히 유의할 필요가 있다"고 전했다. 내일까지 예상 강수량은 수도권, 충남서해안, 울릉도·독도 10~40㎜, 강원내륙·산지, 충청권내륙, 전라권, 경북북부, 서해5도 5~20㎜ 등이다. 내일 중부지방과 전라서해안, 경북북부내륙, 경북동해안, 제주도를 중심으로 바람이 초속 9~16m, 순간풍속 초속 20m 이상으로 매우 강하게 부는 곳이 있겠고, 그 밖의 내륙에서도 순간풍속 초속 15m 이상으로 바람이 강하게 부는 곳이 많겠다. 특히 강원동해안과 강원산지에는 순간풍속 초속 25m 이상으로 바람이 더욱 강하게 부는 곳이 있겠다. 내일은 전국이 대체로 흐린 가운데 북서쪽에서 찬 공기가 강하게 남하하면서 기온은 오늘보다 3~7도 가량 낮을 것으로 관측됐다. 여기에 바람도 강하게 불면서 체감온도는 더욱 낮아 쌀쌀할 것으로 보인다. 내일 아침 최저기온은 6~16도, 낮 최고기온은 10~19도를 오르내리겠다. 주요 지역 아침 최저기온은 서울 9도, 인천 9도, 수원 10도, 춘천 8도, 강릉 11도, 청주 11도, 대전 9도, 전주 11도, 광주 12도, 대구 12도, 부산 13도, 제주 16도다. 낮 최고기온은 서울 11도, 인천 12도, 수원 12도, 춘천 11도, 강릉 16도, 청주 15도, 대전 15도, 전주 15도, 광주 16도, 대구 17도, 부산 19도, 제주 18도다. 미세먼지는 전 권역에서 '좋음' 수준을 보이겠다. 중국 7중전회 개막...당대회서 시진핑 3연임 최종 준비 [시사뉴스 김성훈 기자] 시진핑 국가주석 겸 당총서기의 3연임 장기체제를 준비할 중국공산당 제19기 중앙위원회 제7차 전체회의(7중전회)가 9일 개막했다. 신화망(新華網)과 인민망(人民網) 등에 따르면 7중전회는 이날 오전 베이징 징시빈관(京西賓館)에서 21일까지 나흘간 일정을 시작해 당 헌법인 당장(黨章)의 개정안, 20차 당대회 정치보고, 중요 인사개편 등에 관한 논의를 벌이고 있다. 7중전회에서는 제19기 중앙위원회 정치보고, 당장 개정안, 제19기 당중앙 기율검사위원회 공작보고, 19기 정치국 중앙 8항 규정 관철집행 정황 보고, 19차 당대회 이래 기층 부담 경감 위한 형식주의 시정 상황 보고 등을 토론하고 채택한다고 한다. 5년 만에 오는 16일 열리는 제20차 당 대회를 앞두고 소집하는 7중전회는 당 대회를 준비하는 무대이다. 시진핑 총서기를 비롯한 정치국 상무위원 7명과 정치국 위원 등 중앙위원 200여명과 후보위원 179명 정도가 7중전회에 참석했다. 왕후닝(王滬寧) 사상 담당 정치국 상무위원은 첫날 시진핑 총서기의 권위 강화를 핵심으로 하는 당장 개정안을 관해 브리핑했다. 당장 개정안과 관련해 9월 정치국 회의는 "중대한 전략사상을 담는다"는 방침을 확인했다. 2017년 가을 개최한 19차 당대회에선 '시진핑 신시대의 중국 특색 있는 사회주의 사상'을 당의 행동지침으로 삼는다고 당장에 명기했다. 이름을 붙인 지도사상은 마오쩌둥(毛澤東)과 덩샤오핑(鄧小平)에 이어 3번째였다. 이번 개정으로 '시진핑 사상'으로 단축하면 '덩샤오핑 이론'을 뛰어넘어 마오쩌둥 반열에 오른 모양새여서 그만큼 시 총서기의 권위가 높아진다. 당장 개정안을 놓고선 최종적인 정치 결정권을 가진 '당 주석'의 부활 여부에 관심이 쏠린다. 현행 당장은 총서기가 정치국 상무위원회 등을 소집 주재하거나 당 일상업무를 담당하는 중앙서기처를 관장하는 권한 정도밖에 갖고 있지 않다. 당주석은 마오쩌둥이 맡았지만 과도한 권력집중으로 혼란을 초래한 문화대혁명에 대한 반성에서 1982년 폐지한 바 있다. 이번 당대회에서는 시 총서기가 당주석을 부활해 직접 취임한다는 관측이 제기되고 있다. 다만 시진핑이 이미 무소불위의 강력한 권력을 쥐고 있기에 당주석제 재도입 필요성은 그렇게 크지 않다는 견해도 상당하다. 개정안에 시진핑에 대한 충성을 의무화하는 규정이 들어가는 것 역시 관심사다. 시진핑을 '핵심' 지위를 견고히 하고서 시진핑 정치사상의 지도적 지위를 확고히 하는 '2개의 확립'과 '2개의 옹호'를 명시하고 있다. 7중전회는 시 총서기가 20차 당대회 모두에 제시하는 중앙위원회 보고(정치보고)안을 의논한다. 지난 5년간 중국공산당의 성과와 향후 5년간 정책목표를 포함하는데 긴장이 고조하는 대만 문제와 관련해 통일에 관한 언급이 있을 것으로 주목된다. 당장에는 '조국통일을 완성한다'고 적시하고 있다. 이를 '조국의 완전통일을 실현하는 건 역사적 임무' 등으로 표현하는 안이 그간 추진됐다. 시진핑은 3연임을 해야 하는 최대 이유 중 하나로 대만통일을 내세웠다. 시진핑 지도부는 인민해방군 창군 100주년을 맞는 2027년에 건군의 '분투목표'인 대만통일을 달성한다고 천명하고 있다. 9월 말 시진핑은 정치국 상무위원들을 이끌고 베이징에서 시작한 지도부의 실적을 선전하는 전람회 '신시대의 전진'을 관람했다. 빈곤 탈피와 코로나19 대응 등 실적을 과시하는 전시물을 둘러보면서 시진핑은 "오랫동안 해결하지 못한 많은 난제를 극복하고 장기적으로 중요한 많은 일을 성취했다"고 자화자찬했다. 7중전회에 앞서 19기 당중앙 기율검사위 제7차 전체회의가 개막, 7일에는 자오러지(趙樂際) 기율검사위 서기 겸 정치국 상무위원이 기조연설을 했다. 나흘간 일정을 마친 7중전회는 21일 회의 결과를 정리한 커뮈니케를 공표하고 폐막한다. 삼성전자, 갤럭시 '찐팬' 2000명과 에버랜드서 팬파티 [시사뉴스 김도영 기자] 삼성전자가 지난 8일 경기도 용인 에버랜드 장미원에서 갤럭시 ‘찐팬’ 2000여 명과 함께 ‘갤럭시 팬파티 제각각 캠크닉’을 진행했다. 갤럭시 팬파티는 갤럭시 찐팬들을 위해 제품과 함께 색다른 즐거움을 느낄 수 있도록 지난 2018년부터 시작된 문화 행사다. 매회 트렌드를 반영한 콘셉트와 제품을 흥미롭게 경험할 수 있는 체험 프로그램, 화려한 무대 프로그램으로 진행됐다. 이번 행사에서 삼성전자는 폴더블 제품을 자유롭게 체험할 수 있도록 입장 시에 초청자 2인당 1대씩 경험폰을 제공했다. 체험 프로그램의 ΄제각각 시그니처 포토존΄과 ΄제각각 아이디어 스테이지΄는 자신만의 각으로 팬파티 인증샷을 촬영하는 참여자들의 열기로 가득했다. 거울의 반사각을 활용해 감각적인 사진 촬영이 가능한 ΄제각각 스타일 런웨이΄, 다양한 각도로 네 컷 사진을 촬영할 수 있는 ΄제각각 Z플립 사진관΄ 역시 갤럭시 찐팬들의 큰 호응을 얻었다. 이외에도 미러링 디스플레이 부스에서 인터랙티브 영상을 촬영할 수 있는 ΄제각각 댄스 챌린지΄와 나만의 스타일로 제품을 꾸며보는 ΄제각각 폰꾸 라운지΄에서는 갤럭시 찐팬들이 자신만의 개성을 뽐내는 시간이 이어졌다. 체험 프로그램 참여 시 제공하는 스트랩 랠리 이벤트 참여 열기도 뜨거웠다. 갤럭시 찐팬들은 스트랩 개수에 따라 제공하는 플래그, 알전구, 식음료 쿠폰 등의 굿즈와 함께 캠크닉을 즐겼다. 무대 프로그램은 갤럭시 팬파티를 축제 분위기로 흥겹게 달궜다. 유쾌한 오프닝 영상으로 시작한 공연은 제각각 클럽을 함께한 찐팬 셀럽들의 화려하고 다채로운 무대로 이어지며 갤럭시 찐팬들의 함성 속에서 피날레까지 성황리에 마무리되었다. 삼성전자 한국총괄 김진해 부사장은 "갤럭시 찐팬들의 다양한 관점과 취향, 사용성을 남다른 각으로 표현하고 자유롭게 즐길 수 있는 특별한 경험을 선사하기 위해 이번 갤럭시 팬파티를 준비했다"며 "앞으로도 갤럭시 찐팬들이 주인공이 되어 새로운 폴더블 사용 문화를 만들어갈 수 있는 캠페인 활동을 지속적으로 전개해 나가겠다"고 말했다. 지난기사리스트 오후 6시, 코로나 신규확진 1만2797명 Dar Al Arkan, Pagani Automobili와 협업 주한 우크라이나 대사 "삼성사옥도 러시아 미사일 공격" 삼성 입주 우크라이나 키이우 건물 '러 미사일에 피해' 내일 아침 춥다 '최저 3도' [인사]중소벤처기업부 [부고]이정렬(반도건설 대표)씨 모친상 트렌드 뉴스 1철도노조 파업, 서울 지하철 1호선 운행 지연 2[내일 날씨] 연휴 마지막날, 전국 흐리고 비…바람 쌀쌀 3[특징주] 더블유씨피, 유상증자 결정…헝가리 공장 건설 4[내일날씨] 한글날, 전국에 비 소식…일교차 커 '쌀쌀' 5하이브, 'BTS 군문제 이슈' 또 신저가 '70% 폭락' 6[특징주] 피플바이오, 신약 기대감에 22% 가까이 상승 7미, 9월 사업체 일자리 26.3만개 늘어…21개월만 최저 순증 8[특징주] WI, 단기차입금 50억 증가 결정 9[속보] 구미 원룸 40대 여성 피살 '용의자 현장 검거' 10중국 7중전회 개막...당대회서 시진핑 3연임 최종 준비 커버&amp;이슈 더보기 尹대통령 지지율 소폭↑ 32%…민주당 지지율 과반 코앞 [시사뉴스 김철우 기자]윤석열 대통령의 지지율이 오차범위 내에서 소폭 상승하며 하락세를 멈췄다. 북한 잇따른 미사일 도발과 문재인 전 대통령의 감사원 서면 조사 등으로 여야 각각의 지지층이 결집된 게 영향을 미쳤을 것으로 보인다. 여론조사기관 리얼미터가 지난 4~7일 전국 18세 이상 유권자 2012명을 상대로 윤 대통령의 국정 수행 지지도를 물은 결과 '잘하고 있다'는 긍정평가는 전주 대비 0.8%포인트 높아진 32%로 10일 집계됐다. '국정수행을 잘못하고 있다'라는 부정 평가는 0.2%포인트 낮아진 65.8%로 나타났다. 긍정평가와 부정평가 간 차이는 33.8%포인트로 오차범위 밖이다. '잘 모름'은 0.6%포인트 감소한 2.2%였다. 지역별로 봤을 때 긍정평가는 지난 한 주간 인천/경기(2.2%포인트↑), 대구/경북(1.7%포인트↑), 광주/전라(1.3%포인트↑) 등에서 오르며 상향을 이끌었다. 반면 대전/세종/충청의 경우 3%포인트, 부산/울산/경남은 2.9%포인트가 하락했다. 연령대별로 60대가 3.9%포인트, 40대가 3.5%포인트 지지율이 상승했다. 반면 30대의 지지율은 4.3%포인트 떨어졌다. 이념 성향별로 중도층에서 1.8%포인트, 보수층 노벨 평화상, 우크라·러시아·벨라루스 인권 '챔피언' 공동수상 검찰, '이스타항공 부정 채용 의혹' 이상직 前 의원 등 구속영장 청구 전국 로스쿨 25개교 경쟁률 분석...원광대 로스쿨 22.25대 1, 역대 최고 바이든, 러 전술핵무기에 "1962년 쿠바 미사일 위기 후 '아마겟돈' 핵위협 최고 수준" 정치 더보기 여야, 한미일 군사훈련 공방…국힘 ‘친북’vs 민주 ‘친일’ [시사뉴스 김철우 기자] 한‧미‧일 연합 군사훈련을 두고 여야가 프레임 공방을 벌이고 있다. 국민의힘은 더불어민주당의 한미일 연합훈련 비판을 '북한 대변인'이라고 비난하고 있는 반면 더불어민주당은 '일본 자위대 인정'이라고 비판하고 있다. 여당의 '친북' 프레임과 야당의 '친일' 프레임이 정면 충돌하는 양상이다. 국민의힘은 더불어민주당의 '친일 행위'라는 비판에 "반국가적 행위"이라며 직격했다. 양금희 국민의힘 수석대변인은 10일 논평을 내고 “반일 감정을 조장해 자유민주주의 국가 연대를 깨뜨리려는 묻지마식 친북 행위는 국민의 생명보호라는 국방의 기본도 저버리는 반국가적 행위”라고 이 대표를 정면 겨냥했다. 박정하 수석대변인도 논평에서 “민주당은 여전히 북한 ‘대변인’을 자처하고 있다”며 “문재인표 대북정책에 대한 통렬한 반성 없이 윤석열 정부가 대북정책을 정상화하는 지금의 과정을 사사건건 방해하는 저의가 무엇인가”라고 날을 세웠다. 성일종 의원도 이재명 대표가 유튜브를 통해 내놓은 발언에 대해서 "'왜 일본을 끌어들였는지'가 궁금하시면 일본을 끌어들인 장본인인 문재인 전 대통령께 물어보시면 될 일"이라고 맞받았다. 그는 "민주당은 (문재인 정부 때인 지난 민주당, 내일 긴급안보대책회의…“안보 심각성 논의” 김동연, 경기정원문화박람회 방문 "식물의힘 제 역활 노력" 홍성국, 외국인 국세체납 267억여원..."출국 후 추적 징수어려워" 尹대통령 지지율 소폭↑ 32%…민주당 지지율 과반 코앞 경제 더보기 고전하는 게임주…북미·유럽 수출은 ‘반짝’ [시사뉴스 김철우 기자] 게임주가 고전하고 있는 가운데 증권가에서는 북미·유럽 등 해외로 눈을 돌린 게임회사들을 주목하고 있다. 신작 게임 출시 모멘텀과 ‘강달러’ 수혜 효과가 있을 것이라는 기대감에서다. 10일 IBK투자증권이 퀀트와이즈(Quantwise) 통계를 정리한 자료에 따르면 지난달 게임엔터테인먼트 지수가 15.8% 급락, 코스피 수익률 대비 3.7%포인트 밑돌았다. 미국 연방준비제도(연준·Fed)가 기준금리를 0.75%포인트 인상하고 ‘강달러’ 부담 등으로 미국 나스닥이 급락하면서 하락폭이 확대된 것으로 분석된다. 증권가에서는 이달부터 기업들의 실적 조정이 본격화되기 때문에 시장 기대치에 부합하는 방어적인 기업을 주목할 필요가 있다고 보고 있다. 특히 이달에는 미국 연방공개시장위원회(FOMC)가 없어 밸류에이션(기업가치평가)보다는 주당순이익(EPS) 변동이 주가에 중요한 변동 요인이라는 게 전문가들의 시각이다. 이규익 케이프투자증권 연구원은 "최근 몇년간 국내 게임 산업의 매출액 성장을 이끌었던 모바일 다중접속역할수행게임(MMORPG)이 부진하면서 국내 게임산업의 성장률이 둔화되고 있다"며 "이제는 국내 모바일 MMORPG가 아닌 글로벌에서도 성 노벨 경제학상에 벤 버냉키 전 연준 의장 등 美경제학자 3인 서울 아파트 분양 실적 전년比 37%↓…연말도 불안 미‧중 요인에 한국 내년 경제성장 ‘2% 턱걸이’ 하이브, 'BTS 군문제 이슈' 또 신저가 '70% 폭락' 사회 더보기 더불어민주당 평택을 지역위원회 “우분투 한마음 대회” 개최 [시사뉴스 서태호 기자] 더불어민주당 평택을 지역위원회(위원장 : 김현정)은 지난 10월 8일 ‘당원 한마음 대회’를 개최하였다. 코로나19로 인해 3년만에 열린 당원 단합대회는 짧은 공지기간에도 불구하고 100여명의 당원이 참석하여 성황리에 진행되었다. 당원들은 충북 괴산 “산막이 옛길”을 함께 걷고 막걸리도 한 잔하며 진한 동지애를 나눈 의미있는 시간이었다. 김현정 지역위원장은 인사말에서 “경제무능·안보무능을 전정부탓·언론탓·야당탓만 하며 거짓말로 상황을 모면하려는 정권과 윤바리기 여당에 맞서 선명야당·유능한 민생정당을 함께 만들어 가자”고 전제한 뒤 “정권 심판을 위해서는 당원의 단합이 무엇보다 중요하다.”며 “11월 말 2차 단합대회를 하고 내년 봄에 대규모 결의대회를 조직하자”고 힘주어 말했다. 한편 “앞으로 지역위원회는 골목당사를 통해 시민의 목소리를 듣기 위해 현장으로 나갈 것이며, 당원교육을 통해 공부하는 지역위원회 그리고 정치학교를 개설해 당원과의 소통을 한층 강화 할 것” 이라고 덧붙였다. 평택해경, 당진시 석문방조제 인근 해루질객 구조 홍기원 의원, 재정고속도로에서 ‘결빙 교통사고’ 없다는 한국도로공사, 경찰 통계에서는 5년간 64건 발생 평택해경, 미신고 낚시영업 어선 적발 우크라 삼성 입주 건물 피격…“한국인 피해 확인된 것 없다” 문화 더보기 한국문화재재단, '2022 대한민국 교육기부 대상' 수상 [시사뉴스 김도영 기자] 한국문화재재단은 교육 기부 문화 확산에 기여한 공로를 인정받아 교육부 주관으로 개최된 제11회 교육기부 박람회에서 '대한민국 교육기부 대상'을 수상했다고 9일 밝혔다. 올해로 11회를 맞는 '대한민국 교육기부 대상'은 교육부와 한국과학창의재단에서 교육기부 활성화에 기여한 우수 기관과 개인에게 매년 수여하는 상이다. 한국문화재재단의 아동·청소년 대상 '문화유산 특성화 교육'과 '찾아가는 문화유산 힐링체험' 꾸러미 전달 등의 교육 기부 활동이 좋은 평가를 받아 수상의 영예를 안았다. 재단은 문화유산교육 전문 인력 양성과 교육기반 조성을 위해 ▲문화유산교육전문가 양성과정 ▲문화유산교육사 3급 자격취득자 보수교육 ▲문화유산교육사 자격검정 운영 ▲교원 문화유산 직무연수 ▲문화재교육 프로그램 인증제 운영 등의 교육사업을 문화재청의 지원을 받아 진행하고 있다. 최영창 한국문화재재단 이사장은 "앞으로도 재단의 전문성과 역량을 활용해 더 많은 학교 밖 청소년들이 문화유산교육으로 진로·적성 탐색과 창의·인성교육을 체험할 수 있도록 사회적 책임을 다하겠다"고 말했다. 노벨문학상 수상자 아니 에르노 저서 판매 급증 한글날 맞아 우리말 예술 축제 '말모이 축제' 개최 K-ART 열기, 스타트 아트페어 런던 ‘K-ART 동시대 미술특별전’으로 이어간다 소리꾼 강효주 ‘서울, 장안의 소리’ 13~14일 서울남산국악당에서 개최 오피니언 더보기 【박성태 직론직설】 의욕과 열정만으로는 진정한 리더 될 수 없어…능력 있어야 [시사뉴스 박성태 대기자] 최근 윤석열 대통령 해외순방 중 비속어 논란 등으로 지지율이 다시 20%대로 급락하고 경제위기 속에 국정동력 상실 등 대선 전에는 전혀 상상하지 못했던 일련의 상황들을 보면서 지난 대선을 전후해 본지에 썼던 칼럼들이 다시 생각난다. 본지 칼럼 내용대로만 국정운영을 하였더라면, 조금이라도 대통령 본인이나 참모들이 칼럼 내용에 귀 기울였으면 이런 참담함이 없었을 것이라는 아쉬움이 남는다. 우선 대통령의 실언과 사과 과정 등에 대해 쓴 칼럼인데 요즘에도 대통령의 실언 리스크는 상존(常存)하고, 그 수습과정도 우물쭈물 하다가 시기를 놓쳐 호미로 막을 것을 가래로도 못 막는 우(愚)를 범하고 있다. &lt;윤후보님 제발 좀 부탁드립니다.(2021년 10월 25일)&gt; 대권후보 선언이후 윤 후보의 실언이 되풀이 되자 “윤석열의 최대의 적은 윤석열”이라는 말이 회자됐다. 처음에는 정치초년생이어서, 차라리 인간적이어서, 가식이 없어서 그런 것이라고 좋게 보아주는 사람들도 많았지만 연일 계속되는 말실수와 보는 시각에 따라서는 망언에 가까운 실언을 쏟아내고 그 수습과정에서 보여주는 그 자신과 캠프 관계자들의 아마추어적 대처는 그동안 그를 일방적으 【박성태 직론직설】 매일 새벽마다 산을 오르는 이유…욕심 버리고 초심 되찾기 위해 【박성태 직론직설】 내년 예산 배정 1, 2순위 부처 수장 공백 어쩌나, 특히 교육부 【박성태 직론직설】 2023학년도 수시 특집 기획기사를 보도하면서 【박성태 직론직설】 리더는 보스와는 달라야하고 리더는 프로이어야 한다 사람들 더보기 [인사]중소벤처기업부 [부고]이정렬(반도건설 대표)씨 모친상 [부고]이회수(경기교통공사 상임이사)씨 장인상 인사말 연혁 광고/제휴 불편신고 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이미진) 이메일 무단수집거부 고충처리인 기사제보 구독신청 [서울] (05510) 서울 송파구 올림픽로35가길11 (신천동) 한신빌딩 10층 | TEL : (02)412-3228~9 | FAX : (02) 412-1425 창간 발행인 겸 회장 강신한 | 대표 박성태 | 개인정보책임자 이경숙 | 청소년보호책임자 이미진 l (주)고려일보 후원문의 : (02)412-3228 Copyright ⓒ 1989 - 2022 SISA NEWS All rights reserved. Contact webmaster@sisa-news.com for more information 시사뉴스의 모든 컨텐츠를 무단복제 사용할 경우에는 저작권 법에 의해 제재를 받을 수 있습니다. UPDATE: 2022년 10월 11일 02시 32분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도, '코로나 일상' 대비 '도착지 없는 비행상품' 등 해외관광 활로 찾는다 한국일보 제주도, '코로나 일상' 대비 '도착지 없는 비행상품' 등 해외관광 활로 찾는다 이전기사 검색 읽기모드 흰색 배경 회색 배경 검은색 배경 가나다라 가나다라 가나다라 가나다라 가나다라 인쇄 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 닫기 제주도, '코로나 일상' 대비 '도착지 없는 비행상품' 등 해외관광 활로 찾는다 입력 2020.09.20 11:20 수정 2020.09.20 15:32 좋아요 0 0 0 댓글달기 0 코로나19 이전 외국인 관광객들이 몰린 제주공항 국제선 터미널 전경.제주도가 신종 코로나바이러스 감염증(코로나19)으로 위축된 해외관광의 새 활로를 찾기 위해 이미지 홍보를 적극 추진한다. 제주 방문을 희망하는 잠재적 여행 소비자에게 '청정ㆍ안전 제주'라는 확신을 심어주고 어려움을 겪고 있는 지역 관광업계에 활력을 불어넣겠다는 방침이다. 대만 관광객 120명이 타이베이 공항을 출발해 제주공항에 착륙하지 않고 제주 상공을 선회한 뒤 대만으로 회항한 상품 등이 대표적인 공략 대상이다. 20일 제주도에 따르면 착륙이나 입항 없이 항공기나 크루즈 안에서 여행하는 소비자를 대상으로 코로나19 일상 속 마케팅을 진행하는 데 우선 주력할 방침이다. 해외 현지 여행업계와 제주 정보를 공유해 방역 부담을 더는 방식으로 관광시장을 조기에 회복하겠다는 구상이다.최근 협정을 맺은 방역 안전국가 간 소규모 여행을 허용하는 트래블 버블(Travel bubble)이 추진되고, 한국발 입국자에 대한 조치 해제국가 증가(9월 17일 기준, 24개국) 등 여행 재개를 위한 분위기가 조성되는 추세를 고려했다고 도는 설명했다. 첫 사업으로는 지난 19일 대만~제주를 운항한 특별기를 상대로 탑승객 120명에게 제주관광 홍보 및 제주어 배우기, 퀴즈 이벤트 등을 진행했다. 이 상품은 제주도, 한국관광공사 타이베이지사, 대만 여행사 이지플라이와 타이거에어가 공동 출시했다. 항공기는 이날 착륙하지 않고 제주 상공을 선회한 후 돌아갔다. 대만의 미슐랭 레스토랑이 기내식을 제공했고, 기내 면세품도 25%가량 할인됐다. 도는 3시간30분정도의 비행시간 동안 제주의 청정 자연환경, 다양한 이색 체험, 먹거리 등을 홍보했다. 공항이나 항구에 입항하지 않으니 출입국 문제는 해당사항이 없다.오는 30일부터 10월 2일까지 예정된 겐팅 크루즈라인과 제주 관광 테마 크루즈 운영사업도 지원한다. 대만 순회 크루즈선을 활용해 제주관광 테마 크루즈를 운영하고 선상 문화체험 활동도 펼친다. 앞서 도는 지난 12일 대만 소비자를 대상으로 전통미식 문화 체험을 통해 코로나 회복 후 제주관광의 시장성을 확인했다.이와 함께 중국(5개소), 대만(1개소), 동남아(2개소), 일본(3개소)에 소재한 제주관광홍보사무소를 중심으로 현지 밀착형 맞춤 마케팅도 병행한다. 사무소별로 △온라인 응원 캠페인 △온ㆍ오프라인 제주관광 전문가과정 운영 △온라인 플랫폼 활용 라이브 제주관광설명회 △한국관광공사 해외지사, 재외공관 등 유관기관 공동 온ㆍ오프라인 홍보를 전개하고 있다.원희룡 제주지사는 "'코로나 일상' 시대는 안전 관광이 필수요소가 될 것"이라며 "분산형ㆍ비대면ㆍ비접촉 관광과 프로그램ㆍ콘텐츠 발굴을 적극 지원하고 규제를 풀어 제주형 관광의 새로운 길을 선도해 나가겠다"고 말했다. 하태민 기자 hamong@hankookilbo.com 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 댓글 쓰기 세상을 보는 균형, 한국일보Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을만한 이슈 지역 많이 본 뉴스 라이브 이슈 댓글0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인하면 다양한 편의 기능을 제공 받을 수 있습니다. 읽던 기사 이어보기 댓글 반응 및 추천기사 제공 연재 기사 정기 구독 기능 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 자동 로그인 회원가입 아이디 찾기 비밀번호 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 자동 로그인 공공장소에서 사용하는 컴퓨터에서는 자동 로그인 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 제 1 조 (목적) 이 이용약관 (이하 ‘약관’이라 합니다)은 ㈜한국일보사 (이하 ‘회사’라 합니다)가 제공하는 한국일보닷컴(hankookilbo.com) 관련 제반 서비스의 이용과 관련하여 회사와 회원 간 권리와 의무 및 책임, 기타 필요한 사항을 규정함을 목적으로 합니다. 제 2 조 (용어의 정의) 1. 이 약관에서 사용하는 용어의 정의는 다음과 같습니다. ① ‘회원’ 이라 함은 이 약관에 동의하고 이용자 아이디(ID)와 비밀번호를 부여 받아 이 회사가 제공하는 서비스를 이용하는 이용자를 말합니다. ② ‘이용계약’ 이라 함은 이 약관을 포함하여 서비스 이용과 관련하여 회사와 회원간에 체결하는 모든 계약을 말합니다. ③ ‘가입’ 이라 함은 회원이 되고자 하는 이용자가 이 약관에 동의하고 회사의 서비스 신청 양식에 필요 정보를 기입하고, 서비스 이용 계약을 신청, 회사의 승인을 얻는 것을 말합니다. ④ ‘탈퇴’라 함은 회원이 이용계약을 해약하는 것을 말합니다. ⑤ ‘이용자 아이디(ID)’라 함은 회원의 식별 및 서비스 이용을 위하여 회원이 정하고 회사가 승인한 문자와 숫자의 조합을 말합니다. ⑥ ‘비밀번호’라 함은 이용자 아이디(ID)로 식별되는 회원의 본인 여부를 검증하기 위하여 회원 자신이 정하여 등록한 문자와 숫자의 조합을 말합니다. ⑦ ‘단말기’라 함은 서비스에 접속하기 위해 회원이 이용하는 개인용 컴퓨터, PDA, 휴대전화, IPTV 등의 전산장치를 말합니다. ⑧ ‘게시물’ 이라 함은 회원이 서비스 이용을 하면서 게시한 글, 사진, 동영상 및 각종 파일과 링크 등을 말합니다. 2. 이 약관에서 사용하는 용어 중 제1항에서 정하지 아니한 것은 관계 법령 및 서비스별 안내에서 정하는 바에 따르며, 그 외에는 일반 관례에 따릅니다. 제 3 조 (약관의 게시 및 개정) 1. 회사는 이 약관을 회원들이 쉽게 알 수 있도록 한국일보닷컴 초기화면에 게시합니다. 2. 회사는 ‘약관의규제에관한법률’ ‘정보통신망이용촉진및정보보호등에관한법률(이하 ‘정보통신망법’) 등 관련 법을 위배하지 않는 범위 안에서 이용 약관을 개정할 수 있습니다. 3. 회사가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 제1항의 방식에 따라 개정약관의 적용일자 30일 전부터 적용일자 전일까지 공지합니다. 다만 회원에게 불리한 개정의 경우에는 공지 외에도 전자우편, 전자쪽지, 로그인 시 동의 창 등 전자적 수단을 통해 따로 통지합니다. 4. 회원이 약관 개정에 동의하지 않을 경우 당 회원과 이용계약을 해지할 수 있습니다. 5. 회원이 개정된 약관의 효력이 발생한지 15일 후에도 거부 의사를 표명하지 않은 채 계속 서비스를 이용할 경우 개정된 약관에 동의한 것으로 간주합니다. 제 4 조 (약관 외 준칙) 1. 회사는 필요한 경우 서비스별로 개별약관 또는 운영원칙을 둘 수 있으며, 이 약관과 운영원칙의 내용이 상충되는 경우에는 서비스별 개별약관과 운영원칙을 우선하여 적용합니다. 2. 이 약관에 명시되어 있지 않은 사항은 관련 법령 또는 상관례에 따릅니다. 제 5 조 (이용계약의 성립) 1. 이용계약은 회원이 되고자 하는 자(이하 ‘가입신청자)가 약관 내용에 ‘동의’를 한 후 회원가입 신청을 하고 회사가 이러한 신청을 승낙함으로써 체결됩니다. 2. 회사는 가입신청자의 신청에 대해 서비스 이용을 승낙함을 원칙으로 합니다. 다만 회사는 다음 각 호에 해당하는 신청에 대하여는 승낙을 하지 않거나 사후에 이용계약을 해지할 수 있습니다. ① 가입신청자가 이 약관에 의하여 이전에 회원자격을 상실한 적이 있는 경우. 다만 ‘회사’의 재가입 승낙을 얻은 경우는 예외로 함 ② 타인의 명의, 이메일 주소, 휴대전화 번호 등 개인정보를 도용하여 가입한 경우 ③ 허위 정보를 기재하거나 회사가 필수적으로 요구하는 사항을 기재하지 않은 경우 ④ 이용자 귀책사유로 인하여 승인이 불가능하거나 기타 규정한 제반 사항을 위반하며 신청하는 경우 ⑤ 관계법령에 위배되거나 사회의 안녕질서 혹은 미풍양속을 저해할 수 있는 목적으로 신청한 경우 ⑥ 영리목적 기타 부정한 용도로 본 서비스를 이용하고자 하는 경우 3. 회사는 제2항에 따라 회원가입신청의 승낙을 하지 않거나 유보한 경우 이를 가입신청자에게 알려야 합니다. 4. 회사는 서비스 이용신청이 다음 각 호에 해당하는 경우에는 그 신청에 대하여 승낙 제한사유가 해소될 때까지 승낙을 유보할 수 있습니다. ① 회사의 서비스 관련 설비의 여유가 없는 경우 ② 회사의 기술상 또는 업무상 문제가 있는 경우 ③ 기타 이용승낙이 곤란한 경우 5. 회사는 이용신청 고객이 관계법령에서 규정하는 미성년자일 경우에 서비스별 안내에서 정하는 바에 따라 승낙을 보류할 수 있습니다. 6. 회사는 회원을 대상으로 서비스별, 이용시간, 이용횟수 등을 통해 등급을 구분하여 이용에 차등을 둘 수 있습니다. 제 6 조 (개인정보 보호 의무 및 사용) 1. 회사는 ‘정보통신망법’ 등 관계 법령이 정하는 바에 따라 회원의 개인정보를 보호하기 위해 최선을 다합니다. 개인정보의 보호와 사용에 대해서는 관련 법령 및 회사의 개인정보취급방침이 적용됩니다. 다만 회사의 공식사이트 이외의 링크된 사이트에서는 회사의 개인정보취급방침이 적용되지 않습니다. 2. 회원은 이용자 아이디(ID) 및 비밀번호 등 개인정보가 타인에게 노출되지 않도록 철저히 관리해야 하며, 회사는 회원의 귀책사유로 인해 노출된 정보에 대해서는 책임을 지지 않습니다. 3. 회원은 아이디 및 비밀번호가 도용되거나 제3자가 사용하고 있음을 인지한 경우 이를 즉시 회사에 통지하고 회사의 안내에 따라야 합니다. 4. 회사는 다음과 같은 경우에 법이 허용하는 범위 내에서 회원의 개인정보를 제3자에게 제공할 수 있습니다. ① 수사기관이나 기타 정부기관으로부터 적법한 절차에 따라 정보제공을 요청 받은 경우 ② 회원의 법령 또는 약관의 위반을 포함하여 부정행위 확인 등의 정보보호 업무를 위해 필요한 경우 ③ 기타 법률에 의해 요구되는 경우 5. 회사는 회원에게 보다 다양한 정보 서비스 및 관련 혜택을 제공할 목적으로 회원의 정보를 이용할 수 있습니다. 또한, 회사는 회원정보를 제휴사에게 제공할 경우 제휴사, 목적, 이용될 회원정보 내용 등을 사전에 공지하고 회원 동의를 받아야 합니다. 6. 회사가 타사와 합병, 분할 시 회원의 정보는 공유될 수 있습니다. 7. 회사는 서비스 제공시 회원의 단말기로 쿠키를 전송할 수 있습니다. 이 경우 회원은 사용하는 단말기의 브라우저가 쿠키의 수신을 거부하거나 쿠키의 수신에 대하여 경고하도록 설정을 변경할 수 있습니다. 8. 회원이 이용신청서에 회원정보를 기재하고 본 약관에 동의 이용신청을 하는 것은 기재된 회원정보를 수집, 이용 및 제공하는 것에 동의하는 것으로 간주합니다. 9. 회사는 관련 법령과 이용 약관, 개인정보보호방침이 정하는 한계 내에서 회원 전체 또는 일부 정보를 업무와 관련된 통계자료로 사용할 수 있습니다. 제 7 조 (회사의 의무) 1. 회사는 관련법과 이 약관이 금지하거나 미풍양속에 반하는 행위를 하지 않으며, 계속적이고 안정적으로 서비스를 제공하기 위하여 최선을 다하여 노력합니다. 2. 회사는 회원이 안전하게 서비스를 이용할 수 있도록 개인정보 보호를 위해 보안시스템을 갖추어야 하며 개인정보취급방침을 공시하고 준수합니다. 3. 회사는 서비스 이용과 관련하여 발생하는 이용자의 불만 또는 피해 구제 요청을 적절하게 처리할 수 있도록 필요한 인력 및 시스템을 구비합니다. 4. 회사는 서비스 이용과 관련하여 회원으로부터 제기된 의견이나 불만이 정당하다고 인정할 경우에는 이를 처리하여야 합니다. 제 8 조 (회원의 의무) 1. 회원은 다음 행위를 하여서는 안 됩니다. ① 신청 또는 변경 시 허위 내용의 등록 ② 타인의 정보 도용 ③ 회사가 게시한 정보의 변경 ④ 회사가 정한 정보 이외의 정보(컴퓨터 프로그램 등)를 송신 또는 게시 ⑤ 회사와 기타 제 3자의 저작권 등 지적재산권에 대한 침해 ⑥ 회사 및 기타 제3자의 명예를 손상시키거나 업무를 방해하는 행위 ⑦ 외설 또는 폭력적인 메시지, 화상, 음성 등의 정보를 서비스에 공개 또는 게시하는 행위 ⑧ 회사의 동의 없이 영리를 목적으로 서비스를 사용하는 행위 ⑨ 기타 불법적이거나 부당한 행위 2. 회원은 관계 법령과 이 약관의 규정, 회사가 통지하는 사항 등을 준수하여야 하며, 기타 회사의 업무에 방해되는 행위를 해서는 안 됩니다. 3. 회원은 이용 신청시 기재한 주소, 연락처, 전자우편주소 등 개인정보와 이용계약 사항의 변경이 있을 경우 즉시 수정하여야 하며, 미변경으로 인해 발생하는 문제에 대해서 회사는 책임지지 않습니다. 4. 회원은 회사의 명시적 동의가 없는 한 서비스를 이용한 영업활동을 할 수 없으며, 그 영업활동의 결과에 대해 회사는 책임을 지지 않습니다. 또한 회원은 이와 같이 영업활동으로 회사가 손해를 입은 경우 회원은 회사에 대해 손해배상 의무를 지며, 회사는 해당 회원에 대해 서비스 이용제한 및 적절한 절차를 거쳐 손해배상 등을 청구할 수 있습니다. 제 9 조 (이용자 아이디 부여 및 변경) 1. 회사는 회원에 대하여 약관에 정하는 바에 따라 이용자 아이디(ID)를 부여합니다. 2. 이용자 아이디(ID)는 원칙적으로 변경이 불가하며 부득이한 사유로 인하여 변경하고자 하는 경우에는 해당 아이디(ID)를 해지하고 재가입 해야 합니다. 3. 이용자 아이디(ID)는 회원 본인의 동의 하에 회사 또는 자회사, 제휴사에서 운영하는 사이트의 회원 아이디(ID)와 연결될 수 있습니다. 4. 이용자 아이디(ID)는 다음 각호에 해당하는 경우에는 회원의 요청 또는 회사의 직권으로 변경 또는 이용을 정지할 수 있습니다. ① 이용자 아이디(ID)가 전화번호 또는 주민등록번호로 등록되어 사생활 침해가 우려되는 경우 ② 타인에게 혐오감을 주거나 미풍양속에 어긋나는 경우 ③ 회사, 회사의 서비스 또는 서비스 운영자 등의 명칭과 동일하거나 오인 등의 우려가 있는 경우 ④ 기타 합리적인 사유가 있는 경우 5. 이용자 아이디(ID) 및 비밀번호 관리책임은 회원에게 있습니다. 이를 소홀히 관리하여 발생하는 서비스 이용상의 손해 또는 제3자에 의한 부정이용 등에 대한 책임은 회원에게 있으며 회사는 그에 대한 책임을 지지 않습니다. 6. 이용자 아이디(ID) 및 비밀번호를 도난 당하거나 제3자가 사용하고 있음을 인지한 경우에는 바로 회사에 통보하고 안내에 있는 경우에는 그에 따라야 하며, 이러한 통지를 하지 아니하거나 회사의 조치에 응하지 아니하여 발생한 모든 불이익에 대한 책임은 회원에게 있습니다. 7. 기타회원 개인정보 관리 및 변경 등에 관한 사항은 서비스별 안내에 정하는 바에 의합니다. 제 10 조 (서비스 이용) 1. 서비스는 회사의 업무상 또는 기술상 특별한 지장이 없는 한 연중무휴, 1일 24시간 운영을 원칙으로 합니다. 단 천재지변 및 비상사태를 비롯한 부득이한 상황이 발생한 경우에는 서비스를 일시 중단할 수 있습니다. 2. 회사는 컴퓨터 등 정보통신설비의 보수점검, 교체 및 고장, 통신두절 또는 운영상 상당한 이유가 있는 경우 서비스의 제공을 일시적으로 중단할 수 있습니다. 이 경우 회사는 회원들에 사이트를 통해 사전 공지합니다. 다만 긴급한 시스템 점검, 증설 및 교체, 설비의 장애, 서비스 이용자 폭주, 국가비상사태, 정전 등 부득이한 사유가 발생한 경우에는 사전 예고 없이 일시적으로 서비스의 전부 또는 일부를 중단할 수 있습니다. 3. 회사는 서비스 개편 등 서비스 운영 상 필요한 경우 회원에게 사전 예고 후 서비스의 전부 또는 일부의 제공을 중단할 수 있습니다. 제 11 조 (회원 게시물의 관리) 1. 회원의 게시물이 정보통신망법 및 저작권법 등 관련법에 위반되는 내용을 포함하는 경우, 회사는 관련법이 정한 절차에 따라 해당 게시물의 게시중단 및 삭제 등을 요청할 수 있습니다. 2. 회원이 서비스에 등록하는 게시물 등으로 인하여 본인 또는 타인에게 손해나 기타 문제가 발생하는 경우 전적으로 회원은 이에 대한 책임을 지며, 회사의 고의가 아닌 한 회사는 이에 대하여 책임을 지지 않습니다. 3. 회사는 다음 각호에 해당하는 게시물 등을 회원의 사전 동의 없이 임시게시 중단, 수정, 삭제, 이동 또는 등록거부 등 관련조치를 취할 수 있습니다. ① 다른 회원 또는 제3자에게 욕설 및 비방, 인신공격으로 불쾌감 및 모욕을 주거나 명예를 훼손하는 내용인 경우 ② 다른 회원 또는 제3자의 저작권을 침해하거나 불법정보 유출과 관련된 글을 올리는 경우 ③ 다른 회원 또는 제3자의 사생활 침해 및 개인정보를 유출하는 경우 ④ 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 ⑤ 불법복제 또는 해킹을 조장하는 내용인 경우 ⑥ 영리를 목적으로 하는 광고 또는 사이트를 홍보하는 내용인 경우 ⑦ 범죄와 결부된다고 객관적으로 인정되는 내용인 경우 ⑧ 사적인 판단이나 지역감정 조성, 종교적 견해의 내용으로 회사가 서비스 성격에 부합하지 않는다고 판단하는 경우 ⑨ 회사에서 규정한 게시물 운영원칙에 어긋나거나 게시판 성격에 부합하지 않는 경우 ⑩ 기타 관계법령에 위배된다고 판단되는 경우 3. 회사는 광고성 게시물 차단 및 안정된 게시물 운영을 위해 일부 서비스에 대해 게시물 이용시간을 제한할 수 있습니다. 다만 이런 경우 이용시간을 해당 서비스에서 공지합니다. 4. 회사는 일부 서비스에 대해서 회원이 등록하는 게시물에 대해 사전 심의 후 게시 여부를 결정할 수 있습니다. 제 12 조 (게시물의 저작권) 1. 회원이 등록한 게시물에 대한 저작권은 해당 저작권자에게 귀속됩니다. 2. 회사가 작성한 게시물 또는 저작물에 대한 저작권, 기타 지적재산권은 회사에 귀속되므로 회원이 서비스를 이용하면서 얻은 저작물은 회사의 사전 승낙 없이 복제, 송신, 출판, 전송, 배포, 방송, 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 해서는 안됩니다. 3. 회사는 서비스의 운영, 전시, 전송, 배포, 홍보의 목적으로 회원의 별도의 허락 없이 무상으로 저작권법에 규정하는 공정한 관행에 맞게 합리적인 범위 내에서 다음과 같이 회원이 등록한 게시물을 사용할 수 있습니다. ① 서비스 내에서 회원 게시물의 복제, 수정, 개조, 전시, 전송, 배포 및 원저작물을 해치지 않는 범위 내에서의 편집 저작물 작성하는 경우 ② 서비스 제휴 파트너에게 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 ③ 휴대폰, PDA, IPTV 등 단말기에서 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 4. 회사는 전항 이외의 방법으로 회원의 게시물을 이용하고자 하는 경우 전화, 팩스, 전자우편 등의 방법을 통해 사전에 회원의 동의를 얻어야 합니다. 5. 게시물에 대해 제3자로부터 저작권 및 기타 권리의 침해 또는 명예훼손, 음란성 등의 이유로 이의가 제기된 경우 회사는 당해 게시물을 임시 삭제할 수 있습니다. 이 경우 회사는 이의를 제기한 자와 게시물 등록자 간의 법적 문제가 종결된 후, 게시 요청이 있는 경우에는 삭제된 게시물을 재등록 할 수 있습니다. 제 13 조 (정보의 제공) 1. 회사는 회원의 서비스 이용에 필요하다고 인정되는 다양한 정보를 공지사항이나 전자우편, SMS, SNS 등의 방법으로 회원에게 제공할 수 있습니다. 다만 회원은 관련법에 따른 거래관련 정보 및 고객문의 등에 대한 답변 등을 제외하고는 언제든지 전자우편에 대해서 수신 거절을 할 수 있습니다 2. 회사는 서비스 개선 및 회원 대상의 서비스 제공 등을 목적으로 회원의 동의 하에 관련 법령에 따라 추가적인 개인정보를 수집할 수 있습니다. 제 14 조 (광고 게재) 1. 회사가 회원에게 서비스를 제공하기 위한 수익기반의 일부인 광고게재 및 판촉활동에 대해서 회원은 서비스 이용 시 제공되는 광고에 대해 동의합니다. 2. 회사는 회원 가입 시 광고메일 발송에 동의한 한 회원에 한해서 회사의 판단에 따라 이메일 광고를 회원의 이메일 주소로 발송, 제공합니다. 3. 회사는 서비스상에 게재되어 있거나 서비스를 통한 광고주의 판촉활동에 회원이 참여하거나 교신 또는 거래를 함으로써 발생하는 일체의 손실과 손해에 대해 책임을 지지 않습니다. 제 15 조 (계약 해지) 1. 회원이 이용계약을 해지하고자 할 경우에는 회원 본인이 회사에서 제공한 서비스 내 영역을 통해 가입 해지를 해야 합니다. 회사는 관련법 등이 정하는 바에 따라 이를 즉시 처리해야 합니다. 2. 회원이 이용계약을 해지할 경우, 회사가 회원정보를 보유하는 경우를 제외하고는 관련법 및 개인정보취급방침에 따라 해지 즉시 회원의 모든 데이터는 소멸됩니다. 3. 회원이 이용계약 해지를 한 경우 본인 계정에 등록된 게시물 일체는 삭제됩니다. 다만 제3자에 의한 스크랩, 담기 등으로 재게시되거나, 복제된 게시물과 타인의 게시물과 결합되어 제공되는 게시물 등은 그러하지 않습니다. 제 16 조 (서비스 이용제한) 1. 회사는 회원이 이 약관의 의무를 위반하거나 서비스의 정상적인 운영을 방해한 경우, 이용을 단계적으로 제한할 수 있습니다. 2. 회사는 주민등록법을 위반한 명의도용 및 결제도용, 저작권법 및 컴퓨터프로그램보호법을 위반한 불법프로그램의 제공 및 운영방해, 정보통신망법을 위반한 불법통신 및 해킹, 악성프로그램의 배포, 접속권한 초과행위 등과 같이 관련법령을 위반한 경우에는 즉시 영구이용정지를 할 수 있습니다. 3. 회사는 본 조의 제한의 조건 및 세부내용은 이용제한정책 및 개별 서비스상의 운영정책에서 정하는 바에 의합니다. 제 18 조 (손해배상) 1. 회사와 이용자는 서비스 이용과 관련하여 고의 또는 과실로 상대방에게 손해를 끼친 경우에는 이를 배상해야 합니다. 2. 단, 회사는 무료로 제공하는 서비스의 이용과 관련하여 개인정보취급방침에서 정하는 내용에 위반하지 않는 한 어떠한 손해도 책임지지 않습니다. 제 19 조 (책임제한) 1. 회사는 천재지변 또는 이에 준하는 불가항력 기타 이 약관에서 정한 정당한 사유로 인하여 서비스를 제공할 수 없게 된 경우에는 서비스 제공에 관한 책임이 면제됩니다. 2. 회사는 회원의 귀책사유로 인한 서비스 이용의 장애 또는 손해에 대해서는 책임을 지지 않습니다. 3. 회사는 회원간 또는 회원과 제3자 상호간에 서비스를 매개로 하여 거래 등을 한 경우에는 책임이 면제됩니다. 4. 회사는 제공하는 서비스에 포함된 모든 정보, 소프트웨어, 제품 등에 부정확함과 인쇄상의 오류로 인해 발생하는 정보의 부정확성에 대해서는 책임을 지지 않습니다. 5. 회사는 회원의 게시물을 등록 전에 상시적으로 사전심사 하거나 게시물의 내용을 확인 또는 검토할 의무가 없으므로 그 결과에 대한 책임은 지지 않습니다. 6. 회사에서 회원에게 무료로 제공하는 서비스의 이용과 관련해서는 어떠한 손해도 책임을 지지 않습니다. 제 20 조 (통지) 1. 회사는 회원에 대하여 통지를 하는 경우 회원이 회사에 등록한 전자우편 주소로 할 수 있습니다. 2. 회사는 불특정다수 회원에게 통지를 해야 할 경우 회사 게시판을 통해 7일 이상 게시함으로써 개별통지에 갈음할 수 있습니다. 제 21 조 (준거법 및 재판관할) 1. 이 약관에 명시되지 않은 사항은 대한민국 관계법령과 상관습에 따릅니다. 2. 서비스 이용으로 인한 분쟁에 대해 소송이 제기될 경우 회사의 본사 소재지를 관할하는 법원을 관할법원으로 합니다. [부칙] 1. 이 약관은 2014년 5월 7일부터 시행합니다. 개인정보처리 방침 (필수) 한국일보닷컴(이하 ‘회사’)은 정보통신망 이용촉진 및 정보보호 등에 관한 법률, 개인정보보호법, 통신비밀보호법, 전기통신사업법, 등 정보통신서비스제공자가 준수하여야 할 관련 법령상의 개인정보보호 규정 및 방송통신위원회가 제정한 「개인정보보호지침」을 준수하고 있으며, 관련 법령에 의거한 개인정보취급방침을 정하여 이용자 권익 보호에 최선을 다하고 있습니다. 회사는 회원님들의 개인정보가 남용되거나 유출되지 않도록 최선을 다할 것이며, 이에 다음과 같이 회사의 개인정보 보호를 위한 방침에 대하여 알려드리고자 합니다. 단, 본 개인정보취급방침은 정부의 법령 및 지침의 변경, 또는 보다 나은 서비스의 제공을 위하여 그 내용이 변경될 수 있으니, 회원님들께서는 사이트 방문시 수시로 그 내용을 확인하여 주시기 바랍니다. 본 개인정보취급방침은 회사가 제공하는 서비스 (모바일 웹 포함) 이용에 적용되며 다음과 같은 내용을 담고 있습니다. 1. 수집하는 개인정보의 항목 및 수집방법 회사는 회원가입, 원활한 고객 상담, 각종 서비스의 제공을 위해 최초 회원가입 당시 아래와 같은 최소한의 개인정보를 필수항목으로 수집하고 있습니다. 가. 수집하는 개인정보의 항목 필수항목 : 이름, 생년월일, 아이디, 비밀번호, 메일주소, 휴대폰 번호, 주소, 가입인 증정보(참고로, 아동 관련 서비스를 제공할 때까지 만14세 미만 아동 회원은 가입을 불허합니다) 다만, 서비스 이용과정이나 사업처리 과정에서 IP Address, 쿠키, 방문 일시, 서비스 이용 기록, 불량 이용 기록, 결제기록 등이 자동으로 생성 되어 수집될 수 있습니다. 선택항목: 기존 아이디를 이용한 부가 서비스 및 맞춤식 서비스 이용 또는 이벤트 응모 과정에서 해당 서비스의 이용자에 한해서만 주민등록번호, 주소, 전 화번호, 직업 등의 정보들이 수집될 수 있습니다. 나. 개인정보 수집방법 회사는 다음과 같은 방법으로 개인정보를 수집합니다. - 홈페이지, 서면양식, 팩스, 전화, 상담 게시판, 이메일, 이벤트 응모, 배송요청 2. 개인정보의 수집 및 이용목적 회사는 수집한 개인정보를 다음의 목적을 위해 활용합니다. 가. 서비스 제공 서비스 제공에 관한 계약 이행 및 서비스 제공에 따른 요금정산, 컨텐츠 제공, 특정 맞춤 서비스 제공, 물품배송 또는 청구서 등 발송, 본인인증, 구매 및 요금 결제, 요금추심 나. 회원관리 회원제 서비스 이용에 따른 본인확인, 개인식별, 한국일보닷컴 이용약관 위반 회원에 대한 이용제한 조치, 서비스의 원활한 운영에 지장을 미치는 행위 및 서비스 부정이용 행위 제재, 가입의사 확인, 가입 및 가입횟수 제한, 추후 아동 관련 서비스제공으로 인한 만14세 미만 아동 개인정보 수집 시 법정 대리인 동의여부 확인, 추후 법정 대리인 본인확인, 분쟁 조정을 위한 기록보존, 불만처리 등 민원처리, 고지사항 전달, 회원탈퇴 의사의 확인 다. 신규 서비스 개발 및 마케팅·광고에의 활용 신규 서비스 개발 및 맞춤 서비스 제공, 통계학적 특성에 따른 서비스 제공 및 광고 게재, 서비스의 유효성 확인, 이벤트 정보 및 참여기회 제공, 광고성 정보 제공, 접속빈도 파악, 회원의 서비스이용에 대한 통계 3. 개인정보의 공유 및 제공 회사는 이용자들의 개인정보를 "2. 개인정보의 수집목적 및 이용목적"에서 고지한 범위내에서 사용하며, 이용자의 사전 동의 없이는 동 범위를 초과하여 이용하거나 원칙적으로 이용자의 개인정보를 외부에 공개하지 않습니다. 다만, 아래의 경우에는 예외로 합니다. - 이용자가 사전에 동의한 경우 - 법령의 규정에 의거하거나, 수사 목적으로 법령에 정해진 절차와 방법에 따라 수사기관의 요구가 있는 경우 4. 개인정보의 보유 및 이용기간 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 단, 다음의 정보에 대해서는 아래의 이유로 명시한 기간 동안 보존합니다. 가. 회사 내부 방침에 의한 정보보유 사유 - 부정이용기록(부정가입, 징계기록 등의 비정상적 서비스 이용기록) 보존 이유 : 부정 이용 방지 보존 기간 : 15일 나. 관련법령에 의한 정보보유 사유 상법, 전자상거래 등에서의 소비자보호에 관한 법률 등 관계법령의 규정에 의하여 보존할 필요가 있는 경우 회사는 관계법령에서 정한 일정한 기간 동안 회원정보를 보관합니다. 이 경우 회사는 보관하는 정보를 그 보관의 목적으로만 이용하며 보존기간은 아래와 같습니다. - 표시, 광고에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 6개월 - 계약 또는 청약철회 등에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 5년 - 대금결제 및 재화 등의 공급에 관한 기록 보존 이유 : 전자상거래 등에서의 소비자보호에 관한 법률 보존 기간 : 5년 - 소비자의 불만 또는 분쟁처리에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 3년 - 웹사이트 방문기록 보존이유 : 통신비밀보호법 보존기간 : 3개월 5. 개인정보 파기절차 및 방법 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 회사의 개인정보 파기절차 및 방법은 다음과 같습니다. 가. 파기절차 - 이용자가 회원가입 등을 위해 입력한 정보는 목적이 달성된 후 별도의 DB로 옮겨져(종이의 경우 별도의 서류함) 내부 방침 및 기타 관련 법령에 의한 정보보호 사유에 따라(보유 및 이용기간 참조)일정 기간 저장된 후 파기됩니다. - 동 개인정보는 법률에 의한 경우가 아니고서는 보유되는 이외의 다른 목적으로 이용되지 않습니다. 나. 파기방법 - 종이에 출력된 개인정보는 분쇄기로 분쇄하거나 소각을 통하여 파기합니다. - 전자적 파일 형태로 저장된 개인정보는 기록을 재생할 수 없는 기술적 방법을 사용하여 삭제합니다. 6. 이용자 및 법정대리인의 권리와 그 행사방법 - 이용자는 언제든지 등록되어 있는 자신의 개인정보를 조회하거나 수정할 수 있으며, 회사의 개인정보의 처리에 동의하지 않는 경우 동의를 거부하거나 가입해지(회원탈퇴)를 요청하실 수 있습니다. 다만, 그러한 경우 서비스의 일부 또는 전부 이용이 어려울 수 있습니다. - 이용자의 개인정보 조회, 수정을 위해서는 '개인정보변경'(또는 '회원정보수정' 등)을, 가입해지(동의철회)를 위해서는 "회원탈퇴"를 클릭하여 본인 확인 절차를 거치신 후 직접 열람, 정정 또는 탈퇴가 가능합니다. - 혹은 개인정보관리책임자에게 서면, 전화 또는 이메일로 연락하시면 지체 없이 조치하겠습니다. - 이용자가 개인정보의 오류에 대한 정정을 요청하신 경우에는 정정을 완료하기 전까지 당해 개인정보를 이용 또는 제공하지 않습니다. 또한 잘못된 개인정보를 제3 자에게 이미 제공한 경우에는 정정 처리결과를 제3자에게 지체 없이 통지하여 정정이 이루어지도록 하겠습니다. - 회사는 이용자 혹은 법정 대리인의 요청에 의해 해지 또는 삭제된 개인정보는 "5. 개인정보의 보유 및 이용기간"에 명시된 바에 따라 처리하고 그 외의 용도로 열람 또는 이용할 수 없도록 처리하고 있습니다. 7. 개인정보 자동 수집 장치의 설치/운영 및 거부에 관한 사항 - 회사는 개인화되고 맞춤화된 서비스를 제공하기 위해서 이용자의 정보를 저장하고 수시로 불러오는 '쿠키(cookie)'를 사용합니다. - 쿠키는 웹사이트를 운영하는데 이용되는 서버가 이용자의 브라우저에게 보내는 아주 작은 텍스트 파일로 이용자 컴퓨터의 하드디스크에 저장됩니다. 이후 이용자가 웹 사이트에 방문할 경우 웹 사이트 서버는 이용자의 하드 디스크에 저장되어 있는 쿠키의 내용을 읽어 이용자의 환경설정을 유지하고 맞춤화된 서비스를 제공하기 위해 이용됩니다. - 쿠키는 개인을 식별하는 정보를 자동적/능동적으로 수집하지 않으며, 이용자는 언제든지 이러한 쿠키의 저장을 거부하거나 삭제할 수 있습니다. 가. 쿠키 사용 목적 회원과 비회원의 접속 빈도나 방문 시간 등을 분석, 이용자의 취향과 관심분야를 파악 및 자취 추적, 각종 이벤트 참여 정도 및 방문 회수 파악 등을 통한 타킷 마케팅 및 맞춤형 정보를 제공하기 위해 사용합니다. 다. 쿠키의 설치·운영 및 거부 - 이용자는 쿠키 설치에 대한 선택권을 가지고 있습니다. 따라서 이용자는 웹브라우저에서 옵션을 설정함으로써 모든 쿠키를 허용하거나, 쿠키가 저장될 때마다 확인을 거치거나, 아니면 모든 쿠키의 저장을 거부할 수도 있습니다. - 다만, 쿠키의 저장을 거부할 경우에는 로그인이 필요한 일부 서비스는 이용에 어려움이 있을 수 있습니다. - 쿠키 설치 허용 여부를 지정하는 방법(Internet Explorer의 경우)은 다음과 같습니다. ① [도구] 메뉴에서 [인터넷 옵션]을 선택합니다. ② [개인정보 탭]을 클릭합니다. ③ [개인정보취급 수준]을 설정하시면 됩니다. 8. 개인정보의 기술적·관리적 보호 대책 회사는 이용자들의 개인정보를 취급함에 있어 개인정보가 분실, 도난, 누출, 변조 또는 훼손되지 않도록 안전성 확보를 위하여 다음과 같은 기술적·관리적 대책을 강구하고 있습니다. 가. 비밀번호 암호화 회원 아이디(ID)의 비밀번호는 암호화되어 저장 및 관리되고 있어 본인만이 알고 있으며, 개인정보의 확인 및 변경도 비밀번호를 알고 있는 본인에 의해서만 가능합니다. 나. 해킹 등에 대비한 대책 회사는 해킹이나 컴퓨터 바이러스 등에 의해 이용자의 개인정보가 유출되거나 훼손되는 것을 막기 위해 외부로부터 접근이 통제된 구역에 시스템을 설치하고, 침입 차단장치 이용 및 침입탐지시스템을 설치하여 감시하고 있습니다. 그리고 백신 프로그램을 주기적으로 업데이트하며 갑작스런 바이러스가 출현할 경우 백신이 나오는 즉시 이를 적용함으로써 개인정보가 침해 방지를 위해 노력하고 있습니다. 다. 개인정보처리시스템 접근 제한 회사는 개인정보를 처리할 수 있도록 체계적으로 구성한 데이터베이스시스템에 대한 접근권한의 부여, 변경, 말소 등에 관한 기준을 수립하고 비밀번호의 생성 방법, 변경 주기 등을 규정 운영하며 기타 개인정보에 대한 접근통제를 위해 필요한 조치를 다하고 있습니다. 라. 개인정보 취급 직원의 교육 개인정보관련 취급 직원은 담당자에 한정시켜 최소화 하고 새로운 보안기술의 습득 및 개인정보보호 의무에 관해 정기적인 교육을 실시하며 별도의 비밀번호를 부여하여 접근 권한을 관리하는 등 관리적 대책을 시행하고 있습니다. 9. 개인정보관리책임자 및 담당자의 연락처 회사는 개인정보를 보호하고 개인정보와 관련한 불만을 처리하기 위하여 아래와 같이 개인정보관리책임자를 지정하고 있습니다. 이용자는 서비스를 이용하면서 발생하는 모든 개인정보보호 관련 민원을 개인정보관리책임자로 신고하실 수 있습니다. 회사는 이용자들의 신고사항에 대해 신속하게 충분한 답변을 드릴 것입니다. 개인정보 관리책임자 성명: 정진황 국장 소속: 디지털콘텐츠국 전화: 02-724-2427 이메일: jhchung@hankookilbo.com 개인정보 관리담당자 성명: 안경모 부장 소속: 디지털미디어부 전화: 02-724-2293 이메일: zuckbox@hankookilbo.com 기타 개인정보침해에 대한 신고나 상담이 필요하신 경우에는 아래 기관에 문의하시기 바랍니다. - 개인정보침해신고센터 ( www.118.or.kr / 국번없이 118) - 대검찰청 사이버범죄수사단 ( www.spo.go.kr / 02-3480-3571) - 경찰청 사이버테러대응센터 ( www.ctrc.go.kr / 국번없이 182) 10. 고지의 의무 현 개인정보취급방침 내용 추가, 삭제 및 수정이 있을 시에는 개정 최소 7일전부터 홈페이지의 공지사항을 통해 고지할 것입니다. - 공고일자 : 2014년 5월 8일 - 시행일자 : 2014년 5월 15일 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 뉴스레터 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 다음 약관 동의 필수 이용약관에 동의 하셔야 합니다. 확인 약관 동의 필수 개인정보처리 방침에 동의 하셔야 합니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를 사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 제주도, '코로나 일상' 대비 '도착지 없는 비행상품' 등 해외관광 활로 찾는다 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요.(최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인</t>
+  </si>
+  <si>
+    <t>[국제]타이완 항공사, '착륙 없는 제주도 관광' 상품 출시 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제기에 여당... 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... 감사원 국감, 시작부터 '파행'...친일 국방 논란 계속 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 타이완 항공사, '착륙 없는 제주도 관광' 상품 출시 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 정당화될 수 있나"...野 '친일 ... 코스피, 2,200선 붕괴...환율, 장중 1,430원 돌파 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 학교 비정규직노조, "폐암으로 죽어가"...급... [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제... "자존심 살리려는 절박함"...러시아 보복 공습으로 전... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일 국방' 공세 일축 정진석 "조선, 내부에서 썩어 문드러져 망해"…발언 놓고 논란 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 감사원 국감, 오전 내내 '파행'…친일 국방 논란 계속 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 코스피, 2,200선 붕괴…환율, 장중 1,430원 돌파 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 "자존심 살리려는 절박함"…러시아 보복 공습으로 전황 격화 우려 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 도심에서 50대 권총 맞아…극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 오늘부터 개량백신 접종…신규 확진 1만 5,476명 동시계약 허점 노려 전세대출금 가로채…'신종 사기' 적발 "자격시험 도중 화장실 못하게 하는 건 인권 침해" 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 물가 오름세에 '구제 시장'도 한숨…"손님 있어도 안 사요" 학력 전수평가 5년 만에 사실상 부활…초3~고2로 확대 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 다음 국제 타이완 항공사, '착륙 없는 제주도 관광' 상품 출시 2020년 09월 20일 13시 31분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 코로나 사태가 장기화하면서 도착지 없는 비행 체험 상품들이 늘고 있는 가운데, 타이완에서는 이런 방식의 제주도 관광 상품이 눈길을 끌고 있습니다. '타이완 에어'는 어제(19일) 국내 탑승객 120여 명을 태우고 타오위안 국제공항을 이륙해 제주도 상공을 비행한 뒤 출발지로 다시 돌아오는 항공편을 운항했습니다. 기내에서는 직원들이 한복 차림을 하거나 한국어 단어들을 승객들에게 가르쳐주는 등 한국 문화를 소개하는 프로그램이 마련됐습니다. 앞서 일본과 싱가포르 등 다른 나라 항공사들도 하늘에서 관광지 등을 둘러보는 비행 상품을 최근 잇따라 출시했거나 검토하고 있습니다.[저작권자(c) YTN 무단전재 및 재배포 금지] 국제 기사목록 전체보기 TSMC 창업자 "전쟁 발생하면 TSMC 전부 파괴될 것" 미국에서 1.1톤 넘는 초대형 호박 수확...미국 신기록 수립 독일, 12월 가정·중소기업 가스료 정부가 납부할 듯 IMF·세계은행, 위기 심화 개도국에 역대 최대 대출 YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>'도의회 반발 속' 제주도관광공사 사장 고은숙씨 내정 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 '도의회 반발 속' 제주도관광공사 사장 고은숙씨 내정 등록 2020.09.18 17:31:15 작게 크게 【제주=뉴시스】제주관광공사 전경. (사진=뉴시스DB)[제주=뉴시스] 강정만 기자 = 제주특별자치도는 제5대 제주관광공사 사장 임용후보자에 제주시 일도1동 출신의 고은숙 제일기획 자문위원을 내정했다고 18일 밝혔다. 고은숙 후보 지명자는 제일기획 익스피리언스비즈니스 그룹장, 옴니채널지즈니스 BE비즈니스본부장(임원) 및 자문위원 등을 역임한 통합마케팅 전문가다. 제5대 제주관광공사 사장은 9월 중 결격사유(신원조사) 조사 후 도의회 인사 청문회(문화관광체육위원회)를 거쳐 최종 임명할 예정이다. 하지만 도의회가 "원희룡 지사의 사조직 멤버인 사람이 내정됐다"는 등 반발하고 있어 도가 임용을 강행할 경우 상당한 파란이 예상된다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>Jeju on alert over tourist inflow during Chuseok holiday National Politics Foreign Affairs Multicultural Community Defense Environment &amp; Animals Law &amp; Crime Society Health &amp; Science Business Tech Bio Companies Finance Companies Economy Markets Cryptocurrency Opinion Editorial Columns Thoughts of the Times Cartoon Today in History Blogs Tribune Service Blondie &amp; Garfield Letter to President Letter to the Editor Lifestyle Travel &amp; Food Trends People &amp; Events Books Around Town Fortune Telling Entertainment &amp; Arts K-pop Films Shows &amp; Dramas Music Theater &amp; Others Sports World SCMP Asia Video Culture People News Photos Photo News Darkroom Site Map E-paper Subscribe Register LogIn Site Map E-paper Subscribe Register LogIn NationalWorldBusinessLifestyleCultureDear AbbyEditorialFootball InsideHackers Toeic Tue, October 11, 2022 | 14:53 National Jeju on alert over tourist inflow during Chuseok holiday 제주도, 추석 연휴에 몰려들 관광객으로 '비상사태’ Posted : 2020-09-25 17:43 Updated : 2020-09-28 11:38 Tourists take a selfie in a pink muhly grass garden on Jeju Island, Tuesday. /YonhapOfficials on Jeju Island are bracing for a possible surge of COVID-19 infections on the resort island as many tourists are expected to visit there during the five-day Chuseok long weekend that starts Sept. 30.제주도는 이달 30일부터 5일간의 추석 연휴 동안 많은 관광객이 섬을 방문할 것으로 예상됨에 따라 도내 코로나19 감염 급증 가능성에 대비하고 있다.The Central Disaster and Safety Countermeasures Headquarters said Wednesday that reservation rates for hotels on the southern island during the holiday had reached 56 percent as of Monday.중앙재난안전대책본부는 연휴 기간 제주도의 호텔 예약률이 월요일 기준 56%에 달했다고 수용일 밝혔다.Jeju officials expect more than 300,000 people to travel to the island during the holiday period, despite the government's plea to refrain from going out and conducting outdoor activities amid a second wave of coronavirus infections.코로나바이러스의 재유행 속에 정부가 외출 및 야외활동을 자제해 달라고 호소했음에도 불구하고 제주도청 관계자들은 연휴 기간 30만 명 이상이 섬을 방문할 것으로 예상하고 있다.This is raising concerns among residents, with some even posting a petition on the website of Cheong Wa Dae, calling on the government to take measures to prevent people from visiting the island.이로 인해 제주도민들의 우려가 커지며, 일부 도민들은 청와대 홈페이지에 제주도 여행 방지 대책 마련을 촉구하는 청원까지 올린 상황이다.One petitioner wrote, "A number of Jeju residents have canceled their plans to visit other parts of the nation due to the pandemic. The government should take measures to ban people from visiting Jeju."한 청원자는 "수많은 제주도민은 육지를 방문하려는 계획을 취소했다. 정부는 사람들의 제주도 방문을 금지하는 조치를 취해야 한다"고 주장했다.Amid growing concerns, Jeju Special Self-Governing Province has drawn up strict anti-virus guidelines that will take effect Saturday.우려가 커지고 있는 가운데 제주특별자치도는 토요일부터 시행되는 강화된 방역수칙을 마련했다.Officials said they will file complaints against those who violate the guidelines in accordance with the Infectious Disease Control and Prevention Act.관계자들은 이 수칙을 위반한 사람들을 ‘감염병의 예방 및 관리에 관한 법률'에 따라 고발할 예정이라고 밝혔다.The office will also file for compensation to cover the costs of examination and treatment if a visitor confirmed to have COVID-19 is found to have violated the guidelines.제주도는 또 코로나19 확진 판정을 받은 입도객이 방역수칙을 위반한 사실이 확인될 경우 검진 및 치료비에 대한 구상권을 청구할 예정이다.In addition, visitors with a body temperature over 37.5 degrees Celsius will have to go through mandatory coronavirus testing and be isolated until test results come out, according to officials.또한, 체온이 37.5도 이상인 입도객들은 의무적인 코로나바이러스 검사를 받아야 하며 검사 결과가 나올 때까지 격리된다고 관계자들은 전했다.코리아타임스위클리"시사와 영어를 한 번에"Korea Times Weekly※뉴스 영어 퀴즈 질의응답 오픈카톡방 OPEN※https://open.kakao.com/o/gHjV72sc jiminhong@koreatimes.co.kr More articles by this reporter Gov't mulls lowering age of eligibility for dual citizenship Hanwha withdraws from $10 bil. Iraqi construction project [ANALYSIS] What options does S. Korea have as US protectionism intensifies? North Korea raises stakes with 'tactical nuclear' drills Lawmaker calls for Koryoin school in Gwangju Adoption agency denies fabricating documents of Danish adoptees Koreans' perceptions of Africa improving Justice minister's motives behind New York trip questioned LG Electronics sells more guide robots to Japanese shopping mall KB-controlled Indonesian bank rises in Jakarta financial watchdog's rating Interactive News Former IZ*ONE member denies plagiarism allegations Song Hye-kyo donates guidebooks to Utoro museum to mark Hangeul Day 'Extraordinary Attorney Woo' wins top prize at Asia Contents Awards English guide to getting job in K-pop industry to be published next month Lithuanian documentary 'Mariupolis' opens European Film fest Women, life, freedom [PHOTOS] Typhoon Noru hits the Philippines forcing thousands to evacuate Mourners pay respects to Queen Elizabeth II Millions in need of aid as floods hit Pakistan Our children deserve the best CEO &amp; Publisher : Oh Young-jin Digital News Email : webmaster@koreatimes.co.kr Tel : 02-724-2114 Online newspaper registration No : 서울,아52844 Date of registration : 2020.02.05 Masthead : The Korea Times Copyright © koreatimes.co.kr. All rights reserved. About Us Introduction History Location Media Kit Contact Us Products &amp; Service Subscribe E-paper Mobile Service RSS Service Content Sales Policy Privacy Statement Terms of Service 고충처리인 Youth Protection Policy Code of Ethics Copyright Policy Family Site Hankook Ilbo Dongwha Group</t>
+  </si>
+  <si>
+    <t>'도의회 반발 속' 제주도관광공사 사장 고은숙씨 내정 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 '도의회 반발 속' 제주도관광공사 사장 고은숙씨 내정 등록 2020.09.18 17:31:15 작게 크게 【제주=뉴시스】제주관광공사 전경. (사진=뉴시스DB)[제주=뉴시스] 강정만 기자 = 제주특별자치도는 제5대 제주관광공사 사장 임용후보자에 제주시 일도1동 출신의 고은숙 제일기획 자문위원을 내정했다고 18일 밝혔다. 고은숙 후보 지명자는 제일기획 익스피리언스비즈니스 그룹장, 옴니채널지즈니스 BE비즈니스본부장(임원) 및 자문위원 등을 역임한 통합마케팅 전문가다. 제5대 제주관광공사 사장은 9월 중 결격사유(신원조사) 조사 후 도의회 인사 청문회(문화관광체육위원회)를 거쳐 최종 임명할 예정이다. 하지만 도의회가 "원희룡 지사의 사조직 멤버인 사람이 내정됐다"는 등 반발하고 있어 도가 임용을 강행할 경우 상당한 파란이 예상된다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도관광협회-농업인단체협의회, 상생발전 MOU &lt; 동정 &lt; 사람들 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회-농업인단체협의회, 상생발전 MOU 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사람들 동정 제주도관광협회-농업인단체협의회, 상생발전 MOU 기자명 이동건 기자					(dg@jejusori.net) 입력 2020.09.23 14:54 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도관광협회는 제주도 농업인단체협의회와 ‘코로나19 조기 극복을 위한 관광-농업 상생 발전 업무협약’을 체결했다고 23일 밝혔다. 두 기관은 MOU에 따라 도내 관광사업체와 농업인 단체간 융복합 연계 상품 경쟁력 강화를 도모키로 했다. 이들은 관광협회가 운영하는 탐나오를 활용해 제주 농산물 온라인 판로 개척과 소비 촉진을 추진키로 했다. 관광협회 관계자는 “코로나19로 인한 경제 침체로 어려움을 겪는 농업인에게 이번 협력이 큰 도움이 되길 바란다. 실질적 협력을 통해 관광과 농업의 지속가능한 발전을 도모할 것”이라고 말했다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[알립니다]울릉도·독도-제주도-평창 ‘힐링 관광’ 떠나요 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|사람속으로 [알립니다]울릉도·독도-제주도-평창 ‘힐링 관광’ 떠나요 입력 2020-09-25 03:00업데이트 2020-09-25 03:00 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 동아일보사는 울릉도·독도, 제주도, 강원 평창 등 국내에서 사랑 받고 안전한 여행 상품을 엄선해 일상에 지친 여러분에게 힐링을 선사합니다. 천혜의 자연을 만끽하며 재충전의 기회를 갖는 이번 테마여행은 안전이 바탕이 된 먹거리, 볼거리 풍성한 만족여행이자 지역 이웃과 어려움을 나누는 뜻깊은 여행이 될 것입니다. 가족 및 지인과 소중한 추억을 만드시기 바랍니다. ○ 일정: 울릉도·독도 ∼ 매주 화요일(특선) 또는 매일(패키지) 출발, 2박 3일 제주도 연말까지 매일 출발(진에어), 2박 3일(자유일정 및 골프 패키지 선택 가능) 평창 호텔 패키지 연말까지 매일 출발(알펜시아), 자유 일정 ○ 여정: 울릉도·독도, 제주도, 평창 명승지 ○ 예약 및 문의: 문화기획팀(02-756-7940·salut@donga.com·카톡 아이디 tourdonga) 홈페이지(tourdonga.com) #힐링관광#울릉도#제주도 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 알립니다라흐마니노프 피아노콘서트로 초대합니다청년-여성-신중년, 다시 일자리로유윤종 전문기자 동행 명품 클래식 유럽여행Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 2 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 ‘K-방산(防産)’ 전시관 찾은 해외 軍 관계자 “놀랍다” 5 [단독]‘제트기류’에 美뉴욕발 직항편 중간 착륙…‘테크니컬 랜딩’ 늘어날수도 6 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 7 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 8 같은 번호판 2개…간적 없는 곳서 주차위반 “7달째 영문 몰라” 9 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 10 외국인 고액체납자 절반, 이미 출국… 강제 징수할 방법 없어 최신기사 아직도 ‘콩나물 교실‘ 많은 현장…중학교 10학급 중 4학급이 ‘과밀학급’ 김주형은 될성부른 나무…한국 무대서도 최연소 기록 지난해 ‘로드킬’ 3만7000건…고양이-고라니가 가장 많아 軍동원령에 러시아 여론 악화…“국민, 전쟁 비용에 눈뜨기 시작” KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>스포츠서울 - 코로나19로 귀성 자제, 제주도는 관광객 증가 아이러니? 코로나19로 귀성 자제, 제주도는 관광객 증가 아이러니? 입력2020-09-21 16:12 수정2020-09-21 16:11 제주공항에 도착한 관광객들이 렌터카 주차장으로 이동하는 모습. 연합뉴스 [스포츠서울 이웅희기자] 코로나19 확산 우려로 올 추석 연휴 귀성을 자제하는 움직임이 감지되고 있다. 그런데 추석 긴 연휴 기간동안 제주에 관광객이 몰릴 전망이다. 아이러니다. 이번 추석 연휴는 오는 30일부터 다음달 4일까지 5일간이다. 최근 코로나19 확산 여파로 인해 정부는 추석 연휴가 본격적으로 시작되는 이달 28일부터 다음달 11일까지 2주간을 특별방역기간으로 정하고 전국에 거리두기 2단계에 준하는 방역조치를 적용하기로 했다. 연휴 기간 가급적 고향과 친지 방문을 자제하고 집에 머물러줄 것을 요청했다. 정부는 이동을 줄이기 위해 2017년부터 명절 기간 면제했던 고속도로 통행료도 올해는 징수하기로 했다. 실제 추석 연휴를 피해 미리 성묘를 하고 고향을 방문한 가정도 늘었다.코로나19 우려로 인해 너도 나도 귀성을 포기하고 있지만 제주 관광객은 더 늘어나는 기현상이 벌어질 전망이다. 제주도관광협회에 따르면 올 추석 연휴에 제주도를 찾는 인원이 약 20만 명에 이를 것으로 예상되고 있다. 연휴 기간 5일로 나누면 하루 평균 약 4만명이 제주로 유입된다고 보면 된다. 여름 성수기 관광객 수와 비슷한 수준이다. 김포와 김해에서 출발해 제주로 가는 항공기 노선 예약률도 급증하고 있는 것으로 알려졌다. 코로나19 우려에 귀성을 자제하면서도 연휴 기간 여행을 계획하고 있는 이들이 적지 않다는 얘기다.추석 연휴 기간 제주 방문객이 증가할 것으로 예상됨에 따라 코로나19 확산 가능성이 높아질 것이라는 우려의 목소리도 흘러나온다. 제주도 방역당국도 발등에 불이 떨어졌다. 자칫 코로나19 확진자가 발생하면 그간 상대적으로 피해가 적었던 제주도에도 급속도로 코로나19가 퍼질 수 있다. 제주도 방역당국은 방역수칙 준수와 위험업종 방문 자제 등에 대한 계도 활동을 통해 추석 연휴 코로나19 차단에 집중한다는 방침이다. iaspire@sportsseoul.com ▶ 디지털 뉴스콘텐츠 이용규칙 보기 0 오늘의 핫키워드 김지민 l 선우은숙 재혼 l 신혜성 l 오은영 박사 인기기사-네이버 '쌍둥이 임신?' 김지민, 열애 공개한 이유가.... 선우은숙, 4세 연하 유영재 아나와 재혼 역시 만능! 임창정, 연예인골프대회 3위 7kg 감량 홍진영, 초미니로 뽐낸 각선미 외도 70대 노부부...오은영도 할 말 잃었다 '이정후 절친' 고우석, 이종범 사위 된다 '이상화♥' 강남, 장모와 XX수술도 같이해 신혜성, 도난차량서 음주측정 거부로 '체포' 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 영상 포토 페이스북 트위터 카카오톡 구글플러스 카카오스토리 밴드 TOP 뉴스 1/2 이전 다음 맥심 선정 '세계 최고 섹시 미녀' 골프선수 중 타이거 우즈보다 팔로워 수가... 강민경, '65억' 매입 신사옥으로 이사 강민경이 신사옥으로 이사한다... 신세경, '헉' 소리 나는 베이글 여신 배우 신세경이 여신 같은 아름다움을... 호주 가라테 국대 출신, 남심 저격 호주 가라테 국가대표 출신으로 모델과... 과감 누드 화보 찍은 '91세' 최고령 모델 미국은 물론이고 전세계를 통틀어... 16살인데...이동국 딸, 넘사벽 성숙미 축구스타 이동국의 딸이자 모델 재시가... 부산국제영화제 레드카펫, 최고의 여신은? 부산국제영화제 레드카펫은... '아이언맨'의 그녀, 50세 기념 누드 배우 기네스 팰트로가 50세 생일을 기념한... SS TV 캐스트 구독하기 스포츠서울 SNS 스포츠서울 앱 살펴보기 스포츠서울 서울가요대상 Android 서울가요대상 IOS [사고]2022 제11회 전국 중.고 인문학 경진대회 X</t>
+  </si>
+  <si>
+    <t>제주도, 추석 연휴에 몰려들 관광객으로 ‘비상’ 한국일보 제주도, 추석 연휴에 몰려들 관광객으로 ‘비상’ 이전기사 검색 읽기모드 흰색 배경 회색 배경 검은색 배경 가나다라 가나다라 가나다라 가나다라 가나다라 인쇄 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 닫기 제주도, 추석 연휴에 몰려들 관광객으로 ‘비상’ 입력 2020.09.26 04:30 좋아요 0 0 0 댓글달기 0 (25일 오전 제주국제공항에서 마스크 착용 생활화 캠페인이 진행되고 있다. 이번 캠페인은 추석연휴 기간인 9월 26일부터 10월 4일까지 공·항만을 통한 입도객 전원을 대상으로 체류기간 내 마스크 착용을 의무화하는 특별행정조치가 시행됨에 따라 진행됐다. 제주=뉴시스Jeju on high alert over tourist inflow during Chuseok holiday제주도, 추석 연휴에 몰려들 관광객으로 ‘비상’Officials on Jeju Island are bracing for a possible surge of COVID-19 infections on the resort island as many tourists are expected to visit there during the five-day Chuseok long weekend that starts Sept. 30.제주도는 이달 30일부터 닷새간 추석 연휴 동안 많은 관광객이 섬을 방문할 것으로 예상됨에 따라 도내 코로나19 감염 급증 가능성에 대비하고 있다. The Central Disaster and Safety Countermeasures Headquarters said Wednesday that reservation rates for hotels on the southern island during the holiday had reached 56 percent as of Monday.중앙재난안전대책본부는 연휴 기간 제주도의 호텔 예약률이 월요일 기준 56%에 달했다고 수요일 밝혔다.Jeju officials expect more than 300,000 people to travel to the island during the holiday period, despite the government's plea to refrain from going out and conducting outdoor activities amid a second wave of coronavirus infections.코로나19의 재유행 속에 정부가 외출 및 야외활동을 자제해 달라고 호소했는데도 제주도청 관계자들은 연휴 기간 30만명 이상이 섬을 방문할 것으로 예상하고 있다.This is raising concerns among residents, with some even posting a petition on the website of Cheong Wa Dae, calling on the government to take measures to prevent people from visiting the island.이로 인해 제주도민들의 우려가 커지며, 일부 도민들은 청와대 홈페이지에 제주도 여행 방지 대책 마련을 촉구하는 청원까지 올린 상황이다.One petitioner wrote, "A number of Jeju residents have canceled their plans to visit other parts of the nation due to the pandemic. The government should take measures to ban people from visiting Jeju."한 청원자는 "수많은 제주도민은 육지를 방문하려는 계획을 취소했다"며 "정부는 제주도 방문을 금지하는 조치를 취해야 한다”고 주장했다.Amid growing concerns, Jeju Special Self-Governing Province has drawn up strict anti-virus guidelines that will take effect Saturday.우려가 커지고 있는 가운데 제주특별자치도는 토요일부터 시행되는 강화된 방역수칙을 마련했다.Officials said they will file complaints against those who violate the guidelines in accordance with the Infectious Disease Control and Prevention Act.관계자들은 이 수칙을 위반한 사람들을 ‘감염병의 예방 및 관리에 관한 법률’에 따라 고발할 예정이라고 밝혔다.The office will also file for compensation to cover the costs of examination and treatment if a visitor confirmed to have COVID-19 is found to have violated the guidelines.제주도는 또 코로나19 확진 판정을 받은 입도객이 방역수칙을 위반한 사실이 확인될 경우 검진 및 치료비에 대한 구상권을 청구할 예정이다.In addition, visitors with a body temperature over 37.5 degrees Celsius will have to go through mandatory coronavirus testing and be isolated until test results come out, according to officials.또 체온이 37.5도 이상인 입도객들은 의무적인 코로나19 검사를 받아야 하며 검사 결과가 나올 때까지 격리된다고 관계자들은 전했다.코리아타임스 홍지민“시사와 영어를 한 번에” Korea Times Weeklym.koreatimes.co.kr/weekly.htm 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 댓글 쓰기 세상을 보는 균형, 한국일보Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을만한 이슈 라이프 많이 본 뉴스 라이브 이슈 댓글0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인하면 다양한 편의 기능을 제공 받을 수 있습니다. 읽던 기사 이어보기 댓글 반응 및 추천기사 제공 연재 기사 정기 구독 기능 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 자동 로그인 회원가입 아이디 찾기 비밀번호 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 자동 로그인 공공장소에서 사용하는 컴퓨터에서는 자동 로그인 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 제 1 조 (목적) 이 이용약관 (이하 ‘약관’이라 합니다)은 ㈜한국일보사 (이하 ‘회사’라 합니다)가 제공하는 한국일보닷컴(hankookilbo.com) 관련 제반 서비스의 이용과 관련하여 회사와 회원 간 권리와 의무 및 책임, 기타 필요한 사항을 규정함을 목적으로 합니다. 제 2 조 (용어의 정의) 1. 이 약관에서 사용하는 용어의 정의는 다음과 같습니다. ① ‘회원’ 이라 함은 이 약관에 동의하고 이용자 아이디(ID)와 비밀번호를 부여 받아 이 회사가 제공하는 서비스를 이용하는 이용자를 말합니다. ② ‘이용계약’ 이라 함은 이 약관을 포함하여 서비스 이용과 관련하여 회사와 회원간에 체결하는 모든 계약을 말합니다. ③ ‘가입’ 이라 함은 회원이 되고자 하는 이용자가 이 약관에 동의하고 회사의 서비스 신청 양식에 필요 정보를 기입하고, 서비스 이용 계약을 신청, 회사의 승인을 얻는 것을 말합니다. ④ ‘탈퇴’라 함은 회원이 이용계약을 해약하는 것을 말합니다. ⑤ ‘이용자 아이디(ID)’라 함은 회원의 식별 및 서비스 이용을 위하여 회원이 정하고 회사가 승인한 문자와 숫자의 조합을 말합니다. ⑥ ‘비밀번호’라 함은 이용자 아이디(ID)로 식별되는 회원의 본인 여부를 검증하기 위하여 회원 자신이 정하여 등록한 문자와 숫자의 조합을 말합니다. ⑦ ‘단말기’라 함은 서비스에 접속하기 위해 회원이 이용하는 개인용 컴퓨터, PDA, 휴대전화, IPTV 등의 전산장치를 말합니다. ⑧ ‘게시물’ 이라 함은 회원이 서비스 이용을 하면서 게시한 글, 사진, 동영상 및 각종 파일과 링크 등을 말합니다. 2. 이 약관에서 사용하는 용어 중 제1항에서 정하지 아니한 것은 관계 법령 및 서비스별 안내에서 정하는 바에 따르며, 그 외에는 일반 관례에 따릅니다. 제 3 조 (약관의 게시 및 개정) 1. 회사는 이 약관을 회원들이 쉽게 알 수 있도록 한국일보닷컴 초기화면에 게시합니다. 2. 회사는 ‘약관의규제에관한법률’ ‘정보통신망이용촉진및정보보호등에관한법률(이하 ‘정보통신망법’) 등 관련 법을 위배하지 않는 범위 안에서 이용 약관을 개정할 수 있습니다. 3. 회사가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 제1항의 방식에 따라 개정약관의 적용일자 30일 전부터 적용일자 전일까지 공지합니다. 다만 회원에게 불리한 개정의 경우에는 공지 외에도 전자우편, 전자쪽지, 로그인 시 동의 창 등 전자적 수단을 통해 따로 통지합니다. 4. 회원이 약관 개정에 동의하지 않을 경우 당 회원과 이용계약을 해지할 수 있습니다. 5. 회원이 개정된 약관의 효력이 발생한지 15일 후에도 거부 의사를 표명하지 않은 채 계속 서비스를 이용할 경우 개정된 약관에 동의한 것으로 간주합니다. 제 4 조 (약관 외 준칙) 1. 회사는 필요한 경우 서비스별로 개별약관 또는 운영원칙을 둘 수 있으며, 이 약관과 운영원칙의 내용이 상충되는 경우에는 서비스별 개별약관과 운영원칙을 우선하여 적용합니다. 2. 이 약관에 명시되어 있지 않은 사항은 관련 법령 또는 상관례에 따릅니다. 제 5 조 (이용계약의 성립) 1. 이용계약은 회원이 되고자 하는 자(이하 ‘가입신청자)가 약관 내용에 ‘동의’를 한 후 회원가입 신청을 하고 회사가 이러한 신청을 승낙함으로써 체결됩니다. 2. 회사는 가입신청자의 신청에 대해 서비스 이용을 승낙함을 원칙으로 합니다. 다만 회사는 다음 각 호에 해당하는 신청에 대하여는 승낙을 하지 않거나 사후에 이용계약을 해지할 수 있습니다. ① 가입신청자가 이 약관에 의하여 이전에 회원자격을 상실한 적이 있는 경우. 다만 ‘회사’의 재가입 승낙을 얻은 경우는 예외로 함 ② 타인의 명의, 이메일 주소, 휴대전화 번호 등 개인정보를 도용하여 가입한 경우 ③ 허위 정보를 기재하거나 회사가 필수적으로 요구하는 사항을 기재하지 않은 경우 ④ 이용자 귀책사유로 인하여 승인이 불가능하거나 기타 규정한 제반 사항을 위반하며 신청하는 경우 ⑤ 관계법령에 위배되거나 사회의 안녕질서 혹은 미풍양속을 저해할 수 있는 목적으로 신청한 경우 ⑥ 영리목적 기타 부정한 용도로 본 서비스를 이용하고자 하는 경우 3. 회사는 제2항에 따라 회원가입신청의 승낙을 하지 않거나 유보한 경우 이를 가입신청자에게 알려야 합니다. 4. 회사는 서비스 이용신청이 다음 각 호에 해당하는 경우에는 그 신청에 대하여 승낙 제한사유가 해소될 때까지 승낙을 유보할 수 있습니다. ① 회사의 서비스 관련 설비의 여유가 없는 경우 ② 회사의 기술상 또는 업무상 문제가 있는 경우 ③ 기타 이용승낙이 곤란한 경우 5. 회사는 이용신청 고객이 관계법령에서 규정하는 미성년자일 경우에 서비스별 안내에서 정하는 바에 따라 승낙을 보류할 수 있습니다. 6. 회사는 회원을 대상으로 서비스별, 이용시간, 이용횟수 등을 통해 등급을 구분하여 이용에 차등을 둘 수 있습니다. 제 6 조 (개인정보 보호 의무 및 사용) 1. 회사는 ‘정보통신망법’ 등 관계 법령이 정하는 바에 따라 회원의 개인정보를 보호하기 위해 최선을 다합니다. 개인정보의 보호와 사용에 대해서는 관련 법령 및 회사의 개인정보취급방침이 적용됩니다. 다만 회사의 공식사이트 이외의 링크된 사이트에서는 회사의 개인정보취급방침이 적용되지 않습니다. 2. 회원은 이용자 아이디(ID) 및 비밀번호 등 개인정보가 타인에게 노출되지 않도록 철저히 관리해야 하며, 회사는 회원의 귀책사유로 인해 노출된 정보에 대해서는 책임을 지지 않습니다. 3. 회원은 아이디 및 비밀번호가 도용되거나 제3자가 사용하고 있음을 인지한 경우 이를 즉시 회사에 통지하고 회사의 안내에 따라야 합니다. 4. 회사는 다음과 같은 경우에 법이 허용하는 범위 내에서 회원의 개인정보를 제3자에게 제공할 수 있습니다. ① 수사기관이나 기타 정부기관으로부터 적법한 절차에 따라 정보제공을 요청 받은 경우 ② 회원의 법령 또는 약관의 위반을 포함하여 부정행위 확인 등의 정보보호 업무를 위해 필요한 경우 ③ 기타 법률에 의해 요구되는 경우 5. 회사는 회원에게 보다 다양한 정보 서비스 및 관련 혜택을 제공할 목적으로 회원의 정보를 이용할 수 있습니다. 또한, 회사는 회원정보를 제휴사에게 제공할 경우 제휴사, 목적, 이용될 회원정보 내용 등을 사전에 공지하고 회원 동의를 받아야 합니다. 6. 회사가 타사와 합병, 분할 시 회원의 정보는 공유될 수 있습니다. 7. 회사는 서비스 제공시 회원의 단말기로 쿠키를 전송할 수 있습니다. 이 경우 회원은 사용하는 단말기의 브라우저가 쿠키의 수신을 거부하거나 쿠키의 수신에 대하여 경고하도록 설정을 변경할 수 있습니다. 8. 회원이 이용신청서에 회원정보를 기재하고 본 약관에 동의 이용신청을 하는 것은 기재된 회원정보를 수집, 이용 및 제공하는 것에 동의하는 것으로 간주합니다. 9. 회사는 관련 법령과 이용 약관, 개인정보보호방침이 정하는 한계 내에서 회원 전체 또는 일부 정보를 업무와 관련된 통계자료로 사용할 수 있습니다. 제 7 조 (회사의 의무) 1. 회사는 관련법과 이 약관이 금지하거나 미풍양속에 반하는 행위를 하지 않으며, 계속적이고 안정적으로 서비스를 제공하기 위하여 최선을 다하여 노력합니다. 2. 회사는 회원이 안전하게 서비스를 이용할 수 있도록 개인정보 보호를 위해 보안시스템을 갖추어야 하며 개인정보취급방침을 공시하고 준수합니다. 3. 회사는 서비스 이용과 관련하여 발생하는 이용자의 불만 또는 피해 구제 요청을 적절하게 처리할 수 있도록 필요한 인력 및 시스템을 구비합니다. 4. 회사는 서비스 이용과 관련하여 회원으로부터 제기된 의견이나 불만이 정당하다고 인정할 경우에는 이를 처리하여야 합니다. 제 8 조 (회원의 의무) 1. 회원은 다음 행위를 하여서는 안 됩니다. ① 신청 또는 변경 시 허위 내용의 등록 ② 타인의 정보 도용 ③ 회사가 게시한 정보의 변경 ④ 회사가 정한 정보 이외의 정보(컴퓨터 프로그램 등)를 송신 또는 게시 ⑤ 회사와 기타 제 3자의 저작권 등 지적재산권에 대한 침해 ⑥ 회사 및 기타 제3자의 명예를 손상시키거나 업무를 방해하는 행위 ⑦ 외설 또는 폭력적인 메시지, 화상, 음성 등의 정보를 서비스에 공개 또는 게시하는 행위 ⑧ 회사의 동의 없이 영리를 목적으로 서비스를 사용하는 행위 ⑨ 기타 불법적이거나 부당한 행위 2. 회원은 관계 법령과 이 약관의 규정, 회사가 통지하는 사항 등을 준수하여야 하며, 기타 회사의 업무에 방해되는 행위를 해서는 안 됩니다. 3. 회원은 이용 신청시 기재한 주소, 연락처, 전자우편주소 등 개인정보와 이용계약 사항의 변경이 있을 경우 즉시 수정하여야 하며, 미변경으로 인해 발생하는 문제에 대해서 회사는 책임지지 않습니다. 4. 회원은 회사의 명시적 동의가 없는 한 서비스를 이용한 영업활동을 할 수 없으며, 그 영업활동의 결과에 대해 회사는 책임을 지지 않습니다. 또한 회원은 이와 같이 영업활동으로 회사가 손해를 입은 경우 회원은 회사에 대해 손해배상 의무를 지며, 회사는 해당 회원에 대해 서비스 이용제한 및 적절한 절차를 거쳐 손해배상 등을 청구할 수 있습니다. 제 9 조 (이용자 아이디 부여 및 변경) 1. 회사는 회원에 대하여 약관에 정하는 바에 따라 이용자 아이디(ID)를 부여합니다. 2. 이용자 아이디(ID)는 원칙적으로 변경이 불가하며 부득이한 사유로 인하여 변경하고자 하는 경우에는 해당 아이디(ID)를 해지하고 재가입 해야 합니다. 3. 이용자 아이디(ID)는 회원 본인의 동의 하에 회사 또는 자회사, 제휴사에서 운영하는 사이트의 회원 아이디(ID)와 연결될 수 있습니다. 4. 이용자 아이디(ID)는 다음 각호에 해당하는 경우에는 회원의 요청 또는 회사의 직권으로 변경 또는 이용을 정지할 수 있습니다. ① 이용자 아이디(ID)가 전화번호 또는 주민등록번호로 등록되어 사생활 침해가 우려되는 경우 ② 타인에게 혐오감을 주거나 미풍양속에 어긋나는 경우 ③ 회사, 회사의 서비스 또는 서비스 운영자 등의 명칭과 동일하거나 오인 등의 우려가 있는 경우 ④ 기타 합리적인 사유가 있는 경우 5. 이용자 아이디(ID) 및 비밀번호 관리책임은 회원에게 있습니다. 이를 소홀히 관리하여 발생하는 서비스 이용상의 손해 또는 제3자에 의한 부정이용 등에 대한 책임은 회원에게 있으며 회사는 그에 대한 책임을 지지 않습니다. 6. 이용자 아이디(ID) 및 비밀번호를 도난 당하거나 제3자가 사용하고 있음을 인지한 경우에는 바로 회사에 통보하고 안내에 있는 경우에는 그에 따라야 하며, 이러한 통지를 하지 아니하거나 회사의 조치에 응하지 아니하여 발생한 모든 불이익에 대한 책임은 회원에게 있습니다. 7. 기타회원 개인정보 관리 및 변경 등에 관한 사항은 서비스별 안내에 정하는 바에 의합니다. 제 10 조 (서비스 이용) 1. 서비스는 회사의 업무상 또는 기술상 특별한 지장이 없는 한 연중무휴, 1일 24시간 운영을 원칙으로 합니다. 단 천재지변 및 비상사태를 비롯한 부득이한 상황이 발생한 경우에는 서비스를 일시 중단할 수 있습니다. 2. 회사는 컴퓨터 등 정보통신설비의 보수점검, 교체 및 고장, 통신두절 또는 운영상 상당한 이유가 있는 경우 서비스의 제공을 일시적으로 중단할 수 있습니다. 이 경우 회사는 회원들에 사이트를 통해 사전 공지합니다. 다만 긴급한 시스템 점검, 증설 및 교체, 설비의 장애, 서비스 이용자 폭주, 국가비상사태, 정전 등 부득이한 사유가 발생한 경우에는 사전 예고 없이 일시적으로 서비스의 전부 또는 일부를 중단할 수 있습니다. 3. 회사는 서비스 개편 등 서비스 운영 상 필요한 경우 회원에게 사전 예고 후 서비스의 전부 또는 일부의 제공을 중단할 수 있습니다. 제 11 조 (회원 게시물의 관리) 1. 회원의 게시물이 정보통신망법 및 저작권법 등 관련법에 위반되는 내용을 포함하는 경우, 회사는 관련법이 정한 절차에 따라 해당 게시물의 게시중단 및 삭제 등을 요청할 수 있습니다. 2. 회원이 서비스에 등록하는 게시물 등으로 인하여 본인 또는 타인에게 손해나 기타 문제가 발생하는 경우 전적으로 회원은 이에 대한 책임을 지며, 회사의 고의가 아닌 한 회사는 이에 대하여 책임을 지지 않습니다. 3. 회사는 다음 각호에 해당하는 게시물 등을 회원의 사전 동의 없이 임시게시 중단, 수정, 삭제, 이동 또는 등록거부 등 관련조치를 취할 수 있습니다. ① 다른 회원 또는 제3자에게 욕설 및 비방, 인신공격으로 불쾌감 및 모욕을 주거나 명예를 훼손하는 내용인 경우 ② 다른 회원 또는 제3자의 저작권을 침해하거나 불법정보 유출과 관련된 글을 올리는 경우 ③ 다른 회원 또는 제3자의 사생활 침해 및 개인정보를 유출하는 경우 ④ 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 ⑤ 불법복제 또는 해킹을 조장하는 내용인 경우 ⑥ 영리를 목적으로 하는 광고 또는 사이트를 홍보하는 내용인 경우 ⑦ 범죄와 결부된다고 객관적으로 인정되는 내용인 경우 ⑧ 사적인 판단이나 지역감정 조성, 종교적 견해의 내용으로 회사가 서비스 성격에 부합하지 않는다고 판단하는 경우 ⑨ 회사에서 규정한 게시물 운영원칙에 어긋나거나 게시판 성격에 부합하지 않는 경우 ⑩ 기타 관계법령에 위배된다고 판단되는 경우 3. 회사는 광고성 게시물 차단 및 안정된 게시물 운영을 위해 일부 서비스에 대해 게시물 이용시간을 제한할 수 있습니다. 다만 이런 경우 이용시간을 해당 서비스에서 공지합니다. 4. 회사는 일부 서비스에 대해서 회원이 등록하는 게시물에 대해 사전 심의 후 게시 여부를 결정할 수 있습니다. 제 12 조 (게시물의 저작권) 1. 회원이 등록한 게시물에 대한 저작권은 해당 저작권자에게 귀속됩니다. 2. 회사가 작성한 게시물 또는 저작물에 대한 저작권, 기타 지적재산권은 회사에 귀속되므로 회원이 서비스를 이용하면서 얻은 저작물은 회사의 사전 승낙 없이 복제, 송신, 출판, 전송, 배포, 방송, 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 해서는 안됩니다. 3. 회사는 서비스의 운영, 전시, 전송, 배포, 홍보의 목적으로 회원의 별도의 허락 없이 무상으로 저작권법에 규정하는 공정한 관행에 맞게 합리적인 범위 내에서 다음과 같이 회원이 등록한 게시물을 사용할 수 있습니다. ① 서비스 내에서 회원 게시물의 복제, 수정, 개조, 전시, 전송, 배포 및 원저작물을 해치지 않는 범위 내에서의 편집 저작물 작성하는 경우 ② 서비스 제휴 파트너에게 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 ③ 휴대폰, PDA, IPTV 등 단말기에서 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 4. 회사는 전항 이외의 방법으로 회원의 게시물을 이용하고자 하는 경우 전화, 팩스, 전자우편 등의 방법을 통해 사전에 회원의 동의를 얻어야 합니다. 5. 게시물에 대해 제3자로부터 저작권 및 기타 권리의 침해 또는 명예훼손, 음란성 등의 이유로 이의가 제기된 경우 회사는 당해 게시물을 임시 삭제할 수 있습니다. 이 경우 회사는 이의를 제기한 자와 게시물 등록자 간의 법적 문제가 종결된 후, 게시 요청이 있는 경우에는 삭제된 게시물을 재등록 할 수 있습니다. 제 13 조 (정보의 제공) 1. 회사는 회원의 서비스 이용에 필요하다고 인정되는 다양한 정보를 공지사항이나 전자우편, SMS, SNS 등의 방법으로 회원에게 제공할 수 있습니다. 다만 회원은 관련법에 따른 거래관련 정보 및 고객문의 등에 대한 답변 등을 제외하고는 언제든지 전자우편에 대해서 수신 거절을 할 수 있습니다 2. 회사는 서비스 개선 및 회원 대상의 서비스 제공 등을 목적으로 회원의 동의 하에 관련 법령에 따라 추가적인 개인정보를 수집할 수 있습니다. 제 14 조 (광고 게재) 1. 회사가 회원에게 서비스를 제공하기 위한 수익기반의 일부인 광고게재 및 판촉활동에 대해서 회원은 서비스 이용 시 제공되는 광고에 대해 동의합니다. 2. 회사는 회원 가입 시 광고메일 발송에 동의한 한 회원에 한해서 회사의 판단에 따라 이메일 광고를 회원의 이메일 주소로 발송, 제공합니다. 3. 회사는 서비스상에 게재되어 있거나 서비스를 통한 광고주의 판촉활동에 회원이 참여하거나 교신 또는 거래를 함으로써 발생하는 일체의 손실과 손해에 대해 책임을 지지 않습니다. 제 15 조 (계약 해지) 1. 회원이 이용계약을 해지하고자 할 경우에는 회원 본인이 회사에서 제공한 서비스 내 영역을 통해 가입 해지를 해야 합니다. 회사는 관련법 등이 정하는 바에 따라 이를 즉시 처리해야 합니다. 2. 회원이 이용계약을 해지할 경우, 회사가 회원정보를 보유하는 경우를 제외하고는 관련법 및 개인정보취급방침에 따라 해지 즉시 회원의 모든 데이터는 소멸됩니다. 3. 회원이 이용계약 해지를 한 경우 본인 계정에 등록된 게시물 일체는 삭제됩니다. 다만 제3자에 의한 스크랩, 담기 등으로 재게시되거나, 복제된 게시물과 타인의 게시물과 결합되어 제공되는 게시물 등은 그러하지 않습니다. 제 16 조 (서비스 이용제한) 1. 회사는 회원이 이 약관의 의무를 위반하거나 서비스의 정상적인 운영을 방해한 경우, 이용을 단계적으로 제한할 수 있습니다. 2. 회사는 주민등록법을 위반한 명의도용 및 결제도용, 저작권법 및 컴퓨터프로그램보호법을 위반한 불법프로그램의 제공 및 운영방해, 정보통신망법을 위반한 불법통신 및 해킹, 악성프로그램의 배포, 접속권한 초과행위 등과 같이 관련법령을 위반한 경우에는 즉시 영구이용정지를 할 수 있습니다. 3. 회사는 본 조의 제한의 조건 및 세부내용은 이용제한정책 및 개별 서비스상의 운영정책에서 정하는 바에 의합니다. 제 18 조 (손해배상) 1. 회사와 이용자는 서비스 이용과 관련하여 고의 또는 과실로 상대방에게 손해를 끼친 경우에는 이를 배상해야 합니다. 2. 단, 회사는 무료로 제공하는 서비스의 이용과 관련하여 개인정보취급방침에서 정하는 내용에 위반하지 않는 한 어떠한 손해도 책임지지 않습니다. 제 19 조 (책임제한) 1. 회사는 천재지변 또는 이에 준하는 불가항력 기타 이 약관에서 정한 정당한 사유로 인하여 서비스를 제공할 수 없게 된 경우에는 서비스 제공에 관한 책임이 면제됩니다. 2. 회사는 회원의 귀책사유로 인한 서비스 이용의 장애 또는 손해에 대해서는 책임을 지지 않습니다. 3. 회사는 회원간 또는 회원과 제3자 상호간에 서비스를 매개로 하여 거래 등을 한 경우에는 책임이 면제됩니다. 4. 회사는 제공하는 서비스에 포함된 모든 정보, 소프트웨어, 제품 등에 부정확함과 인쇄상의 오류로 인해 발생하는 정보의 부정확성에 대해서는 책임을 지지 않습니다. 5. 회사는 회원의 게시물을 등록 전에 상시적으로 사전심사 하거나 게시물의 내용을 확인 또는 검토할 의무가 없으므로 그 결과에 대한 책임은 지지 않습니다. 6. 회사에서 회원에게 무료로 제공하는 서비스의 이용과 관련해서는 어떠한 손해도 책임을 지지 않습니다. 제 20 조 (통지) 1. 회사는 회원에 대하여 통지를 하는 경우 회원이 회사에 등록한 전자우편 주소로 할 수 있습니다. 2. 회사는 불특정다수 회원에게 통지를 해야 할 경우 회사 게시판을 통해 7일 이상 게시함으로써 개별통지에 갈음할 수 있습니다. 제 21 조 (준거법 및 재판관할) 1. 이 약관에 명시되지 않은 사항은 대한민국 관계법령과 상관습에 따릅니다. 2. 서비스 이용으로 인한 분쟁에 대해 소송이 제기될 경우 회사의 본사 소재지를 관할하는 법원을 관할법원으로 합니다. [부칙] 1. 이 약관은 2014년 5월 7일부터 시행합니다. 개인정보처리 방침 (필수) 한국일보닷컴(이하 ‘회사’)은 정보통신망 이용촉진 및 정보보호 등에 관한 법률, 개인정보보호법, 통신비밀보호법, 전기통신사업법, 등 정보통신서비스제공자가 준수하여야 할 관련 법령상의 개인정보보호 규정 및 방송통신위원회가 제정한 「개인정보보호지침」을 준수하고 있으며, 관련 법령에 의거한 개인정보취급방침을 정하여 이용자 권익 보호에 최선을 다하고 있습니다. 회사는 회원님들의 개인정보가 남용되거나 유출되지 않도록 최선을 다할 것이며, 이에 다음과 같이 회사의 개인정보 보호를 위한 방침에 대하여 알려드리고자 합니다. 단, 본 개인정보취급방침은 정부의 법령 및 지침의 변경, 또는 보다 나은 서비스의 제공을 위하여 그 내용이 변경될 수 있으니, 회원님들께서는 사이트 방문시 수시로 그 내용을 확인하여 주시기 바랍니다. 본 개인정보취급방침은 회사가 제공하는 서비스 (모바일 웹 포함) 이용에 적용되며 다음과 같은 내용을 담고 있습니다. 1. 수집하는 개인정보의 항목 및 수집방법 회사는 회원가입, 원활한 고객 상담, 각종 서비스의 제공을 위해 최초 회원가입 당시 아래와 같은 최소한의 개인정보를 필수항목으로 수집하고 있습니다. 가. 수집하는 개인정보의 항목 필수항목 : 이름, 생년월일, 아이디, 비밀번호, 메일주소, 휴대폰 번호, 주소, 가입인 증정보(참고로, 아동 관련 서비스를 제공할 때까지 만14세 미만 아동 회원은 가입을 불허합니다) 다만, 서비스 이용과정이나 사업처리 과정에서 IP Address, 쿠키, 방문 일시, 서비스 이용 기록, 불량 이용 기록, 결제기록 등이 자동으로 생성 되어 수집될 수 있습니다. 선택항목: 기존 아이디를 이용한 부가 서비스 및 맞춤식 서비스 이용 또는 이벤트 응모 과정에서 해당 서비스의 이용자에 한해서만 주민등록번호, 주소, 전 화번호, 직업 등의 정보들이 수집될 수 있습니다. 나. 개인정보 수집방법 회사는 다음과 같은 방법으로 개인정보를 수집합니다. - 홈페이지, 서면양식, 팩스, 전화, 상담 게시판, 이메일, 이벤트 응모, 배송요청 2. 개인정보의 수집 및 이용목적 회사는 수집한 개인정보를 다음의 목적을 위해 활용합니다. 가. 서비스 제공 서비스 제공에 관한 계약 이행 및 서비스 제공에 따른 요금정산, 컨텐츠 제공, 특정 맞춤 서비스 제공, 물품배송 또는 청구서 등 발송, 본인인증, 구매 및 요금 결제, 요금추심 나. 회원관리 회원제 서비스 이용에 따른 본인확인, 개인식별, 한국일보닷컴 이용약관 위반 회원에 대한 이용제한 조치, 서비스의 원활한 운영에 지장을 미치는 행위 및 서비스 부정이용 행위 제재, 가입의사 확인, 가입 및 가입횟수 제한, 추후 아동 관련 서비스제공으로 인한 만14세 미만 아동 개인정보 수집 시 법정 대리인 동의여부 확인, 추후 법정 대리인 본인확인, 분쟁 조정을 위한 기록보존, 불만처리 등 민원처리, 고지사항 전달, 회원탈퇴 의사의 확인 다. 신규 서비스 개발 및 마케팅·광고에의 활용 신규 서비스 개발 및 맞춤 서비스 제공, 통계학적 특성에 따른 서비스 제공 및 광고 게재, 서비스의 유효성 확인, 이벤트 정보 및 참여기회 제공, 광고성 정보 제공, 접속빈도 파악, 회원의 서비스이용에 대한 통계 3. 개인정보의 공유 및 제공 회사는 이용자들의 개인정보를 "2. 개인정보의 수집목적 및 이용목적"에서 고지한 범위내에서 사용하며, 이용자의 사전 동의 없이는 동 범위를 초과하여 이용하거나 원칙적으로 이용자의 개인정보를 외부에 공개하지 않습니다. 다만, 아래의 경우에는 예외로 합니다. - 이용자가 사전에 동의한 경우 - 법령의 규정에 의거하거나, 수사 목적으로 법령에 정해진 절차와 방법에 따라 수사기관의 요구가 있는 경우 4. 개인정보의 보유 및 이용기간 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 단, 다음의 정보에 대해서는 아래의 이유로 명시한 기간 동안 보존합니다. 가. 회사 내부 방침에 의한 정보보유 사유 - 부정이용기록(부정가입, 징계기록 등의 비정상적 서비스 이용기록) 보존 이유 : 부정 이용 방지 보존 기간 : 15일 나. 관련법령에 의한 정보보유 사유 상법, 전자상거래 등에서의 소비자보호에 관한 법률 등 관계법령의 규정에 의하여 보존할 필요가 있는 경우 회사는 관계법령에서 정한 일정한 기간 동안 회원정보를 보관합니다. 이 경우 회사는 보관하는 정보를 그 보관의 목적으로만 이용하며 보존기간은 아래와 같습니다. - 표시, 광고에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 6개월 - 계약 또는 청약철회 등에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 5년 - 대금결제 및 재화 등의 공급에 관한 기록 보존 이유 : 전자상거래 등에서의 소비자보호에 관한 법률 보존 기간 : 5년 - 소비자의 불만 또는 분쟁처리에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 3년 - 웹사이트 방문기록 보존이유 : 통신비밀보호법 보존기간 : 3개월 5. 개인정보 파기절차 및 방법 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 회사의 개인정보 파기절차 및 방법은 다음과 같습니다. 가. 파기절차 - 이용자가 회원가입 등을 위해 입력한 정보는 목적이 달성된 후 별도의 DB로 옮겨져(종이의 경우 별도의 서류함) 내부 방침 및 기타 관련 법령에 의한 정보보호 사유에 따라(보유 및 이용기간 참조)일정 기간 저장된 후 파기됩니다. - 동 개인정보는 법률에 의한 경우가 아니고서는 보유되는 이외의 다른 목적으로 이용되지 않습니다. 나. 파기방법 - 종이에 출력된 개인정보는 분쇄기로 분쇄하거나 소각을 통하여 파기합니다. - 전자적 파일 형태로 저장된 개인정보는 기록을 재생할 수 없는 기술적 방법을 사용하여 삭제합니다. 6. 이용자 및 법정대리인의 권리와 그 행사방법 - 이용자는 언제든지 등록되어 있는 자신의 개인정보를 조회하거나 수정할 수 있으며, 회사의 개인정보의 처리에 동의하지 않는 경우 동의를 거부하거나 가입해지(회원탈퇴)를 요청하실 수 있습니다. 다만, 그러한 경우 서비스의 일부 또는 전부 이용이 어려울 수 있습니다. - 이용자의 개인정보 조회, 수정을 위해서는 '개인정보변경'(또는 '회원정보수정' 등)을, 가입해지(동의철회)를 위해서는 "회원탈퇴"를 클릭하여 본인 확인 절차를 거치신 후 직접 열람, 정정 또는 탈퇴가 가능합니다. - 혹은 개인정보관리책임자에게 서면, 전화 또는 이메일로 연락하시면 지체 없이 조치하겠습니다. - 이용자가 개인정보의 오류에 대한 정정을 요청하신 경우에는 정정을 완료하기 전까지 당해 개인정보를 이용 또는 제공하지 않습니다. 또한 잘못된 개인정보를 제3 자에게 이미 제공한 경우에는 정정 처리결과를 제3자에게 지체 없이 통지하여 정정이 이루어지도록 하겠습니다. - 회사는 이용자 혹은 법정 대리인의 요청에 의해 해지 또는 삭제된 개인정보는 "5. 개인정보의 보유 및 이용기간"에 명시된 바에 따라 처리하고 그 외의 용도로 열람 또는 이용할 수 없도록 처리하고 있습니다. 7. 개인정보 자동 수집 장치의 설치/운영 및 거부에 관한 사항 - 회사는 개인화되고 맞춤화된 서비스를 제공하기 위해서 이용자의 정보를 저장하고 수시로 불러오는 '쿠키(cookie)'를 사용합니다. - 쿠키는 웹사이트를 운영하는데 이용되는 서버가 이용자의 브라우저에게 보내는 아주 작은 텍스트 파일로 이용자 컴퓨터의 하드디스크에 저장됩니다. 이후 이용자가 웹 사이트에 방문할 경우 웹 사이트 서버는 이용자의 하드 디스크에 저장되어 있는 쿠키의 내용을 읽어 이용자의 환경설정을 유지하고 맞춤화된 서비스를 제공하기 위해 이용됩니다. - 쿠키는 개인을 식별하는 정보를 자동적/능동적으로 수집하지 않으며, 이용자는 언제든지 이러한 쿠키의 저장을 거부하거나 삭제할 수 있습니다. 가. 쿠키 사용 목적 회원과 비회원의 접속 빈도나 방문 시간 등을 분석, 이용자의 취향과 관심분야를 파악 및 자취 추적, 각종 이벤트 참여 정도 및 방문 회수 파악 등을 통한 타킷 마케팅 및 맞춤형 정보를 제공하기 위해 사용합니다. 다. 쿠키의 설치·운영 및 거부 - 이용자는 쿠키 설치에 대한 선택권을 가지고 있습니다. 따라서 이용자는 웹브라우저에서 옵션을 설정함으로써 모든 쿠키를 허용하거나, 쿠키가 저장될 때마다 확인을 거치거나, 아니면 모든 쿠키의 저장을 거부할 수도 있습니다. - 다만, 쿠키의 저장을 거부할 경우에는 로그인이 필요한 일부 서비스는 이용에 어려움이 있을 수 있습니다. - 쿠키 설치 허용 여부를 지정하는 방법(Internet Explorer의 경우)은 다음과 같습니다. ① [도구] 메뉴에서 [인터넷 옵션]을 선택합니다. ② [개인정보 탭]을 클릭합니다. ③ [개인정보취급 수준]을 설정하시면 됩니다. 8. 개인정보의 기술적·관리적 보호 대책 회사는 이용자들의 개인정보를 취급함에 있어 개인정보가 분실, 도난, 누출, 변조 또는 훼손되지 않도록 안전성 확보를 위하여 다음과 같은 기술적·관리적 대책을 강구하고 있습니다. 가. 비밀번호 암호화 회원 아이디(ID)의 비밀번호는 암호화되어 저장 및 관리되고 있어 본인만이 알고 있으며, 개인정보의 확인 및 변경도 비밀번호를 알고 있는 본인에 의해서만 가능합니다. 나. 해킹 등에 대비한 대책 회사는 해킹이나 컴퓨터 바이러스 등에 의해 이용자의 개인정보가 유출되거나 훼손되는 것을 막기 위해 외부로부터 접근이 통제된 구역에 시스템을 설치하고, 침입 차단장치 이용 및 침입탐지시스템을 설치하여 감시하고 있습니다. 그리고 백신 프로그램을 주기적으로 업데이트하며 갑작스런 바이러스가 출현할 경우 백신이 나오는 즉시 이를 적용함으로써 개인정보가 침해 방지를 위해 노력하고 있습니다. 다. 개인정보처리시스템 접근 제한 회사는 개인정보를 처리할 수 있도록 체계적으로 구성한 데이터베이스시스템에 대한 접근권한의 부여, 변경, 말소 등에 관한 기준을 수립하고 비밀번호의 생성 방법, 변경 주기 등을 규정 운영하며 기타 개인정보에 대한 접근통제를 위해 필요한 조치를 다하고 있습니다. 라. 개인정보 취급 직원의 교육 개인정보관련 취급 직원은 담당자에 한정시켜 최소화 하고 새로운 보안기술의 습득 및 개인정보보호 의무에 관해 정기적인 교육을 실시하며 별도의 비밀번호를 부여하여 접근 권한을 관리하는 등 관리적 대책을 시행하고 있습니다. 9. 개인정보관리책임자 및 담당자의 연락처 회사는 개인정보를 보호하고 개인정보와 관련한 불만을 처리하기 위하여 아래와 같이 개인정보관리책임자를 지정하고 있습니다. 이용자는 서비스를 이용하면서 발생하는 모든 개인정보보호 관련 민원을 개인정보관리책임자로 신고하실 수 있습니다. 회사는 이용자들의 신고사항에 대해 신속하게 충분한 답변을 드릴 것입니다. 개인정보 관리책임자 성명: 정진황 국장 소속: 디지털콘텐츠국 전화: 02-724-2427 이메일: jhchung@hankookilbo.com 개인정보 관리담당자 성명: 안경모 부장 소속: 디지털미디어부 전화: 02-724-2293 이메일: zuckbox@hankookilbo.com 기타 개인정보침해에 대한 신고나 상담이 필요하신 경우에는 아래 기관에 문의하시기 바랍니다. - 개인정보침해신고센터 ( www.118.or.kr / 국번없이 118) - 대검찰청 사이버범죄수사단 ( www.spo.go.kr / 02-3480-3571) - 경찰청 사이버테러대응센터 ( www.ctrc.go.kr / 국번없이 182) 10. 고지의 의무 현 개인정보취급방침 내용 추가, 삭제 및 수정이 있을 시에는 개정 최소 7일전부터 홈페이지의 공지사항을 통해 고지할 것입니다. - 공고일자 : 2014년 5월 8일 - 시행일자 : 2014년 5월 15일 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 뉴스레터 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 다음 약관 동의 필수 이용약관에 동의 하셔야 합니다. 확인 약관 동의 필수 개인정보처리 방침에 동의 하셔야 합니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를 사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 제주도, 추석 연휴에 몰려들 관광객으로 ‘비상’ 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요.(최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인</t>
+  </si>
+  <si>
+    <t>국민의힘 제주도당, 관광협회와 현안 간담회 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 국민의힘 제주도당, 관광협회와 현안 간담회 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 국민의힘 제주도당, 관광협회와 현안 간담회 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.09.21 17:46 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 국민의힘 제주도당 장성철 위원장은 21일 오후 3시 제주도관광협회(회장 부동석)를 방문해 코로나19 관광산업의 위기 극복 대책에 대한 의견을 청취했다. 부동석 회장은 "코로나19 위기에 따른 위기 극복 대책 마련에 제주도내 정치권의 관심과 지원이 절실하다. 국민의힘 제주도당이 적극적으로 앞장서달라"고 요청했다. 장 위원장은 "단체 관광객 급감으로 전세버스업체와 여행사들의 어려운 실정을 구체적으로 알 수 있는 기회였다"며 "제주지역 기간산업인 관광산업의 위기 극복에 혼신의 노력을 기울이겠다"고 답했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회ㆍ농어민단체 비대면 마켓팅 두손 잡는다 &lt; 동정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도관광협회ㆍ농어민단체 비대면 마켓팅 두손 잡는다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 동정 제주도관광협회ㆍ농어민단체 비대면 마켓팅 두손 잡는다 기자명 오형석 기자 입력 2020.09.24 00:54 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 관광 농업 상생 업무협약...온라인 마켓 '탐나오' 입점 판매 지원 제주도관광협회ㆍ제주도농업인단체협의회의 관광 농업 상생 업무협약 [시사매거진/제주] 제주도관광협회(회장 부동석)와 제주도농업인단체협의회(회장 강수길)은 23일 관광사업체와 농업인단체 간 융·복합 연계 상품의 경쟁력 강화를 위해 ‘코로나19 조기 극복을 위한 관광·농업 상생 발전 업무협약’을 체결했다. 두 단체는 이번 협약을 통해 관광협회에서 운영하는 온라인마켓 ‘탐나오’를 활용해 제주 농산물의 온라인 판로 개척과 소비 촉진을 위해 적극 협력키로 했다. 코로나19 사태로 비대면 온라인 거래가 급증하는 추세에 따라 지역 농업인의 온라인 비즈니스 경쟁력 강화를 도모하겠다는 취지이다. 탐나오는 제주도가 지원하고 관광협회가 100% 비영리 체계로 운영하는 공적 온라인 쇼핑몰이다. 도내 관광사업체라면 참여할 수 있다. 입점·상품판매 신청·문의는 탐나오 홈페이지를 참고하면 된다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 키워드 #제주관광협회 제주농업인협의회 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주2공항은 제주도의 '천적', 관광이 바이러스다 최종편집 2022년 10월 11일 14시 52분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주2공항은 제주도의 '천적', 관광이 바이러스다 정기후원 제주2공항은 제주도의 '천적', 관광이 바이러스다 [제주도가 환경부 장관에게] '선택과 집중'을 넘어서 장정일 작가 | 기사입력 2020.09.15. 09:45:30 최종수정 2020.09.15. 18:36:59 페이스북 트위터 카카오스토리 밴드 URL복사 제주도는 한국에서 자연생태의 원형이 그나마 남아있는 드문 땅입니다. 그리고 현재 난개발에 따른 갈등의 섬, 지구온난화로 인한 위기의 섬입니다. 살아야하고 살려야한다는 절박감에 동료 시민에게 메시지를 보냅니다. 그리고 이 메시지가 환경부 장관에게 가 닿기를 간절히 바랍니다. 인류가 뭇 생명과 더불어 생존하기 위해서는 시민의 노력만이 아니라 정책과 노선의 전환이 절실하기 때문입니다. 특히 제주 제2공항 전략환경영향평가가 임박해 위기의식 가운데 연재 기획을 마련했습니다. 환경부가 동의하고 국토부가 기본계획을 고시하면 제주 제2공항 사업은 법적 지위를 갖게 됩니다. 전략환경영향평가에 대한 환경부의 판단이 나올 때까지 우리는 매일 글을 이어갈 것입니다. 제주 제2공항 사업만이 시대와 지역의 문제는 아니지만, 이 구체적인 사안을 배경으로 우리의 제주발 문제의식은 펼쳐질 것입니다. 제주도가 환경부 장관에게 연재 바로가기 67만 인구가 사는 제주도에 두 개의 국제공항이 필요한가? 나는 작년(2019년) 여름에 제주도에서 한 달 반을 살고 나서, 좋은 기후와 풍광에 반해 올해 1월에 제주로 거처를 옮겼다. 아직 주소도 옮기지 않은 처지이기에, 한편에서는 제주도의 우환이라고 하고 또 다른 한편에서는 제주도의 숙원 사업이라고 말해지는 이 현안에 발언하는 것이 주제넘어 보이기도 하다. 그러나 비록 행정상으로는 아직 제주도민이 되지 못했지만, 제주도에 오래 살고 싶은 마음만은 장소를 가진 지역민에 못지않다고 생각하기에 환경부 장관께 편지쓰기를 자청했다. 제주 제2공항 건설을 강행하려는 국토교통부는 새 공항이 필요한 중요한 이유 가운데 하나로 이용객의 증대를 든다. 애초에 국토부는 2045년에 항공수요가 4500만 명을 넘어서리라는 수요예측을 내놓은 이후로 몇 차례나 숫자를 하향 조정하기는 했지만, 여전히 4000만 명대라고 전망하고 있다. 가장 관광객이 많았던 2016년의 입도객이 1585만 명이었으니, 국토부가 산정한 수요예측은 앞으로도 관광객이 크게 늘어날 것이라고 전제하고 있는 것이다. 이미 관광지가 되어 버린 제주도를 한층 더 강화된 관광특구로 발전시키려는 이런 청사진은 국토부 혼자만의 설계로 결정되지 않는다. 대한민국의 지자체라면 어디 할 것 없이 재정 적자, 경제 부실, 실업 등이 유발하고 있는 붕괴의 위기를 겪고 있다. 중앙정부는 지자체가 당면한 문제를 떠맡지 않기 위해, 채찍과 당근을 동원해 지자체에게 지자체에 맞는 '선택과 집중'을 하라고 강하게 밀어 붙인다. 그러니까 국토부가 제주도에 관광객을 유치하기 위한 제2공항을 건설하겠다는 구상은 중앙정부의 정책적인 결정과 비호 없이는 이루어지지 않는다. 제주도의 지자체장이 중앙정부의 구상을 거부하면 좋겠지만, '선택과 집중'은 중앙정부의 채찍과 당근이 없더라도 성과 쌓기와 업적 과시에 혈안이 급급한 지자체가 지푸라기처럼 잡는 정책 가운데 하나며, 선택과 집중에는 항상 거기서 나오는 단물을 빠는 수혜자와 지지자가 따르게 마련이다. 1997년 11월, 국제통화기금(IMF) 관리하의 구제금융 시기에 출현한 '선택과 집중'이라는 단어는 마치 문제의 해결사인양, 그 동안 아무런 제지를 받지 않고 한국 사회에 군림해 왔다. 이제라도 이 용어가 품고 있는 논리를 비판적으로 점검하고, 이 용어로 정당화되어온 신자유주의 경제 논리를 물리쳐야 한다. 이를 위해 도시·지역·농촌·환경을 자신의 연구과제로 삼고 있는 일본의 사회학자 야마시타 유스케의 &lt;지방회생&gt;(이상북스,2019)을 펼쳤다. 지은이는 "원래 '선택과 집중'이란 비상사태의 논리다. 그것은 일시적이고 제한적으로만 사용되어야 하며, 정상적인 사회에서는 결코 적용되어서는 안 된다"라면서, 이 논리는 전쟁이나 자연재해가 발생했을 때, 피해를 줄이기 위해 어쩔 수 없이 희생자를 고르고 자원을 배분하는 형식이라고 말한다. "이런 것은 외적이나 자연에 대한 사회나 인간의 능력 부족 때문이다. 사회 구성원의 생사가 걸렸기 때문에 '모든 사람을 구할 수 없다'라는 식의 차가운 논리가 전체의 이익을 위해 용인된다. 모두 지키려고 하다가는 싸움에서 지기 쉽기 때문에 일부의 희생은 불가피하다. 이것이 '선택과 집중'의 근간이 되는 개념이다. 그리고 이 생존을 건 싸움이 외부의 적에서 내부로 옮겨질 때, 그것이 '경쟁과 도태'로 나타나는 것이다. 파이는 한정되어 있다. 사회구성원들끼리 승패를 겨루고, 우열을 붙이고, 생존할 것과 죽어야 할 것을 확정한다. 구성원의 수는 줄어들지만 경쟁을 통한 도태에 의해 우수한 것만 살아남기 때문에 방해되는 것도 없어지고 외적과의 투쟁도 오히려 유리하게 전개될 것이 틀림없다. '선택과 집중' 및 '경쟁과 도태'는 이렇게 비상사태의 논리로서 살아 있는 어떤 사람들의 '배제'를 수반한다." ▲제주 제2공항 예정부지ⓒ김수오 관광이 바이러스다 관광이 제주도의 유일무이하며 절대적인 '선택과 집중'이 되려면, 먼저 제주도가 그와 같은 선택과 집중을 하지 않으면 안 될 만큼 극단적인 비상사태에 빠져 있는지부터 물어야 한다. 아무리 따져 봐도 현재의 제주도가 자연재해나 전쟁과 같은 비상사태에 직면해 있다고 여길 근거는 없다. 올해 제주도를 덮친 '코로나 팬데믹'을 보면, 제주도를 '관광의 섬'으로 특화시켜온 그 동안의 노력이 오히려 제주도를 자연재해나 전쟁에 버금가는 비상사태 앞에 취약하게 만들었다고 판단된다. 그렇다면 앞으로 거부해야 할 것은 제주도를 관광이라는 잘못된 '선택과 집중' 앞으로 몰아세우는 것이 아닐까? 코비드19가 아니라, '관광'이 바이러스다. 자연재해나 전쟁과 똑같은 상황에서 이루어지는 '선택과 집중'이 불가피한 희생자를 만들어내는 것과 똑같이, 일상에서 이루어지는 그것 역시 선택과 집중으로부터 배재되는 희생자를 낳는다. 제주도에는 관광을 생계로 삼는 관광 업계 종사자만 있는 게 아니라, 농사와 어업 종사자들도 살고 있으며, 그 밖에 무수한 일상인이 살고 있다. 하지만 '선택과 집중'은 다양성과 공생을 배제한다. 국토부의 예상대로 3000만 명 이상의 관광객이 늘어난다면, 관광 업계 종사자가 아닌 제주도민의 일상은 피폐해지고, 제주도의 풍광과 생태는 파기될 것이다. 오버투어리즘(overtourism)은 요 몇 년 사이에 우리 귀에 익숙해진 시사용어다. 관광객이 수용가능한 수를 초과하여 현지 주민의 삶과 환경에 부정적인 영향을 끼치는 것을 일컫는 오버투어리즘은 다양한 지역에서 다양한 양태의 부작용을 낳고 있다. 연구자들은 오버투어리즘의 부작용을 크게 환경(쓰레기, 소음, 교통체증, 환경오염, 낙서, 생태계 훼손), 경제(높은 물가, 젠트리피케이션, 공유재 침탈), 사회문화(전통적 가치관과 규범의 붕괴, 정체성의 변화, 지역주민들 사이의 갈등과 공동체의 분해) 측면으로 나누어 분석하고 있는데, 베네치아와 바르셀로나의 경우 오버투어리즘은 지역 주민의 관광공포증(tourism-phobia)으로 발전하여 '관광객은 꺼져라!'라는 구호를 외치게 한다. 이탈리아 전 지역에 봉쇄령이 내려지면서 코비드 19가 덮치기 전에 연간 2천만 명의 관광객이 몰렸던 베네치아에 관광객이 급감하자 베네치아 운하의 물이 눈에 띄게 맑아지면서 60년 만에 물고기가 헤엄치는 모습을 볼 수 있게 되었다는 2020년 3월 18일 &lt;SBS 8시 뉴스&gt;(베네치아 관광객 급감→60년 만에 드러낸 '맑은 물')는 오버투어리즘이 지역 생태계의 천적이라고 말해준다. 유감스럽게도 연구자 가운데는 한국에서 오버투어리즘이 벌어질 가장 확실한 후보지로 제주도를 꼽는 사람도 있는데, 2020년 8월 18일 발행된 &lt;시사IN&gt; 674호 기사 '제주 풍경에 주인이 생기기 시작했다'(이명익·김연희 기자)를 보면 이미 오버투어리즘은 시작되었다. 관광과 생태는 양립할 수 없어 제주 제2공항 건설은 국토부의 사전타당성조사, 예비타당성조사를 거쳐 마지막 관문인 전략환경영향평가서의 환경부 동의만을 남겨 놓고 있다. 국토부의 제2공항 건설을 반기는 제주도 지자체와 이 정책에서 이득을 볼 수혜자들은 제주도 사상 최대 규모의 국책사업인 제2공항 건설이 제주도에 5조 원이 넘는 경제적 유발 효과와 4만 개의 일자리를 새로 만들 것이라고 말한다. 지자체에서 벌어지는 많은 국책사업의 효과가 과장되어 있으며, 거기서 나오는 최대의 수익을 차지하는 사람도 지역이 아닌 중앙의 인사다. 이와 똑같은 착시가 관광 산업에서도 반복된다. 관광산업을 옹호하는 사람들은 관광산업이 현지의 사회적·경제적·환경적·정치적 문제를 다 해결해 줄 만병통치약이라고 열심히 주장한다. 그러나 현지의 낙후성을 다 바꿀 수 있다는 듯이 구는 이들의 공약은, 이 산업이 내놓은 수사법에 불과하다. 패멀라 노위카는 &lt;공정 여행, 당신의 휴가는 정의로운가?&gt;(이후, 2013)에서 "여행 경비의 약 80퍼센트는 항공사, 호텔" 등 패키지여행을 주관한 지역 바깥의 대기업으로 돌아가지 "지역의 사업체나 노동자에게 가지 않는다"면서 "이런 현상을 누출이라고 하는데, 누출은 여행과 관광산업 전반에 팽배하며 그 내용이 잘 기록되어 있다"고 말한다. 하지만 관광산업을 옹호하는 이들은 이런 기록을 누락함으로써 "관광산업이 빈곤 감소나 지역의 자급자족에 기여한다"는 착시를 불러일으킨다. "환경부 장관님, 환경부는 개발이나 관광과 같은 경제 논리로부터 생태와 인간을 지켜내라고 만들어진 부처입니다. 환경부는 그 어떤 개발의 후견인이 되어서도 안 되고, 경제 논리에 협조해서도 안 됩니다. 개발과 환경은 양립할 수 없습니다. 관광과 환경도 양립할 수 없습니다. 환경부는 대한민국의 생태와, 그 속에 거주하는 인간들의 후방입니다. 후방이 든든해야 제2공항 건설을 막으려는 제주도민이 우리나라 사람 모두의 장소를 위해 계속해서 싸울 수 있습니다. 장관님더러 전방이 되어달라고는 간청하지 않겠습니다. 제주 하늘과 바다와 나무의 후방이 되어 주십시오." 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주2공항은 제주도의 '천적', 관광이 바이러스다 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 장정일 작가 최근글보기 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 ▶ [제주도가 환경부 장관에게] 연재 더보기 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>스포츠서울 - 와그, 관광명소 제주도 '한 달 살기' 카테고리 오픈 와그, 관광명소 제주도 '한 달 살기' 카테고리 오픈 입력2020-09-16 10:52 수정2020-09-16 10:51 와그(WAUG)가 제주도 한 달 살기 카테고리를 오픈하고 제주도 장기 투숙 숙소를 소개한다.  제공 | 와그트래블 [스포츠서울 이상훈 기자] 글로벌 여행 액티비티 예약 플랫폼 와그(WAUG)를 서비스하는와그트래블(대표: 선우윤)은 제주도 지역에서 장기 투숙이 가능한 제주도 한 달 살기 카테고리를 신규 오픈했다고 16일 밝혔다.와그가 준비한 제주도 한 달 살기 상품은 펜션, 게스트하우스, 리조트 등 다양한 형태의 숙소로 구성됐다. 해당 섹션 내 검색 필터에서 콘도형, 개인실형, 도미토리형 중 원하는 카테고리를 선택하면 이용 목적에 따라 나에게 맞는 맞춤 숙소를 확인할 수 있다.제주도 한 달 살기 숙소는 쇠소깍, 비자림 등 제주도 유명 관광지 인근에 위치한 곳부터 상대적으로 인적이 드문 지역의 보물 같은 곳까지 제주도의 다양한 매력을 골라서 느낄 수 있는 숙소 라인업으로 이용객의 선택 폭을 넓혔다. 또한 한 달 동안 머무는 장기 투숙인 만큼 1일 숙박가격을 기존 가격의 3분의 1 수준으로 대폭 낮춰 이용객의 부담을 덜었다.제주도는 이국적인 명소와 운치 있는 바다 경관으로 여행객의 발길을 모으고 있는 우리나라의 대표 여행지다. 특히 한국공항공사 항공 통계에 따르면 지난 7월 제주공항 국내선 이용객 수는 200만1761명으로 지난 1월 이후 6개월 만에 200만 명대를 회복한 바 있어, 와그표 ‘제주도 한 달 살기’ 상품을 찾는 여행객도 수도 꾸준히 증가할 것으로 기대된다.와그는 코로나19로 인하여 ‘머무는 여행’이 새로운 여행 문화로 떠오르고 있는 가운데, 코로나19 감염 위험에서 상대적으로 안전하고 생활 속 여행을 즐기기에 최적화된 여행 방식인 한 달 살기 상품을 국내 주요 여행 도시인 부산, 서울, 강원도 지역까지 점차 확장해나갈 계획이다.선우윤 와그트래블 대표는 “와그의 제주도 한 달 살기를 통하여 일상이 여행이자 여행이 일상이 되는 즐거움을 맘껏 느끼시기 바란다. 제주도를 시작으로 국내 인기 여행지 한 달 살기를 순차적으로 오픈할 예정이니 많은 관심과 기대를 부탁드린다”고 말했다. party@sportsseoul.com ▶ 디지털 뉴스콘텐츠 이용규칙 보기 0 오늘의 핫키워드 김지민 l 선우은숙 재혼 l 신혜성 l 오은영 박사 인기기사-네이버 '쌍둥이 임신?' 김지민, 열애 공개한 이유가.... 선우은숙, 4세 연하 유영재 아나와 재혼 역시 만능! 임창정, 연예인골프대회 3위 7kg 감량 홍진영, 초미니로 뽐낸 각선미 외도 70대 노부부...오은영도 할 말 잃었다 '이정후 절친' 고우석, 이종범 사위 된다 '이상화♥' 강남, 장모와 XX수술도 같이해 신혜성, 도난차량서 음주측정 거부로 '체포' 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 영상 포토 페이스북 트위터 카카오톡 구글플러스 카카오스토리 밴드 TOP 뉴스 1/2 이전 다음 맥심 선정 '세계 최고 섹시 미녀' 골프선수 중 타이거 우즈보다 팔로워 수가... 강민경, '65억' 매입 신사옥으로 이사 강민경이 신사옥으로 이사한다... 신세경, '헉' 소리 나는 베이글 여신 배우 신세경이 여신 같은 아름다움을... 호주 가라테 국대 출신, 남심 저격 호주 가라테 국가대표 출신으로 모델과... 과감 누드 화보 찍은 '91세' 최고령 모델 미국은 물론이고 전세계를 통틀어... 16살인데...이동국 딸, 넘사벽 성숙미 축구스타 이동국의 딸이자 모델 재시가... 부산국제영화제 레드카펫, 최고의 여신은? 부산국제영화제 레드카펫은... '아이언맨'의 그녀, 50세 기념 누드 배우 기네스 팰트로가 50세 생일을 기념한... SS TV 캐스트 구독하기 스포츠서울 SNS 스포츠서울 앱 살펴보기 스포츠서울 서울가요대상 Android 서울가요대상 IOS [사고]2022 제11회 전국 중.고 인문학 경진대회 X</t>
+  </si>
+  <si>
+    <t>“이번 추석 연휴, 제주도에 관광객 20만 명 몰린다” - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 "이번 추석 연휴, 제주도에 관광객 20만 명 몰린다" 제주시에 따르면 이번 추석 연휴에 약 20만 명 이상이 제주를 찾을 것으로 예상된다. 천소진 기자 입력 2020.09.16 17:34 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 기사의 이해를 돕기 위한 자료 사진 / gettyimagesBank[인사이트] 천소진 기자 = 이번 추석 연휴 기간에 약 20만 명 이상이 제주를 찾을 것으로 예상돼 방역 당국이 긴장하고 있다.16일 제주도관광협회는 오는 30일부터 10월 4일까지 적어도 약 19만 8천 명이 제주로 들어올 것이라고 예상했다.5일 동안 하루 평균 약 4만여 명이 몰릴 것으로 전망되는 이번 추석은 여름 성수기와 비슷한 수준을 보이겠다.기사의 이해를 돕기 위한 자료 사진 / gettyimagesBank이는 수도권의 사회적 거리 두기 단계가 2단계로 하향되면서 여행 수요가 대폭 늘어난 것으로 분석된다.이미 김포와 김해에서 제주로 오는 항공기 노선의 예약률은 70~80%를 기록하고 있고, 임시편까지 마련된 상황이다.또한 숙박업체와 렌터카업체 등의 예약률도 증가했다. 제주도 골프장들의 예약도 거의 끝난 것으로 알려졌다.기사의 이해를 돕기 위한 자료 사진 / gettyimagesBank제주를 비롯한 지방자치단체는 추석을 2주가량 앞둔 현재 연휴 기간 고향 방문을 자제해 달라는 캠페인을 대대적으로 벌이고 있다.도 방역 당국은 "방역수칙 준수와 위험업종 방문 자제 등에 대한 계도 활동을 통해 추석 연휴 코로나 차단에 집중하겠다"고 밝혔다.정부 역시 추석 연휴를 특별방역 기간(9월 28일~10월 11일)으로 정하고 사회적 거리 두기 수위를 강화할 방침이다. 천소진 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>추석 연휴 제주도 찾는 관광객들, 공항·항만서 발열시 강제검사·자부담 격리 - 민중의소리 메뉴보기 민중의소리 검색보기 댓글보기 추석 연휴 제주도 찾는 관광객들, 공항·항만서 발열시 강제검사·자부담 격리 페이스북 트위터 카카오톡 카카오스토리2 더보기 뉴스 전체기사 정치 사회 경제 민족 국제 문화 연예 스포츠 IT·과학 사설·칼럼 인터랙티브 이슈탐구 타임라인 그래프뉴스 인터랙티브 인터뷰 인터랙티브 기획 섹션페이지 오피니언 VOP Star 만민보 멀티미디어 만화만평 동영상 포토 방송 검색 취소 사회 추석 연휴 제주도 찾는 관광객들, 공항·항만서 발열시 강제검사·자부담 격리 제주도, 특별행정조치 발동... 방역수칙 지키지 않을시 강력 제재 윤정헌 기자 yjh@vop.co.kr 발행 2020-09-20 15:41:54 수정 2020-09-20 15:41:54 이 기사는 번 공유됐습니다 제주도 자료사진ⓒ뉴시스 다가오는 추석 연휴 제주도를 찾는 입도객이 공항이나 항만에서 발열 기준을 넘을 경우 의무검사를 받고 자부담으로 격리해야 한다. 제주도는 추석 전주 주말인 26일부터 오는 10월 4일까지 신종 코로나바이러스 감염증(코로나19) 확산을 막기 위해 입도객의 방역수칙 준수를 의무화하고, 이를 지키지 않을 경우 강력한 제재를 가하는 특별행정조치를 발동한다고 20일 밝혔다. 제주도에 따르면 제주공항과 항만 입도객은 발열 기준이 넘는 증상을 보이면 코로나19 진단 검사를 의무적으로 받아야 한다. 수익자 부담 원칙에 따라 격리조치까지 발열자 본인이 부담해야 한다. 제주도 관계자는 “기존에는 공항에서 진단검사 후 결과가 나올 때까지 모든 비용을 제주도가 부담했지만, 이 기간에는 자부담하도록 조치할 것”이라며 “이는 조금이라도 이상 증상이 있으면 제주도를 찾지 말라는 경각심을 일깨우기 위한 것”이라고 설명했다. 이 기간 제주도는 입도객 전원을 대상으로 마스크 착용 등 방역수칙 준수를 의무화하기로 했다. 방역수칙을 위반해 방역당국의 코로나19 대응 활동에 피해가 발생하면 감염병예방법상 고발뿐만 아니라 구상권을 청구하는 등 단호하게 대응할 것이라는 게 제주도 측의 설명이다. 또한 제주도는 관광객이 대규모로 다녀간 추석 연휴 이후 2주간(10월 5일~18일)을 위험기간으로 설정해 사후 방역 관리에 주력하는 계획을 세웠다. 제주도는 이번 추석 연휴 귀성객을 포함한 관광객 20만명이, 전주 주말인 26일로 기간을 확대하면 총 30만명이 제주를 찾을 것으로 추산하고 있다. 윤정헌 기자 기자를 응원해주세요 기사 잘 보셨나요? 독자님의 작은 응원이 기자에게 큰 힘이 됩니다. 독자님의 후원금은 모두 기자에게 전달됩니다. 이시각 주요기사 많이 읽은 뉴스 페이스북 트위터 카카오톡 카카오스토리 카카오스토리2 URL 복사 https://www.vop.co.kr/A00001513531.html 닫기 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 닫기</t>
+  </si>
+  <si>
+    <t>[포토] 제주도 여행, 기분만 내본 대만 관광객 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 [포토] 제주도 여행, 기분만 내본 대만 관광객 입력 : 2020.09.20 18:15:25 한국관광공사가 지난 19일 대만 관광객 120명을 대상으로 제주 상공을 선회하는 '가상 출국' 체험 행사를 진행했다고 20일 밝혔다. 코로나19 시기에 제주도에 착륙하지 않고 비행 기분을 느끼는 관광 상품이다. 탑승객들이 이륙 전 기내에서 한국 전통 부채를 들고 기념사진을 찍고 있다. [사진 제공 = 한국관광공사][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 오늘의 핫뉴스 전세대출 94%가 변동금리라는데…2030 절반차지   3시간 18분TSMC 창업자 "전쟁 발생시 TSMC 전부 파괴될것"   1시간 11분경기침체를 알리는 지표가 시장의 호재가 되는 역설 [핫이슈]   5시간 6분한전 사장 "전력도매가 1kWh 270원…사상최고"   2시간 9분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 전세대출 94%가 변동금리라는데…2030 절반차.. 공영홈쇼핑 방송편성, 일부 업체에 집중돼 TSMC 창업자 "전쟁 발생시 TSMC 전부 파괴될것.. 경기침체를 알리는 지표가 시장의 호재가 되는.. 한전 사장 "전력도매가 1kWh 270원…사상최고" 인기뉴스 종합 연예 스포츠 1"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 2"내 반려견 물려 배가 보랏빛으로"…한강공원에 나타난 .. 3금통위 앞두고 환율 또 급등…"환율 얼마나 더 오르나요.. 4"크림반도 우크라 영토"라던 푸틴, 갑자기 태도 바꾼 결.. 5"엉덩이 깨물어 멍들게 했다"…동거녀 10대 딸 학대한 5.. 1김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 2선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 3‘♥남궁민’ 진아름 결혼소감 “예쁘게 행복하게 살게.. 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님네.. 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 3치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 4조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 5"어떤 방법이라도 찾아준다고…나를 믿어준 kt에 고마워.. 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 [포토] 제주도 여행, 기분만 내본 대만 관광객 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>가을휴가철 맞은 제주도 관광객 위한 힐링 서귀포 펜션 : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #송현동 부지, 시민 품으로 #취득세 쇼크 #가장 쎈 독감 온다 #여가부 폐지 #벼랑 끝 이준석 #눈 먼 돈 된 태양광 대출 #실외 마스크 전면 해제 #노벨상 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 사회이슈 urlhttps://www.sedaily.com/NewsView/1Z7W3LJF9P 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 사회 사회이슈 가을휴가철 맞은 제주도 관광객 위한 힐링 서귀포 펜션 입력2020-09-17 16:49:08 수정 2020.09.17 16:49:08 김동호 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 IRO JeJu(아이로 제주), 쾌적한 환경과 편리한 교통편으로 문의 많아 점점 뜨거워지는 가을을 맞아 시원한 힐링 휴가를 누리고자 떠나는 여행객들이 많아졌다. 그 중에서도 당연 최고 인기 휴가지는 제주도다. 제주도의 푸르른 여름 바다는 많은 여행객들에게 당장 떠나고 싶은 낭만을 자극한다. viewer 가을 휴가를 떠나는 여행객들에게 무엇보다 중요한 것은 숙박이다. 맑은 자연 속에서 충분한 휴식을 취하는 것 역시 휴가의 연장선이기 때문이다.제주도 서귀포시에 위치한 IRO JeJu(아이로 제주)펜션은 전망 좋고 조용한 펜션을 원하는 여행객들에게 인기가 높은 숙소다. 중문관광단지에서 차로 10분 거리에 위치했으며, 맑은 정기의 한라산과 대평리 해안, 안덕계곡의 오션뷰로 시원함을 만끽할 수 있는 제주도 숙소이다특히 모던식 기법으로 지어져, 앤티크한 나무장식과 세련된 인테리어는 호텔느낌의 분위기를 만들어 포근함을 더한다. 실제로 아이로제주펜션은 세련된 인테리어를 인정받아, 손예진 주연 영화 ‘나쁜놈은 죽는다’의 촬영소로 사용되며 제주도 숙박으로써 다시금 팬들의 관심을 끌기도 했다. viewer 여행객들의 편의를 생각한 내부 인테리어도 주목 받는다. 각 방 시스템에어컨 도입으로 쾌적한 내부환경을 제공하며, 개별테라스에서 비장탄 숯 바비큐를 즐길 수도 있다. 또한 유아를 위한 침구와 놀이매트 등이 완비되어 있어 유아를 동반한 가족 또는 연인과 즐거운 저녁 식사 시간을 마련할 수 있다.펜션 관계자는 “제주의 아름다운 산과 바다를 모두 즐길 수 있는 아이로제주는 호텔을 연상시키는 깔끔한 시설, 쾌적한 실내, 친절한 서비스로 숙박객들에게 제주 여행의 좋은 추억을 선사하기 위해 노력 중이다”고 말했다./김동호 기자 dongho@sedaily.com &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 구독 김동호 기자 디지털미디어센터 dongho@sedaily.com 제33회 이건음악회 11월 11일 개막…‘뷔르템베르크 챔버 오케스트라 하일브론’ 내한공연 솔라옵틱스, 광 소재원천기술 라이선스 사업 본격화 기자채널로 이동 오늘의 핫토픽 # 송현동 부지, 시민 품으로 # 취득세 쇼크 # 가장 쎈 독감 온다 # 여가부 폐지 # 벼랑 끝 이준석 오늘의 이슈 #이준석 추가 징계 유승민 "정진석, 이재명 덫에 놀아나…비대위원장 사퇴해야" #국감 초점 "민간인 사찰"…국토위 국감장에서도 '감사원' 도마 위에 #감사원 '文 서면조사' 논란 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #마약민국 묻지마 폭행하고 "마약 했다"는 남성…경찰이 돌려보냈다 #尹, 비속어 논란 "키스 5단계는" "치마 짧으면 좋다"…중학교 선생님이 건넨 농담 이시간 주요 뉴스 영상 뉴스 생방송 중 러 미사일 '쾅'…BBC 특파원 긴급 대피 '아찔' '컴백홈' 지금의 날 만들어 준 고향, 구수하고 정겹다 도로 위 '모세의 기적'…경찰·택시기사, 환자 생명 구했다 한미, 北 대응 사격중 미사일 오발…강릉서 '폭발 화재' 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? 인기 포토 뉴진스 목격! 든든하軍 심장에 한 발! 양조위의 화양연화 샤넬♥제니 저항하라 부산 찾은 스타들 프로스트! 오늘의 연재 SE★시리즈 드림캐쳐 다미, 그룹의 중심이 바로 나야 [SE★포토] 한입뉴스 CU×미래에셋페이 ‘편털’ 이벤트 진짜 ‘편털’에 조기종료[한입뉴스] 주식 초고수는 지금 "지금 사면 손해 안 본다?"…삼성전자·NAVER 줍줍[주식 초고수는 지금] 뒷북비즈 4C 덫에 걸린 K반도체…“국가대항전서 낙오될 수도” [뒷북비즈] 서경 디지털 38개의 포토 든든하軍 23개의 포토 양조위의 화양연화 18개의 포토 저항하라 76개의 포토 샤넬♥제니 EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>제주도, 추석 연휴 입도 관광객 방역체계 종합상황실 가동 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 추석 연휴 입도 관광객 방역체계 종합상황실 가동 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 추석 연휴 입도 관광객 방역체계 종합상황실 가동 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.09.18 14:24 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 추석연휴 기간 코로나19 방역 강화를 위해 관광대책 종합상황실을 운영한다고 18일 밝혔다. 관광대책 종합상황실은 오는 30일부터 다음달 4일까지 가동되며, 운영시간은 오전 9시부터 오후 6시(제주공항 오후 11시, 카지노 자정)까지다. 상황실은 종합상황반(관광정책과, 120콜센터)과 제주관광정보센터(제주관광공사, 740-6000), 관광안내센터(제주도관광협회), 공․항만 환대반(제주도관광협회), 관광상황반(행정시 관광진흥과) 등 총 5개 반, 243명으로 구성됐다. 코로나 이후 첫 명절인 만큼 마스크 착용 의무화를 집중 계도하고, 사업체 방역실태 점검을 강화해 안전제주 홍보에 주력할 방침이다. 특히 연휴기간 제주공항 1층 도착장 입구(2개소)와 제주항 여객터미널에서 마스크 착용 의무화 캠페인을 진행한다. 캠페인과 함께 △방역수칙 홍보물 배부 △공·항만, 대중교통, 골프장, 고위험시설 등에 마스크 착용 의무화 및 위반 시 행정조치 등에 대해서도 안내한다. 관광객 교통편·숙박 및 관광지 안내와 더불어 상황반별 일일 추진상황 보고 등을 통해 관광객 불편사항을 접수하고, 상황 발생 시 신속한 공유와 처리도 이어진다. 또한, 유관기관과의 협조체계를 확립하고 비상연락체계를 상시 가동해 기상 이변으로 인한 공항 체류객 발생 시 불편 해소 대책도 추진한다. 이와 함께 제주도는 행정시, 관광공사, 관광협회와 합동으로 652개소 관광사업체를 대상으로 추석연휴 대비 방역 실태를 집중 점검하고 있다. 주요 점검 사항은 ▲방역관리자 지정 ▲주기적 방역 및 이행수칙 준수 ▲종사자 위생관리 ▲생활 속 거리두기 필요성 및 실천 행동요령 안내 ▲방문객 마스크 착용 및 열 감지체크, 2m 거리두기 이행 여부 등이다. 20개반 40명으로 점검반을 편성해 30일까지 호텔․콘도(418개소), 야영장(43개소), 유원시설(74개소) 및 휴양펜션(117개소) 등에 대해 방역 수칙 준수 여부 확인과 함께 방역물품 지원도 병행하고 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주, 추석연휴 방역수칙 미준수 입도객 강력 제재 제주, 추석연휴 '철통방역망' 가동...방역수칙 미준수 입도객 '제재' '고향방문 대신 여행'...제주, 추석연휴 관광객 방역대응 비상 원희룡 지사 "추석연휴, 위중한 상황...고강도 방역체계 가동" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>‘제주도 하늘’만 구경하고 오는데 대만서 4분만에 완판된 한국 관광 상품 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 '제주도 하늘'만 구경하고 오는데 대만서 4분만에 완판된 한국 관광 상품 여행 갈 수 없는 슬픔을 덜기 위해 각국의 항공사, 여행사는 다양한 관광상품을 내놨다. 김한솔 기자 입력 2020.09.18 18:15 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 한국관광공사[인사이트] 김한솔 기자 = 신종 코로나바이러스 감염증(코로나19) 유행이 장기화 되면서 이제 해외여행은 꿈 같은 일이 됐다.많은 사람들이 여행 갈 수 없는 슬픔에 잠겨있는 가운데 이를 해소하기 위해 각국의 항공사, 여행사가 다양한 관광상품을 내놨다.특히 대만에서는 하늘에서 제주도를 바라보기만 하는 우리나라 여행 상품이 엄청난 인기를 끌고 있다.지난 14일 한국관광공사에 따르면 공사 대만 타이베이지사는 현지 여행사 이지플라이(ezfly·易飛網), 항공사 타이거에어(台灣虎航)와 함께 항공편 체험상품 '제주 가상출국여행 얼리버드 프로모션' 상품을 출시했다.한국관광공사사진=인사이트해당 상품은 오는 19일 타이베이공항을 출발해 목적지인 제주공항에 착륙하지 않은 채 제주 상공을 선회한 뒤 대만으로 다시 회항하는 상품이다.이 상품은 판매 시작 불과 4분 만에 매진되는 엄청난 인기를 보여줬다.여행객들은 탑승 전 비행기 앞에서 한복 입고 사진찍기를 시작으로 한국 놀이체험 등 다양한 프로그램을 기내에서 진행한다.기사와 관련 없는 자료 사진 / gettyimagesBank사진=인사이트또 한류드라마로 인기를 얻은 치킨과 맥주가 기내식으로 나오고 제주특별자치도, 제주관광공사와 함께하는 퀴즈쇼, 설명회도 이어진다.특히 이 상품엔 한국과 대만의 관광교류가 재개되는 시점부터 1년 이내 사용할 수 있는 한국행 왕복항공권을 포함하고 있으며 2000타이완달러(약 8만 원)만 추가하면 호텔 1박 숙박권도 받을 수 있다.관광공사는 해당 상품이 코로나가 끝난 이후 방한 수요 증가에 효과가 있을 것으로 보고있다. 김한솔 기자 · hansol@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>추석연휴 휴양･관광지(문체부·강원도·제주도) 방역대책은? 즐겨찾기로 설정하기 로그인 회원가입 최종편집일2022.10.11(화) 전체기사 메디컬뉴스 정책 의료 인물 핫이슈 단신/공고 협회/단체 학회 의학회 내과/심장 외과 소아과 산부인과 영상의학/초음파 암 가정의학 피부과/성형외과 안과 방사선종양/핵의학 비뇨기과 이비인후과 정형외과/재활의학 신경 내분비/당뇨 소화기/간 마취/통증/응급 진검/병리/기초 다학제 개원협/의사회 치의학 한의학 간호 영양/통합 국제학회 교육일정 메디컬산업 제약 의료기기 식품 화장품 기획특집 캠페인 라이프 건강강좌칼럼상식 방송연예 지역뉴스 사회경제 문화뉴스 날씨생활 교육뉴스 자료실 기사 메일전송 홈 메디컬뉴스 정책 페이스북 공유하기 트위터 공유하기 구글플러스 공유하기 싸이월드 공유하기 라인 공유하기 네이버블로그 공유하기 네이버밴드 공유하기 네이트온쪽지 공유하기 구글북마크 공유하기 스크랩하기 프린트하기 이메일보내기 글자확대 글자축소 추석연휴 휴양･관광지(문체부·강원도·제주도) 방역대책은? - 연휴 기간 숙박 예약률 높아…철저한 방역 준비 필요 기사등록 2020-09-24 01:10:05 기사수정 정부는 그동안 이번 추석 기간 동안 고향과 친지 방문뿐 아니라 여행 등의 이동을 자제해 줄 것을 당부했지만 연휴 기간의 숙박 예약률이 높은 것으로 조사, 발표되고 있다.실제 추석 연휴 호텔 예약률(9.22 기준)은 강원는 평균 94.9%, 제주는 평균 56%를 기록하고 있다.이에 따라 호텔, 유원시설 등 주요 관광지에 대한 철저한 방역 준비가 필요한 상황이다.문화체육관광부(장관 박양우, 이하 문체부), 강원도(도지사 최문순), 제주특별자치도(도지사 원희룡)이 코로나바이러스감염증-19 중앙재난안전대책본부에 보고 및 논의한 휴양･관광지 방역대책은 다음과 같다.◆문체부…유관기관과 긴밀한 협력체계 구축, 대응 문체부는 추석 연휴 기간 주요 관광지 방역에 대한 철저한 준비를 위해 관계부처, 관광공사, 지자체 등 유관기관과 긴밀한 협력체계를 구축하여 대응하고 있다.구체적으로 정부가 보유하고 있는 KTV, 누리집, 누리소통망(SNS)를 활용하여 추석 방역 수칙 홍보콘텐츠를 적극적으로 홍보하고, 이동(여행) 시 지켜야 할 여행경로별・상황별 수칙을 전파한다는 계획이다.또 지방자치단체가 관광지에서 기본방역지침을 철저히 시행하도록 협조 체계도 구축했다는 설명이다.이를 통해 관광지 방역 및 관광객 방역 수칙 지도를 담당하는 관광지 방역 요원(3,204명 목표) 배치하여 안전한 여행 환경을 조성한다는 계획이다.또 9월 28일(월)부터는 지역관광협회 주관으로 관광사업체에 대한 현장 점검도 한다는 방침이다. ◆강원도…관광시설 특별방역대책 마련강원도는 추석 연휴 동안 가족·친지 단위의 관광객 방문이 많을 것으로 예상됨에 따라 관광시설 특별방역대책을 마련하였다.▲거리 두기 2단계 방역 수칙 준수 여부 점검 등 추진 9월 21일부터 25일까지를 추석 연휴 전 특별방역주간으로 정하고 사회적 거리 두기 2단계에 준하는 방역수칙을 준수토록 집중홍보한다.호텔·콘도 및 기존 점검 시 미흡한 점이 확인되었던 시설 등에 대해 출입자 관리·다중이용시설 소독 등 거리 두기 2단계 방역 수칙 준수 여부를 점검하고 있다. 또 주요 관광지에 방역관리 요원을 배치하고 현장 점검반을 운영하고, 관광지에 대해서는 무인 매표소 운영, 일방통행 및 안내판 설치 등을 통해 이동 동선을 조정하고 인원 분산을 유도한다는 계획이다.▲추석 연휴 기간 주·야간, 방역 점검 추진유명 관광지 인근의 음식점과 유흥시설에 대해서는 추석 연휴 기간 주·야간으로 방역 점검을 추진할 예정이다.이와 함께 코로나19 일일 상황 점검, 환자 입퇴원 및 병상 현황 관리 등을 하고, 24시간 진단검사체계를 운영하는 등 비상 방역 체계도 구축·운영한다. ◆제주도…9월 26일~10월 4일, 추석 연휴 특별방역 집중관리 기간 제주도는 최대 30만 명 내외의 입도가 예상되는 9월 26(토)부터 10월 4일(일)까지를 추석 연휴 특별방역 집중관리 기간으로 정하는 등 감염 예방에 노력하고 있다는 설명이다.▲입도객 방역수칙 준수 의무화 행정조치 발동우선 입도객 방역수칙 준수 의무화 행정조치를 발동하여 9월 26일(토)부터 10월 4일(일)까지 제주 공･항만을 통해 들어온 입도객에 대해 마스크 착용 등 방역 수칙을 준수하도록 했다.또 제주공항·만 입도객 중 37.5℃ 이상의 발열자는 제주공항 선별진료소에서 의무적으로 진단 검사를 받고, 도내에 마련된 자가 또는 숙소에서 의무 격리토록 했다.▲게스트하우스 내·외부 등 파티전면 금지 등 게스트하우스를 통한 감염을 막기 위해 9월 21일부터 게스트하우스 내·외부는 물론 게스트하우스와 연계된 음식점에서의 파티도 전면 금지하도록 행정조치를 강화했다. ▲관광사업체 대상…방역실태 집중점검9월 30일(수)까지 관광사업체를 대상으로 방역관리자 지정, 주기적 방역 및 이행수칙 준수, 종사자 위생관리 등 방역실태에 대한 집중점검을 진행한다.▲연휴 기간…보건소, 선별진료소 정상운영 등 연휴 기간에 보건소(6개소), 선별진료소(7개소)를 정상 운영하고, 24시간 비상 진료 체계를 유지하는 등 추석 연휴 동안 코로나19 대응에도 만전을 기한다는 방침이다.[메디컬월드뉴스] 관련기사 추석 연휴 ‘코로나19 및 코로나19 이외 의료이용’ 방법은? 2021년 국내 관광 흐름 전망, 새로운 여행 기대감도 높아 문체부-인터폴과 협조, 해외 한류 콘텐츠 불법 사이트 폐쇄 추진 등 전국 골프장 방역 및 회원모집 위반 사례 적발… 94건 시정 조치 등 농촌진흥청, 농촌 치유관광 프로그램 ‘긍정적 효과’ TAG #모바일메인 0 기사수정 다른 곳에 퍼가실 때는 아래 고유 링크 주소를 출처로 사용해주세요. http://medicalworldnews.co.kr/news/view.php?idx=1510937803 페이스북 공유하기 트위터 공유하기 구글플러스 공유하기 싸이월드 공유하기 라인 공유하기 네이버블로그 공유하기 네이버밴드 공유하기 네이트온쪽지 공유하기 구글북마크 공유하기 스크랩하기 프린트하기 이메일보내기 글자확대 글자축소 기자프로필 임재관 기자 임재관 기자 의 다른 기사 보기 나도 한마디 ※ 로그인 후 의견을 등록하시면, 자신의 의견을 관리하실 수 있습니다. 0/1000 확대이미지 영역 [9월 제약사 이모저모]비아트리스코리아, 사노피, 유틸렉스, 한국MSD, 카나리아바이오, 파멥신 등 소식 [9월 의료기기 이모저모⑤]루트로닉, 칼로스메디칼, EDGC 등 소식 [9월 제약사 이모저모]비아트리스, 사노피, 셀트리온, 지엔티파마, 한국다이이찌산쿄, 카나리아바이오 등 소식 많이 본 뉴스+더보기 1 전 세계 코로나19 신규확진자 5국 10만명…7월 20일 현황은? 미국 38만명 이상 2 [7월 15일 병원계 이모저모②]보라매, 아주대, 전북대, 한림대성심병원 등 소식 3 [7월 15일 병원계 이모저모①]경북대, 동산, 서울대, 인하대병원 등 소식 4 전 세계 코로나19 신규확진자 20개국 1만명…7월 15일 현황은? 미국 20만명 이상 5 급성기 뇌졸중 9차 평가 결과 132개 기관 1등급…뇌졸중 평가대상 5곳 중 3곳 집중치료실 없어 6 [7월 29일 병원계 이모저모②]강남세브란스, 순천향대천안, 의정부을지대, 아주대병원 등 소식 7 7월 18일부터 코로나19 백신 4차접종 대상 당일접종 및 사전예약 가능 8 [8월 2일 병원계 이모저모①]고려대, 서울대, 이화의료원, 아주대, 국립중앙의료원 등 소식 9 코로나19 재유행, 대한의사협회-질병관리청 공동 입장문 발표 10 [7월 21일 병원계 이모저모①]국립암센터, 고려대안암, 명지, 자생한방병원 등 소식 회사소개개인정보취급방침이용약관메일수집거부제휴제안광고문의청소년보호정책 (주)메디컬월드뉴스 등록번호서울, 아02428, 등록일2013-01-16, 발행일자2022-10-11, 발행인김영미, 편집인김영신, 청소년보호책임자 김영신, 연락처02)761-8801, 070-4277-0717, 이메일medicalkorea1@daum.net, 주소서울시 영등포구 국회대로 72길 4 아이비피아빌딩 5층 ㈜메디컬월드뉴스 국내유일학회전문미디어 메디컬월드뉴스 © www.medicalworldnews.co.kr All rights reserved. 국내유일학회전문미디어 메디컬월드뉴스의 모든 콘텐츠(기사 등)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 모바일 버전 바로가기</t>
+  </si>
+  <si>
+    <t>제주도로 몰리는 관광객, 제주도 상권 호황 언제까지? × 로그인 회원가입 전체기사 실시간 랭킹 정치 정치일반 대통령실 국회 정당 북한 국방·외교 사회 사회일반 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 지역 인물 수도권 경기남부 경기북부 인천 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 IT/과학 IT일반 과학일반 모바일 인터넷·SNS 통신 보안·해킹 컴퓨터 게임 리뷰 연예 연예일반 TV 영화 음악 스타 스포츠 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 UFC 생활문화 생활문화일반 건강정보 자동차·시승기 도로·교통 여행·레저 음식·맛집 패션·뷰티 공연·전시 책 종교 날씨 세계 세계일반 아시아·오세아니아 북미 중남미 유럽 중동·아프리카 오피니언 포토 D-TV 착한선진화 제보하기 사진구매 모바일 버전 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 공유하기 페이스북 트위터 카카오톡 주소복사 제주도로 몰리는 관광객, 제주도 상권 호황 언제까지? 입력 2020.09.05 06:00 수정 2020.09.04 17:12 김희정 기자 (hjkim0510@dailian.co.kr) 지난 6월 애월 카페거리 내 카페 월평균 추정 매출 1918만원코로나19 이후에도 호황 분위기 지속될지 미지수애월 카페거리 전경 ⓒ카카오맵전 세계적으로 신종 코로나바이러스 감염증(코로나19)이 확산하면서 해외여행을 떠나는 관광객 수가 감소했다. 대신 국내 관광지, 특히 제주도에 많은 내국인 관광객이 몰리고 있다.제주도에는 다양한 관광지와 특화된 상권이 있지만 특히 해변에 위치한 카페들이 큰 인기를 누리고 있다. 일례로 제주시 애월읍 애월항 인근에 위치한 애월 카페거리는 해변가에 위치한 특색 있는 카페를 방문하기 위해 많은 관광객이 찾는다. 5일 수익형부동산 연구개발기업 상가정보연구소가 SK텔레콤 빅데이터 서비스 플랫폼 지오비전 통계를 분석한 결과 올해 6월 기준 애월 카페거리 일평균 유동인구는 3만4022명으로 조사됐다.이는 일주일 평균 약 24만명이 방문하는 것이며, 한 달에 약 100만명의 인구가 상권을 찾는 셈이다.6월 유동인구 중 30대가 22.9%로 가장 많았고 이어 ▲40대(22.7%) ▲50대(18.6%) ▲20대(17.2%) ▲60대(14.4%) ▲10대(4.2%) 순이었다. 상권 내 유동인구는 소비력이 높은 30·40대 비중이 45.6%로 가장 높았다. 지난 6월 애월 카페거리 내 카페 월평균 추정 매출은 1918만원으로 조사됐다. 이는 상권이 속한 제주시 카페 월평균 추정 매출 1106만원 대비 812만원 높은 매출이다. 또한 상권 내 1회 방문시 평균 추정 결제금액도 1만8617원으로 제주시 평균 1만4619원 대비 3998원 높았다.연령 별 추정 매출은 30대가 33.7%로 가장 높은 비중을 차지했고 ▲20대(32.4%) ▲40대(19%) ▲50대(10.5%) ▲60대 이상(4.4%) 순이었다.조현택 상가정보연구소 연구원은 "최근 코로나19 바이러스 확산의 영향으로 제주도로 여행 가는 국내 관광객이 급증해 제주도 상권은 활기를 띤 분위기를 보이고 있다"며 "다만 이러한 영향은 관광지 상권으로 국한돼 있어 관광객 방문이 적은 지역의 상권은 관광지 상권에 비해 다소 침체된 분위기"라고 밝혔다.이어 "여름 7~8월 휴가철에는 제주도 방문자가 더욱 증가하며 좋은 상권 분위기를 보였다"며 "그러나 코로나19 확산이 종식 됐을 때도 이러한 분위기를 지속적으로 유지할지는 미지수"라고 제주도 상권을 분석했다. #부동산 #코로나 #휴가 ©(주) 데일리안 무단전재 및 재배포 금지 김희정 기자 (hjkim0510@dailian.co.kr) 기사 모아 보기 &gt; +네이버 구독 0 0 관련기사 “빈집 활용한 도시재생으로 도시 빈집 문제 해결” 국토교통부는 인구 고령화‧구도심 공동화 등에 따라 급격히 증가하는 도심 내 빈집 문제에 대응하기 위해 빈집 정비기반을 조속히 마련하고, 빈집을 활용한 도시재생뉴딜사업을 본격 추진한다.또한, 화재 발생‧범죄 위험 등 주거안전을 위협하는 방치된 빈집을 효과적으로 정비하기 위해 관련 법‧제도도 함께 개선한다.빈집법에 따른 ‘빈집’은 ‘지자체장 확인 후 1년 이상 거주나 사용이 없는 주택’으로, 전국 빈집은 약 10만9000가구로 추정된다.국토부는 빈집 정비기반을 조속히 마련하기 위해 도시지역에 해당하는 모든 지자체가 빈집 실태조사는 올해… 美 대선후보 수락연설 시청률, 트럼프보다 바이든이 높았다 재선에 도전하는 미국 공화당 대선후보인 도널드 트럼프 대통령의 후보 수락 연설 시청률이 조 바이든 민주당 후보 시청률보다 더 낮았다.CNN은 28일(현지시간) 2160만명의 시청자가 전날 트럼프 대통령의 연설을 생중계로 지켜봤다는 시청률 조사업체 닐슨 미디어 리서치 집계를 보도했다.일주일 전 민주당 전당대회 마지막 날 바이든 후보의 수락 연설은 2360만명이었다. 바이든 후보의 연설에 트럼프 대통령보다 200만명가량 많은 시청자가 몰렸다는 이야기다.트럼프 대통령은 지난 2016년 대선을 앞둔 전당대회에선 경쟁자였던 힐러리 클린턴 민… 코로나19 신규확진 323명, 이틀째 300명대…전국 곳곳서 동시확산 수도권 249명-비수도권 69명-검역 5명 [데일리안 오늘뉴스 종합] 사실상 거리두기 2.5단계 도입…3단계 격상 못한 이유는?, 의협 "내달 7일부터 무기한 총파업" 등 ▲사실상 거리두기 2.5단계 도입…3단계 격상 못한 이유는?정부가 사회적 거리두기 2단계를 1주일 연장키로 했다. 정세균 국무총리가 거리두기 3단계 격상 여부를 판단할 시점이라고 밝힌 지 반나절 만에 현 정책 유지를 택했다. 정부가 2단계 연장을 공식화 했지만 내용을 들여다보면 사실상 '2.5단계'에 해당하는 방역 정책이 시행될 전망이다. 정 총리는 28일 오전 정부서울청사에서 코로나19 대응 중앙재난안전대책본부 회의를 주재하며 "주말에 종료되는 수도권의 2단계 거리두기를 한 주 더 연장하는 대신 더욱 강력한 방역조치를 취하겠다"고… 파라다이스시티 호텔‧리조트, 9일 오후 1시까지 휴장 외국인 전용 카지노는 무기 휴장 김희정 기자가 쓴 기사 더보기 새만금 풍력에 이어 태양광까지…"지분 상당수 중국 자본" [與 당권주자 열전 ③] '尹정부 연대보증인' 안철수, 총선 승리 이끌 적임자 [단독] '새만금 7200배 수익' 교수 일가, 무자격업체로 한전KPS와 계약했다 31억 반환 유승민, "TK 1위 여론조사" 공유...당권 도전 나서나 한글날 맞아 與 "세종 애민정신 기억" 野 "비속어·막말, 국민통탄" 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 시사만평 더보기 삼성전자, 위기에 이성전자될라?…대만 TSMC의 역전 국민의힘 이젠 '훌훌'…이준석의 잘못 배운 정치 발목잡기에 '허송세월' 이게 뭡니까?…실수? 실력? 국군의 현무-2C 낙탄이라니? 국감 첫날, 국감장이야? 막장이야?…고성만 '난무' [2022 국감] 이복현 "내부통제 경영진 의사결정, 핵심성과지표에 반영" 이복현 금융감독원장은 11일 금융권 내부통제 시스템과 관련해 "금융기관 상층부의 내부통제 관련한 의사결정이 핵심성과지표에 궁극적으로 반영되도록 반영될 수 있도록 살피겠다"고말했다.이 원장은 이날 오후 국회 정무위원회 국정감사에서 금융권 내부통제 시스템의 문제를 지적하는 소병철 더불어민주당 의원의 질문에 대해 "최고경영진이 실질적으로 단기 성과 측면에서 내부통제를 바라보고 있는 게 아닌가하는 우려를 하고 있다"며 이같이 말했다.그러면서 "금융기관이 내부통제 인력과 전담 비용을 형식적으로 자의적으로 분류하고 있는데 이는 금감원이 가지고… [2022국감] 野 "감사위원 전원 배석" 몽니…與, '文 감사' 중단 목적 의심 국정감사 답변하는 노대명 한국사회보장정보원장 [尹 출근길 한마디] "북핵 위협 견고히 대응…국민들, 걱정 말고 생업에 진력 다 하시길" "한미동맹·한미일 안보협력 바탕으로 잘 대비·대응'담대한 구상' 유효…北, 핵 통해 얻을 수 있는 것 없어전술핵, 한미가 조야 여러 의견 경청하고 따져보는 중이재명 '친일' 비판? 현명한 국민들이 잘 판단하실 것" [尹 출근길 한마디] "여가부 폐지는 여성·사회적 약자 보호 더 강화하기 위한 것" [尹 출근길 한마디] "한미동맹·한미일 안보협력 바탕으로 국민 안전 빈틈 없이 지킬 것" [미디어 브리핑] 서울시 감사위 "TBS 공정·객관성 개선 안 돼"…최종 경고 서울시 '미디어재단 TBS 기관운영 감사' 결과 보고서 공개감사위 "서울시민 세금 재원 운영…자금 집행 투명성 저해"최종적으로 '기관 경고'와 '기관장 경고' [미디어 브리핑] 검찰 "방통위 직원들, TV조선 평가점수 낮춰 달라고 요구" [미디어 브리핑] MBC 제3노조 "尹 비속어 문제라면, 이재명 욕설은 왜 보도 안 했나" 국민들은 지금? 더보기 尹 지지율 소폭 상승해 35.9%…순방 성과는 부정평가 60% [데일리안 여론조사] 국민 39.2% "김건희만 국감장 나와야"…"文만 나와야" 21.9% [데일리안 여론조사] 경제 많이 본 기사 더보기 1 폭스바겐코리아, 사고수리 견적 서비스 이벤트 실시 2 BYC, 기능성 발열웨어 '2022년형 보디히트' 출시 3 마스턴투자운용, 창립 12주년 기념 체육대회 성료 4 지난해 교통사고·산재사고 사망자, 통계작성 이래 최저치 5 한국타이어, 발달장애 학생 위한 ‘우리들의 숲 조성’ 봉사활동 진행 D-피플라운지 더보기 '소통의 리더' 김성한 DGB생명 사장, 변액보험도 IFRS17도 '유비무환' "소통 그리고 소통."보험 상품 개발과 영업 등 실적과 관련된 물음부터 사내 문화와 미래 비전에 이르기까지, 경영 전반의 어떤 질문에도 김성한 DGB생명보험 사장의 방점은 소통이었다.사람 중심의 기업가 정신을 역설해 온 김 사장에게 올해는 여러모로 기념비적인 한 해다. 수장이 된 이후 줄기차게 추진해 왔던 변액보험 강화 전략이 눈에 띄는 성과를 내고 있고, 연임에 성공하며 경영 능력에 대한 신뢰를 재확인하면서다.김 사장은 지난 7일 데일리안과 만나 연임을 확정한 후 처음 인터뷰를 갖고, 그 동안 최고경영자로서 거둔 성과를 묻는 질문… 특징주 더보기 · 삼성전자, 3분기 ‘어닝쇼크’에도 상승 반전 · 모델솔루션, 코스닥 상장 첫날 강세 · 삼성전자, 3Q 영업익 어닝쇼크에 1%대↓ · 현대모비스, 美 전동화 생산거점 구축에 '강세' · 삼성전자, 메모리 반도체 감산 無검토 소식에 '강세' 오피니언 더보기 조남대의 은퇴일기 시간 앞에 장사 없더라…목계나루와 인생 서진형의 부동산포커스 갈 길이 먼 재건축초과이익환수제도 김규환의 핸디 차이나 中 정치국 상무위원 후보 후춘화·딩쉐샹·천민얼은 누구? 이진곤의 그건 아니지요 이재명 자신의 ‘형수 욕설’보다 더 ‘극단적’인 게 있을까? 하재근의 이슈분석 박민영, 헤어졌으면 그만 아닌가 [코인뉴스] 비트코인 2700만원대 깨지나…탄탄한 美 고용에 ‘휘청’ 실업률 3.5%로 지난달 대비 하락연준 긴축 속도조절론 기대감 꺾이며 하방 압력 [코인뉴스] 연준 매파적 발언 영향?...비트코인 2800만원대 약세 [코인뉴스] 상승세 보인 비트코인, 2900만원 장벽에 가로막혀 D-FOCUS 서현우 "'헤어질 결심', 탕웨이 정확한 발음 지도 덕분" 최대훈 "사람들에게 각인되지 않은 이미지, 나는 좋다" 장승조 "'모범형사' 두 시즌 성공, 내게 큰 자부심" 인사·부고·동정 더보기 [부고] 성인모(한국금융투자협회 수석전무)씨 부친상 [인사] 기재부 [부고] 이정렬(반도건설 대표)씨 모친상 [인사] 공정거래위원회 [인사] 금융위원회 오피니언 칼럼 기자의 눈 기고 시사만평 정치 정치일반 대통령실 국회 정당 북한 국방·외교 사회 사회일반 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 지역 인물 수도권 경기남부 경기북부 인천 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 IT/과학 IT일반 과학일반 모바일 인터넷·SNS 통신 보안·해킹 컴퓨터 게임 리뷰 연예 연예일반 TV 영화 음악 스타 스포츠 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 UFC 생활문화 생활문화일반 건강정보 자동차·시승기 도로·교통 여행·레저 음식·맛집 패션·뷰티 공연·전시 책 종교 날씨 세계 세계일반 아시아·오세아니아 북미 중남미 유럽 중동·아프리카 비쥬얼 뉴스 포토 D-TV 카드뉴스 Copyright ⓒ ㈜데일리안 All rights reserved. 회사소개 광고제휴문의 개인정보취급방침 저작권 규약 이용약관 임직원복지몰 제호: 데일리안 등록일: 2005.09.13 등록번호: 서울 아00055 발행인: 민병호 편집인: 이상준 주소 : 서울시 강서구 양천로583(우림블루나인 B동 508,509호) 전화 : 02-714-0770 FAX : 02-714-2969</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 대비 해외 관광마케팅 '총력' - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 코로나19 대비 해외 관광마케팅 '총력' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 코로나19 대비 해외 관광마케팅 '총력' 현대성 기자 승인 2020.09.20 16:49 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도가 언택트 여행 활로를 모색해 안전관광 신루트를 창출하는 등 코로나19 이후를 대비한 해외 관광마케팅에 힘을 쏟고 있다. 착륙 없이 항공기나 크루즈 안에서 여행하는 소비자를 대상으로 코로나 일상 속(New Normal) 마케팅을 진행하고 현지 여행업계 대상 제주 정보 공유로 방역의 부담을 덜고 관광시장 조기 회복도 견인한다. 코로나19 장기화로 어려움을 겪고 있는 관광업계를 위해 글로벌 잠재 소비자를 대상으로 청정·안전 제주 이미지를 적극 홍보함으로써 관광심리 조기 회복에 선제적으로 대응한다는 방침이다. 제주도는 대만-제주 가상출국 여행 얼리버드 프로모션 상품 탑승객 120명을 대상으로 제주관광 홍보 및 제주어 배우기, 퀴즈 이벤트 등을 진행했다고 20일 밝혔다. 제주-대만 가상출국 여행 얼리버드 상품은 코로나 여파로 해외여행이 제한된 상황에서 항공기가 착륙하지 않은 채 제주 상공만 선회한 후 대만으로 돌아가는 상품이다. 제주도, 한국관광공사 타이베이지사, 대만 여행사 이지플라이와 타이거에어가 공동 출시했다. 출시 4분 만에 완판되는 등 뜨거운 호응을 얻었다. 제주도는 지난 19일 타이베이공항을 출발한 후 제주국제공항까지 왕복하는 비행 시간동안 제주의 청정 자연환경, 다양한 이색 체험, 풍성한 먹거리를 홍보했으며 행사는 성황리에 마무리됐다. 제주도는 또 오는 30일부터 다음 달 2일까지 예정된 겐팅 크루즈라인과 제주 관광 테마 크루즈 운영사업 지원을 통해 제주의 해외관광시장 조기 회복도 준비하고 있다. 제주도는 대만 순회 크루즈선을 활용해 제주관광 테마 크루즈를 운영하고, 선상 문화체험 활동도 펼칠 계획이다. 제주도는 아울러 해외 관광마케팅 강화를 위해 중국, 대만, 동남아, 일본 소재 11개 제주관광홍보사무소를 중심으로 현지 밀착형 마케팅을 병행하고 있다. 김재웅 도 관광국장은“향후 해외 관광시장 재개를 대비해 제주도가 경쟁우위를 확보할 수 있도록 현지 상황에 맞춘 마케팅을 추진하고 있다”며 “해외관광시장 회복을 위해 최선을 다하겠다”고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 유명관광지 곶자왈은 여름철 천연에어컨 역활 &lt; 국내 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:50 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도 유명관광지 곶자왈은 여름철 천연에어컨 역활 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 국내 제주도 유명관광지 곶자왈은 여름철 천연에어컨 역활 기자명 정기환 기자 입력 2020.09.08 09:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 국립산림과학원, 곶자왈 내부의 8월 평균 기온이 외부보다 약 2℃ 낮다고 밝혀 사진= 제주도 곶자왈 전경[투어타임즈=정기환 기자] 산림청 국립산림과학원 난대·아열대산림연구소는 곶자왈 숲의 7년간 기온 빅데이터 자료를 분석한 결과 곶자왈 숲이 외부보다 낮은 온도를 유지하고 있음을 확인했다. 난대·아열대산림연구소는 곶자왈시험림 8개 기상측정 장치에서 수집한 자료를 대상으로 7년간 8월의 지역별 기온 차이를 분석한 결과, 성산지역보다 선흘곶자왈이 1.9℃ 낮았으며 저지곶자왈과 청수곶자왈은 고산지역에 비해 각 1.7℃, 1.5℃가 낮은 것으로 나타났다. 특히 7년 관찰 기간 중 여름철 기온 차이가 가장 컸던 2016년도에는 곶자왈 내부가 도심지역 보다 2.3∼2.8℃정도 낮은 것으로 나타났다. 숲의 기온이 더 낮은 이유는 나무의 증산작용과 그늘효과, 반사열 저감효과 때문이다. 생물 다양성이 높고 울창한 나무로 둘러싸인 곶자왈을 잘 보전한다면 한여름에도 시원한 온도를 유지할 수 있을 것으로 보인다. 국립산림과학원 난대.아열대산림연구소 서연옥 연구사는 “이번 결과는 제주 용암숲 곶자왈의 기온이 제주 도심보다 훨씬 시원하다는 것을 장기간의 데이터를 통해 수치적으로 증명했다는데 의의가 있다”며 “곶자왈은 제주도 전체의 약 6%에 해당하지만, 생물다양성의 보고 지질학적 가치와 더불어 기온을 낮추는 효과도 있는 것으로 판단되어 지속적인 보존과 관리가 필요하다”고 말했다.&lt;정기환 기자 jeong9200@sundog.kr&gt; 정기환 기자 jeong9200@sundog.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 방역 안전국간 소규모 관광마케팅 추진 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 방역 안전국간 소규모 관광마케팅 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도, 방역 안전국간 소규모 관광마케팅 추진 기자명 제주매일 입력 2020.09.21 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 안전관광 신루트 창출도모 관광테마 크루즈 운영지원 제주특별자치도가 언택트 여행 활로를 모색해 안전관광 신루트를 창출하는 등 코로나19 이후를 대비한 해외 관광마케팅에 힘을 쏟고 있다. 착륙 없이 항공기나 크루즈 안에서 여행하는 소비자를 대상으로 코로나 일상 속(New Normal) 마케팅을 진행하고 현지 여행업계 대상 제주 정보 공유로 방역의 부담을 덜고 관광시장 조기 회복도 견인한다. 코로나19 장기화로 어려움을 겪고 있는 관광업계를 위해 글로벌 잠재 소비자를 대상으로 청정·안전 제주 이미지를 적극 홍보함으로써 관광심리 조기 회복에 선제적으로 대응한다는 방침이다. 최근 협정을 맺은 방역 안전국가 간 소규모 여행을 허용하는 트래블 버블(Travel bubble)이 추진되고, 한국발 입국자에 대한 조치 해제국가 증가(9월 17일 기준, 24개국) 등 여행 재개를 위한 분위기가 조성되고 있는 추세도 고려됐다. 앞서 원희룡 지사는 “코로나 장기화에 따라 위드 코로나시대에는 안전관광이 필수요소가 될 것”이라며 “분산형·비대면·비접촉 관광과 프로그램·콘텐츠 등의 발굴을 적극 지원하고, 관련된 규제를 과감하게 풀면서 뉴노멀시대에 발맞춘 제주형 관광 새길을 선도해야 한다”고 강조했다. 코로나 여파로 해외여행이 제한된 상황에서 제주도, 한국관광공사 타이베이지사, 대만 여행사 이지플라이(易飛網)와 타이거에어가 공동 출시한 이 상품은 항공기가 착륙하지 않은 채 제주 상공만 선회한 후 대만으로 돌아가는 일정이다. 제주도는 중국(5개소), 대만(1개소), 동남아(2개소), 일본(3개소)*에 소재하는 11개 제주관광홍보사무소를 중심으로 현지 밀착형 마케팅도 병행하고 있다. 김재웅 관광국장은“향후 해외관광시장 재개를 대비해 제주도가 경쟁우위를 확보할 수 있도록 현지 상황에 맞춘 마케팅을 추진하고 있으며,  해외관광시장 회복을 위해 최선을 다하겠다”고 밝혔다. 제주매일 news@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>전 제주도의원 소유 관광시설 불법 건축물 ‘2차 시정명령’ &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 전 제주도의원 소유 관광시설 불법 건축물 ‘2차 시정명령’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 전 제주도의원 소유 관광시설 불법 건축물 ‘2차 시정명령’ 기자명 이동건 기자					(dg@jejusori.net) 입력 2020.09.09 10:06 댓글 10 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 서귀포시 “1차 시정명령 불이행해 2차 시정명령”...2차 불이행시 3차명령, 사법 고발 방침 전직 도의원을 지낸 K씨가 소유한 서귀포시 대정읍 모 관광시설 내 무허가 건축물. 김태엽 서귀포시장이 임명 전인 지난 3월 음주운전 적발 당일 술자리를 가진 장소다. ⓒ제주의소리 자료사진제주 서귀포시가 대정읍 모 관광시설 내 전 도의원 K씨 소유의 무허가 불법 건축물에 대해 2차 시정명령을 내렸다. 서귀포시는 대정읍 A관광시설에 대한 1차 시정명령(7월24일 시정명령, 9월3일 기한 종료)에도 시정이 이뤄지지 않자 8일자로 2차 시정명령을 내렸다고 밝혔다. 2차 시정명령 기한은 오는 10월15일까지다.2차 시정명령에도 시정이 이뤄지지 않으면 3차 시정명령과 이행강제금 부과, 사직당국 고발 조치 등의 조치가 이뤄질 예정이다. 이와 관련해 서귀포시 관계자는 “1차 시정명령 기한이 끝난 뒤 현장을 확인했고, 시정이 이뤄지지 않아 2차 시정명령을 내렸다”고 말했다. 시정명령을 받은 A관광시설은 전직 도의원 K씨 소유다. K씨는 허가 없이 불법으로 건물 2동을 설치한 것으로 드러나 물의를 빚고 있다.한 동은 야외 관광지 부지 내 별채 개념의 건물이자 연회장소 등으로 이용 됐고, 나머지 한동은 나무 위에 설치된 소위 ‘트리하우스’로 전기시설 등도 되어 있다. 특이 히 불법 건축물은 음주운전으로 논란을 빚은 김태엽 서귀포시장이 지난 3월 임명 전 음주운전 사고 적발 당시 술자리를 가졌던 장소로 드러나 큰 물의를 일으켰다.서귀포시 대정읍 A관광시설에 설치된 트리하우스. 관련기사 제주 전 도의원 소유 대정읍 불법건축 1차 시정명령 전 제주도의원 K씨 불법 건축물 1동 철거…트리하우스 3차 명령 전 제주도의원 소유 관광시설 불법 건축물 모두 철거돼 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>코로나19 후 관광객 ‘해외→제주도’로 유턴… 상권 호황 기회? - 머니S 본문영역 바로가기 2022.10.11 | 14:51:51 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다 더보기 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다2분전 온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순3분전 DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"8분전 남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축9분전 [머니S포토] 질의 답변하는 이종국 SR대표이사14분전 최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"16분전 [머니S포토] 코레일·SR 등 2022 국회 국토위 국감16분전 광주신세계, 감홍사과 등 '가을 제철과일 모듬전'19분전 [머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장20분전 불법체류자에 신종마약 유통한 태국인 일당 무더기 검거21분전 2022.10.11 기사표출기준 광고안내 독자의견 정기구독 MNB 머니바이크 하이하이 검색오픈 검색 검색 금융 은행 보험 증권섹션 재테크 정책일반 생활금융 증권 마켓 비즈니스 글로벌 재테크 가상화폐 산업 기업일반 IT 블록체인 자동차 항공물류 유통생활 정책일반 게임 의약/바이오 에너지/중공업 건설/부동산 업계일반 부동산시장동향 정책일반 재테크 생활문화 여행 맛집 출판 공연문화 교육,육아 건강 패션뷰티 이슈&amp; 창업현미경 브랜드소식 정책일반 핫이슈/트렌드 인물탐방 쇼핑몰뉴스 창업칼럼 연예 스타 드라마 예능 영화 뮤직 해외 일반 포토 스포츠 야구 해외야구 축구 해외축구 농구 배구 골프 일반 e스포츠&amp;게임 연재 정치/사회 정치 사회 지역 글로벌 인사 부고 전체 코로나19 후 관광객 ‘해외→제주도’로 유턴… 상권 호황 기회? 머니S 김창성 기자|조회수 : 1,471|입력 : 2020.09.03 17:53 기사공유 댓글남기기 폰트크게 폰트작게 프린트 코로나19 여파에 해외 여행객이 제주도로 눈을 돌리면서 제주도 상권이 기대감에 가득찼다. 사진은 제주의 한 해변에 붙은 부동산 광고 현수막. /사진=김창성 기자세계적으로 신종 코로나바이러스 감염증(코로나19)이 확산되면서 해외여행을 떠나는 관광객 수가 감소했다. 이들이 해외 대신 제주도로 눈을 돌리자 제주 상권이 들썩이는 분위기다. 3일 수익형부동산 연구개발기업 상가정보연구소에 따르면 SK텔레콤 빅데이터 서비스 플랫폼 지오비전 통계를 분석한 결과 지난 6월 기준 제주 애월 카페거리 일평균 유동인구는 3만4022명이다.이는 일주일 평균 약 24만명이 방문하는 수치며 한 달에 약 100만명의 유동인구가 상권을 찾는 셈.6월 유동인구 중 30대가 22.9%로 가장 많았고 이어 ▲40대(22.7%) ▲50대(18.6%) ▲20대(17.2%) ▲60대(14.4%) ▲10대(4.2%) 순이었다. 상권 내 유동인구는 소비력이 높은 30~40대 비중이 45.6%로 가장 높았다.지난 6월 애월 카페거리 내 카페 월평균 추정 매출은 1918만원으로 조사됐다. 이는 상권이 속한 제주시 카페 월평균 추정 매출 1106만원 대비 812만원 높은 매출이다. 상권 내 1회 방문 시 평균 추정 결제금액도 1만8617원으로 제주시 평균인 1만4619원 보다 3998원 높았다.연령 별 추정 매출은 30대가 33.7%로 가장 높은 비중을 차지했고 ▲20대(32.4%) ▲40대(19%) ▲50대(10.5%) ▲60대 이상(4.4%) 순이었다.조현택 상가정보연구소 연구원은 “최근 코로나19 확산의 영향으로 제주도로 여행 가는 국내 관광객이 급증해 제주도 상권은 활기를 띠고 있다”며 “다만 이러한 영향은 관광지 상권으로 국한돼 있어 관광객 방문이 적은 지역의 상권은 관광지 상권에 비해 다소 침체된 분위기”라고 분석했다. 이어 “여름 7~8월 휴가철에는 제주도 방문자가 더욱 증가하며 상권 분위기가 달아올랐다”며 “하지만 코로나19 확산이 종식이 됐을 때도 이러한 분위기가 지속될 지는 미지수”라고 우려했다. 김창성 solrali@mt.co.kr 머니S 김창성 입니다. 이 기자의 다른기사 보기 &gt; 공유 : 공감 0% 비공감 0% &lt;저작권자 ⓒ ‘성공을 꿈꾸는 사람들의 경제 뉴스’ 머니S, 무단전재 및 재배포 금지&gt; &lt;보도자료 및 기사 제보 (moneys@mt.co.kr)&gt; [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다" 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 랭킹뉴스 최신뉴스 추천뉴스 [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다"'암투병' 엄앵란, 근황 공개… "관절수술 후 거동 불편해"박시연, '음주운전' 이후 첫 공식석상… 손담비가 남긴 댓글은?무주 생일 모임 일가족 참사… 원인은 일산화탄소 중독?'친중행보 논란' 헨리, 빨갛게 부어 버린 얼굴… 대체 무슨 일?흑인 팬 하이파이브 거부?… '조이♥' 크러쉬 "제스처 오해" 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축[머니S포토] 질의 답변하는 이종국 SR대표이사최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"[머니S포토] 코레일·SR 등 2022 국회 국토위 국감광주신세계, 감홍사과 등 '가을 제철과일 모듬전'[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장불법체류자에 신종마약 유통한 태국인 일당 무더기 검거 '12월 결혼' 티아라 지연♥황재균, 헬스장 데이트 '달달'18세 박유진, 전 재산 3만원인데… 한달 배달료만 80만원?한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥'최강희 근황, 시간당 1만원 고깃집 설거지 알바?'13세 나이 차' ♥정준과 결별설… 김유지 근황 보니?박수홍 응급실 실려갈 때… "'폭행' 父는 형수와 식사""하정우 슬퍼하더라"… 차현우♥황보라, 이미 법적 부부?'돌싱글즈3' 이소라, 안면 골절→응급실행… ♥최동환 "회복하자""아이폰을 입에?"… 지드래곤, 어마어마한 플렉스 면모YG "제니 개인사진 최초 유포자 경찰수사 의뢰" 코스피 : 2186.27 46.5714:33 10/11 코스닥 : 669.72 28.7714:33 10/11 원달러 : 1435.00 22.614:33 10/11 두바이유 : 96.51 2.1514:33 10/11 금 : 1675.20 34.114:33 10/11 BOOK [신간] 스타트업이 성장형 기업으로... 세계적 경영자의 동력과 신념 재테크 [법률S토리] 과세특례 활용으로 절세해 볼까 맛집로드 [맛집로드] 식탁 위에 펼쳐진 지속 가능한 미식, 비건 맛집 머니S리포트 한화, 대우조선 이어 KAI도 품을까 머니S 시리즈 기사들을 한자리에 [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? 연휴 끝난 코스피, 2200선 하회… 삼성전자는 3%대 하락 "간사 간 협의해라"… 감사원 국감, 개의 '8분'만에 파행 이전 다음 이전 다음 이전 다음 이전 다음 SLIDE[머니S포토] 코레일·SR 등 2022 국회 국토위 국감 SLIDE[머니S포토] 코레일 "감사원에 통상적 절차 답변…정보보안 철저히" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 코레일 '나희승' SLIDE[머니S포토] SR 이종국 "사전정보 보안 내부적 철저히...자료제공 면밀히" SLIDE[머니S포토] 철도공단 김한영 "철도 수송분담률 대폭 높일 것" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장 SLIDE[머니S포토] 질의 답변하는 이종국 SR대표이사 SLIDE[머니S포토] 감사원 국감, 질의 경청하는 최재해·유병호 SLIDE[머니S포토] 최재해 감사원장 "정치적 중립지키며 공정 감사 노력" SLIDE[머니S포토] 생각에 잠긴 최재해 감사원장 SLIDE[머니S포토] 안경 고쳐쓰는 유병호 사무총장 SLIDE[머니S포토] 감사원 국정감사, 대화하는 최재해·유병호 SLIDE[머니S포토] 법제사법위원회 감사원 국정감사 SLIDE[머니S포토] '2022 국정감사' 여야 간사와 대화하는 김도읍 위원장 SLIDE[머니S포토] 감사원 국정감사, 여야 신경전으로 파행 SLIDE[머니S포토] 국정감사 증인 선서하는 최재해 감사원장 SLIDE[머니S포토] 2022 금감원 국감, 인사 나누는 이복현·강병원 SLIDE[머니S포토] 금감원 "금융권 횡령사고 및 이상 외환거래 등 신속·강력 대응" SLIDE[머니S포토] 이복현 "공매도 국민 눈높이 맞춰 형평성 있게 보완" SLIDE[머니S포토] 2022 금감원 국정감사, 의견 나누는 이복현·이명순 SLIDE[머니S포토] 금감원 이복현 "불법·불공정 거래행위 뿌리째 뽑을 것" SLIDE[머니S포토] 2022 정무위 국감, 질의 답변하는 이복현 금감원장 SLIDE[머니S포토] 금감원 "소상공·중소기업, 충격없이 연착륙하도록 지원" SLIDE[머니S포토] 이복현 "보이스피싱 등 민생침해 금융범죄 척결위해 총력" SLIDE[머니S포토] 2022 한은 국감, 마스크 고쳐쓰는 이창용 총재 SLIDE[머니S포토] 한은 이창용 "IMF 내 韓 외환보유고 적다는 인원 없어" SLIDE[머니S포토] 이창용 'PF·제2금융권 부실 현실화..."문제 될 수 있어"' SLIDE[머니S포토] 통화스와프 관련 질의 답하는 이창용 한은 총재 SLIDE[머니S포토] 한은 이창용 "물가 내년 1분기까지 5%대...하반기 내려갈듯" SLIDE[머니S포토] 2022 국회 기재위 국감, 답변하는 한은 이창용 총재 [기자수첩] 기업 혁신 막는 규제, 이제 버릴 때가 됐다 소비자 안전·환경 등과 관련된 기업 규제는 엄격해야 한다. 반면 미래로 도약하기 위한 혁신만큼은 길을 열어줘야 발전 속도가 빠르고 세계시장을 주도할 수 있다.국내 기업은 규제에 발목이 잡혀 이 같은 논리와 늘 거리가 멀었다. 언제나 현실과 동떨어진 규제가 변화의 흐름을 끊고 발전을 막았다. 편리한 서비스를 원하는 소비자만 피해를 봤다.모빌리티 플랫폼 타다 사례가 대표적이다. 최근 서울중앙지방법원 형사항소1-1부(부장판사 장찬·맹현무·김형작)는 타다를 불법 운영한 혐의로 재판에 넘겨진 이재웅 전 쏘카 대표와 쏘카의 전 자회사 브이씨앤씨(VCNC)의 박재욱 전 대표에 대한 항소심 선고 공판에서 무죄를 선고했다. 이들에게 적용됐던 혐의는 "여객자동차운수사업법" 위반이다. 타다는 운전자가 딸린 11인승 승합차를 이용자에게 빌려주는 서비스다. 이용자는 타다 서비스 이용을 위해 스마트폰 애플리케이션(앱)으로 호출하면 된다. 타다의 운영사이자 과거 쏘카의 자회사였던 VCNC는 쏘카에게 렌.. [법률S토리] 과세특례 활용으로 절세해 볼까[고수칼럼] 계속되는 금리인상 폭탄… 시장이 내딛는 발걸음 따라가야[청계광장]노동기본권에 대한 발상의 전환[기자수첩] 네카오 보험 비교·추천, 이대로 괜찮을까? 제770호한화, 세계 최고의 방위산업체를 꿈꾸다 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 김승연에서 김동관으로… 대 잇는 'M&amp;A 승부사' DNA 새 판 짜는 한화, 중심엔 '김동관 리더십' 한화, 대우조선 이어 KAI도 품을까 제769호재개발·재건축 변함없는 '복마전' [르포] 인천 숭의5구역 'SK vs 두산', 시공사 선정 난항 [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 잠실 미성·크로바 벌금형 받은 '롯데건설'… 시공계약 유지할 수 있을까 제768호민간 주도 성장, 다시 뛰는 대한민국 '퍼펙트 스톰' 경고음… 돌파구는 '민간 주도 성장' 위기극복 팔 걷은 기업들… 한국 도약 이끈다 기업 끌고 정부 밀고… K-반도체, 공급망 주도권 쥔다 기업이 여는 '뉴 스페이스'… 민간 우주시대 활짝 "이번엔 K-원전"… 글로벌 시장 '정조준' 회사소개 정기구독 사이버몰이용약관 저작권규약 개인정보처리방침 광고안내 독자의견 머니앤밸류   서울시 종로구 청계천로 11(서린동, 청계한국빌딩)   제호: 머니에스   대표이사/발행인/편집인: 박정용등록번호:서울 아01082    등록일/발행일:2010.1.5    사업자등록번호 101-81-94590통신판매신고번호 제 01-1022호    호스팅사업자 주식회사 후이즈전자우편주소 moneys@mt.co.kr    Tel: 02-724-0959    청소년보호책임자: 강인귀 COPYRIGHT © MONEYS ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 본사 제주도로 옮기고 '카지노' 집중…힘 실린 '2세' 김한준 사장 - 위키리크스한국 × 전체기사 News Today 전체 정치 경제 월드 법조 사회 북한 취업뉴스 창업뉴스 통계&amp;법률 보도자료 미분류 라이프 전체 생활경제 컬처 산업·IT 전체 산업 IT 메디컬 UPDATED. 2022-10-11 14:50 (화) 로그인 회원가입 보도자료 WIKI Korea 모바일웹 WikiLeaks News 위키리크스 뉴스 wikileaks news WIKI 월드&amp; 이슈 정치 경제 산업·IT 산업 IT 사회 라이프 생활경제 컬처 WIKI 테마 WIKI 프리즘 비밀문서 테마기획 청와대-백악관 X파일 메디컬 기사검색 검색 이전 다음 롯데관광개발, 본사 제주도로 옮기고 '카지노' 집중…힘 실린 '2세' 김한준 사장 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME News Today 경제 롯데관광개발, 본사 제주도로 옮기고 '카지노' 집중…힘 실린 '2세' 김한준 사장 유경아 기자 승인 2020.09.07 13:30 수정 2020.09.07 13:30 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [사진=롯데관광개발] 롯데관광개발이 서울 광화문에 있던 본사를 제주도로 옮기고 제주 드림타워 복합리조트 개발에 집중한다. 특히 이 곳 개발 사업을 이끌고 있는 김한준 제주 드림타워 복합리조트 사업본부 사장이 사내이사로 내정, 2세 경영에 힘이 실릴 전망이다. 7일 관련업계 등에 따르면 롯데관광개발은 오는 21일 주주총회를 열고 감사보고와 정관 일부 변경, 이사 선임의 건 등을 의결할 예정이다. 롯데관광개발은 정관에 사업목적 추가와 본점소재지 이전 등을 추가할 예정이다. 또 사내·사외이사를 신규 선임하는 내용이 주요 의안으로 오른다. 롯데관광개발은 이번 주총에서 사업영역 확장을 위한 목적사업을 추가한다. 건물종합관리업, 집합건물관리업 등이다. 또 서울에 있던 본사를 제주도로 이전하고, 변경된 정관은 오는 21일부터 시행한다는 방침이다. 롯데관광개발은 지난 2014년부터 제주 드림타워 복합리조트 내 카지노 설치를 추진해 왔다. 롯데관광개발은 지난달 제주도 카지노산업 영향평가 심의위원회 심의에서 제주롯데호텔 카지노를 이전 개장하는 신청 건에 대해 적합 판정을 받았다. 카지노 이전 설치를 위해서는 이전 신청 후 제주도의회 의견 청취와 카지노 감독위원회 의견 수렴 등이 남아 있다. 롯데관광개발은 기존에 파라다이스가 운영하던 제주 롯데호텔의 카지노(LT카지노)를 2018년 8월 149억원에 인수한 바 있다. 제주 드림타워 내에 오픈하면 세계적 수준의 외국인 전용 카지노로 들어설 예정이며, 호텔은 그랜드 하얏트가 위탁 운영해 스위트룸으로만 구성된 총 1600객실 등을 보유하게 된다. 동시에 2세 경영에도 힘이 실린다. 이번에 사내이사로 내정된 김한준 사장은 김 회장의 차남으로, 롯데관광개발의 개발 사업에 역점을 두고 있는 인사다. 현재는 제주 드림타워 복합리조트 사업본부 사장을 맡고 있다. 그는 지난 2013년 1월 제주 드림타워 복합리조트 사업본부로 옮겨 관련 사업을 주도, 2017년 12월 사장으로 승진했다. 롯데관광개발 이사회 측은 김 사장에 대해 “롯데관광개발이 제주도에서 추진하고 있는 제주 드림타워 복합리조트 사업부문의 실무를 2013년부터 현재까지 총괄하며 성공적으로 진행해 왔다”고 평가했다. 이어 “후보자의 폭넓은 경험과 노하우, 전문성이 기업경영 및 기업성장에 도움이 될 것으로 판단한다”고 덧붙였다. 앞서 롯데관광개발은 지난 8월 상장적격성 실질심사 사유 발생으로 주식 매매거래가 정지된 바 있으며, 유가증권시장 기업심사위원회 심의대상에 올랐다 제외돼 최근 거래를 재개했다. 한국거래소는 롯데관광개발이 반기보고서를 통해 2분기 매출액이 5억원 미만인 사실을 공시함에 따라 이 회사에 상장 적격성 실질심사 사유가 발생했다고 지난 14일 공시했다. [위키리크스한국=유경아 기자]yooka@wikileaks-kr.org 저작권자 © 위키리크스한국 무단전재 및 재배포 금지 유경아 기자 다른기사 보기 facebook 트위터 카카오톡 네이버블로그 유튜브 기자가 쓴 기사 인기기사 1[월드 프리즘] 일부 기독교도들을 평생 동안 괴롭히는 ‘휴거 불안’ 2[우크라 전쟁] 푸틴의 비밀 지하벙커... 핵전쟁 시 푸틴과 함께 들어갈 수 있는 명단은? 3[취재파일] 환영·우려 교차하는 삼성전자의 ARM 인수 4[우크라 전쟁] 푸틴이 실제 전술 핵무기를 사용한다면...전문가들 "일본에 투하된 원자폭탄과 맞먹을 파괴력" 5'빗썸 회장직' 논란 강모씨…빗썸 "명함엔 '빗썸라이브', 회사와 연관無" 6경력직인 줄 알았는데 신입·계약직…코스모신소재 채용 '꼼수' 논란 진실은? 7신한라이프, '생보 빅3' 모두 제치고 '순익 1위'...수익률 방어 성공 덕 8[조필현의 시선] ‘노바스크’ 벌레와 석연찮은 해명 9[인사] HL그룹 10인도네시아, 축구장 난동으로 127명 사망…인파에 대부분 압사 실시간기사 [제약·바이오 채용박람회] 92곳 기업 참가, 특성화대학원 등 참여 [제약·바이오 채용박람회] 92곳 기업 참가, 특성화대학원 등 참여 [ESG와 그린워싱①] '기후악당' 오명 쓴 현대제철, 2050 탄소중립 불가능할까 [ESG와 그린워싱①] '기후악당' 오명 쓴 현대제철, 2050 탄소중립 불가능할까 휴젤이 최대 ‘보툴리눔 톡신’ 美 시장에 도전하는 이유 휴젤이 최대 ‘보툴리눔 톡신’ 美 시장에 도전하는 이유 신문사소개 신문윤리강령 기사제보 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 마포구 마포대로 127, 1001호 (공덕동, 풍림빌딩) 대표전화 : 02-702-2677 팩스 : 02-702-1677 청소년보호책임자 : 소정원 법인명 : 위키리크스한국 주식회사 제호 : 위키리크스한국 등록번호 : 서울 아 04701 등록일 : 2013-07-18 발행일 : 2013-07-18 발행인 : 박정규 편집인 : 박찬흥 위키리크스한국은 자체 기사윤리 심의 전문위원제를 운영합니다. 기사윤리 심의 : 박지훈 변호사 위키리크스한국 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 위키리크스한국. All rights reserved. [위키리크스한국 보도원칙] 본 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알립니다. 고충처리 : 02-702-2677 | 메일 : laputa813@wikileaks-kr.org 위로</t>
+  </si>
+  <si>
+    <t>제주도 실내 관광지 '제주이야기', 천연 꽃 향수와 화장품 만들기 체험공방으로 알려져 &lt; 종합 &lt; 조이뉴스 &lt; 기사본문 - 테크월드뉴스 - 방제일 기자 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 정기구독 특집 아카이브 스마트 팩토리 계측기 오토모티브 산업용 PC 뉴스 최신기사 반도체·디스플레이 임베디드·컴퓨팅·IoT 홈·모바일·통신 자동차·배터리 인터넷·게임·플랫폼 AI·메타버스·로봇 바이오·헬스케어 정책·사회·종합 인사·동정 인사이트 한장TECH 포커스 TECH웨이브 오피니언 인터뷰 칼럼 기고 트렌드 글로벌 트렌드 국내 트렌드 IT 증권가 라이프 생활TECH #IT용어 컨슈머 테크토크/동영상 전체메뉴 버튼 검색하기 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 실내 관광지 '제주이야기', 천연 꽃 향수와 화장품 만들기 체험공방으로 알려져 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 기사저장 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 본문 글씨 줄이기 본문 글씨 키우기 제주도 실내 관광지 '제주이야기', 천연 꽃 향수와 화장품 만들기 체험공방으로 알려져 기자명 방제일 기자 입력 2020.09.12 09:00 댓글 0 [테크월드=방제일 기자] 제주도 여행을 계획할 때는 쨍쨍하던 하늘에서 갑자기 비가 쏟아지는 등 날씨 변화가 심한 제주도의 특성을 고려해 박물관이나 미술관, 체험관광지 등 실내 관광지를 일정에 넣어두는 것이 좋다. 특히 날씨에 구애 받지 않고 언제나 쾌적한 실내에서 체험까지 가능한 실내체험관광지는 어린아이나 노약자를 동반한 경우 많이 걷는 등 체력소모가 많지 않고 모두의 취향을 맞출 수 있어 가족여행시 필수다. 제주도 실내체험관광지 ‘제주이야기’는 날씨에 구애 받지 않고 언제나 쾌적한 실내에서 제주도의 자연을 담은 천연향수와 천연 화장품을 만들어 볼 수 있다. 특히 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능하다는 것이 장점으로, 어린 자녀를 동반한 가족여행지로도 추천도가 높고, 회사 워크숍 등 단체 체험도 이어지고 있다 현재 월정리 해변 인근 행원본점과 비자림 근처 풍림다방 바로 앞 송담점, 제주공항에서 가장 가까운 이호테우 해변 인근 용두암점 세 군데로 운영되고 있다. 8월에 오픈한 용두암점에서는 오픈이벤트로 오전 10시 방문하는 고객에게 생화 꽃향수 무료 체험기회를 제공하고 있다. 제주이야기 행원본점에서는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’가 있으며 천연꽃 방향제와 화산송이 모공팩 만들기 체험도 가능하다. 제주도의 자연을 담은 천연향수는 보존제가 전혀 들어가지 않고 천연꽃과 천연오일 등 천연원료로 만들어 어린이도 부담 없이 만들어보고 사용도 가능하다. 특히 제주도에서 나고 자란 동백, 수국, 수선화, 장미 등 제주자생 꽃과 원료로 내 손으로 직접 만든 세상에 단 하나뿐인 화장품과 향수는 향기로 제주도를 기억하는 특별한 기념품이자 선물용으로도 만족도가 높아 많은 이들이 추천하는 편이다. 또한 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차, 립오일 등 기능성 화장품과 예쁜 젤 캔들 등 다양한 제주도 기념품도 구매할 수 있다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 방제일 기자 (techmania@techworld.co.kr) 기자의 다른기사 보기 저작권자 © 테크월드뉴스 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 테크월드 인기기사 엔비디아, GPU 가격 구설수…‘매출보전’ 소비자‧협력사에 전가 [생활Tech] 노이즈캔슬링이 뭐길래 …‘에어팟 프로2’ 출시에 관심 집중 LG헬로비전, 휴먼 다큐 ‘눈에 띄는 그녀들’ 시즌2 10일 첫 방송 SKT-한국지속가능캠퍼스협회-신한대, 탄소중립 스마트에너지캠퍼스 구축 MOU 체결 아이템베이, ‘디아2 레저렉션’ 래더 시즌2 프로모션 진행 주요뉴스 Now SK실트론, ‘GaN 웨이퍼’ 시장 진출 위해 英 IQE와 SCA 체결 LG전자, 차별화된 ‘생활가전’에 진심…최적의 식품·물 ‘맛’ 찾는다 [생활Tech] 노이즈캔슬링이 뭐길래 …‘에어팟 프로2’ 출시에 관심 집중 NIPA ‘AI 기반 에너지 효율화 사업’, 1차 연도 사업 마무리 단계 에이서, 연내 한국법인 설립…국내시장 공략 강화 세종텔레콤, 5G특화망 사업 준비 완료 인피니언, 헝가리드에 고전력 반도체 모듈 생산공장 가동 SKT-한국지속가능캠퍼스협회-신한대, 탄소중립 스마트에너지캠퍼스 구축 MOU 체결 ST, 이탈리아에 통합 실리콘 카바이드 기판 제조시설 구축 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 기사 및 제보문의 : desk@epnc.co.kr 2020년 문화훈장 2011년 대통령 표창 2005년 국무총리 표창 1998/1999년 문화관광부 표창 인터넷신문위원회 법인명 : (주)테크월드 제호 : 테크월드뉴스 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울 아 03078 등록일 : 2014-04-01 발행일 : 1995-01-01 발행·편집인 : 박한식 청소년보호책임자 : 박지성 통신판매업신고 : 제 2008-서울금천-0415호 Copyright © 2022 테크월드뉴스. All rights reserved. 위로 전체메뉴 전체기사 특집 아카이브 전체 스마트 팩토리 계측기 오토모티브 산업용 PC 뉴스 전체 반도체·디스플레이 임베디드·컴퓨팅·IoT 홈·모바일·통신 자동차·배터리 인터넷·게임·플랫폼 AI·메타버스·로봇 바이오·헬스케어 정책·사회·종합 인사·동정 인사이트 전체 한장TECH 포커스 TECH웨이브 오피니언 전체 인터뷰 칼럼 기고 트렌드 전체 글로벌 트렌드 국내 트렌드 IT 증권가 라이프 전체 생활TECH 가젯·컨슈머 IT용어 TECH토크 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회- 농업인단체협의회 업무협약 체결 &lt; 제주 &lt; 전국 &lt; 기사본문 - 열린뉴스통신 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 정치 경제 사회 전국 서울 경기 인천 강원 세종/충청 전북 광주/전남 대구/경북 부산/울산/경남 제주 국제 문화/연예 스포츠 오피니언 환경 포토/영상 기사검색 검색 2022.10.11(화) 서울 7℃ 미세먼지 H 경기 8℃ 미세먼지 H 인천 9℃ 미세먼지 B 광주 11℃ 미세먼지 H 대전 9℃ 미세먼지 H 대구 11℃ 미세먼지 Y 울산 12℃ 미세먼지 B 부산 11℃ 미세먼지 B 강원 7℃ 미세먼지 H 충북 8℃ 미세먼지 H 충남 9℃ 미세먼지 H 전북 10℃ 미세먼지 H 전남 13℃ 미세먼지 R 경북 11℃ 미세먼지 Y 경남 12℃ 미세먼지 B 제주 15℃ 미세먼지 H 세종 10℃ 미세먼지 H Updated편집. 2022-10-11 14:41 (화) instagram facebook twitter naverpost navertv youtube 로그인 회원가입 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도관광협회- 농업인단체협의회 업무협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 제주 제주도관광협회- 농업인단체협의회 업무협약 체결 코로나19 위기 조기 극복 노력 기자명 한주성 기자 입력 2020.09.23 14:34 댓글 0 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=열린뉴스통신) 한주성 기자 = 제주도관광협회(회장 부동석)와 제주도농업인단체협의회(회장 강수길)는 도내 관광사업체와 농업인 단체 간 융복합 연계 상품 경쟁력 강화를 위해‘코로나19 조기 극복을 위한 관광-농업 상생 발전 업무협약’을 23일 체결했다. ©ONA 이번 협약은 도 관광협회에서 운영하는 온라인마켓 탐나오를 활용하여 제주 농산물의 온라인 판로 개척과 소비 촉진을 위해 양 기관이 적극 협력키로 하였으며 비대면 온라인 거래가 급증하는 추세에 따라 도내 농업인의 온라인 비즈니스 경쟁력 강화를 도모하겠다는 취지이다. 협회 관계자는 “코로나19로 인한 경제 침체로 어려움을 겪는 제주 농업인들에게 이번 협력 사업이 큰 도움이 되어 위기를 빠르게 극복하고 실질적 협력을 통해 관광과 농업의 지속가능한 발전을 이루고자 한다”라고 밝혔다. 한편, 탐나오는 제주도(관광국)가 지원하고 도 관광협회가 100% 비영리 체계로 운영하는 공적 온라인 쇼핑몰로, 도내 관광사업체라면 누구나 입점 및 상품 판매가 가능하며 홈페이지를 통해 언제든지 신청·문의할 수 있다. 한주성 기자 seoul001@daum.net 저작권자 © 열린뉴스통신 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 이 시각 추천뉴스 LS그룹, 걸프협력회의(GCC) 5개국 대사 초청..."사업소개 및 협력 논의" 충격의 주가하락 카카오뱅크, 임원진 5만 685 자사주 매입 서영교 의원 "해외직구 불법거래 388억원 적발…지속적인 모니터링 필요" 용인시의회 박병민 의원, '반도체산업 청년 취업 지원 조례' 제정 정책간담회 가져 SK이노베이션 울산콤플렉스, 2027년까지 약 5조원 투자 정부, 동물 찻길 사고 줄인다...사고 다발 구간에 울타리 설치 경기도, 탄소중립 생활 실천 선도사업 참여공동체 신청접수 LS그룹, 걸프협력회의(GCC) 5개국 대사 초청..."사업소개 및 협력 논의" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 충격의 주가하락 카카오뱅크, 임원진 5만 685 자사주 매입 서영교 의원 "해외직구 불법거래 388억원 적발…지속적인 모니터링 필요" 용인시의회 박병민 의원, '반도체산업 청년 취업 지원 조례' 제정 정책간담회 가져 SK이노베이션 울산콤플렉스, 2027년까지 약 5조원 투자 정부, 동물 찻길 사고 줄인다...사고 다발 구간에 울타리 설치 경기도, 탄소중립 생활 실천 선도사업 참여공동체 신청접수 이 시각 헤드라인 LS그룹, 걸프협력회의(GCC) 5개국 대사 초청..."사업소개 및 협력 논의" 전세자금대출 차주 중 청년층 61% 차지 황선우, 자유형 200m 대회신기록 달성..."전국체전 2관왕 등극" 김진표 의장, 살레-워크 제우데 에티오피아 대통령 면담 서울시, 재생자전거 1천대 저소득층에 무료 지원 많이 본 뉴스 1 ‘2022 더팩트 뮤직 어워즈’ 방탄소년단, 대상 포함 7관왕 등극..."5년연속 대상 수상" 2 [내일날씨 ] 내일까지 비…찬바람 불며 '쌀쌀' 서울 아침 9도 3 이상일 용인시장, 취임 100일 민선 8기 넘어 '시민과 함께 미래 만들어간다' 4 [내일날씨] 찬 바람에 출근길 기온 '뚝'…서울 아침 6도 5 윤종영 의원, "민·관·군 상생협력 구성 연천군 소멸위험 해소해 달라" 하단영역 하단메뉴 매체소개 기사제보 광고문의 고충처리인 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 새문안로 92 (광화문오피시아빌딩) 1127호 대표전화 : 02-785-9331 팩스 : 02-785-9332 청소년보호책임자 : 김태식 법인명 : (주)열린미디어그룹 제호 : 열린뉴스통신 등록번호 : 문화 나 00036 등록일 : 2020-05-19 발행일 : 2020-05-19 발행인 : 조성원 편집인 : 최지혜 열린뉴스통신 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 열린뉴스통신. All rights reserved. mail to news@onewsa.com 위로 전체메뉴 전체기사 정치 경제 사회 전국 전체 서울 경기 인천 강원 세종/충청 전북 광주/전남 대구/경북 부산/울산/경남 제주 국제 문화/연예 스포츠 오피니언 환경 포토/영상 보도자료 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -437,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -491,9 +644,6 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -503,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +708,334 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
